--- a/master_research/test_result.xlsx
+++ b/master_research/test_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univtokyo-my.sharepoint.com/personal/8252598822_utac_u-tokyo_ac_jp/Documents/research/研究内容/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univtokyo-my.sharepoint.com/personal/8252598822_utac_u-tokyo_ac_jp/Documents/research/master_research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="11_AD4D066CA252ABDACC1048B789D1F66E72EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4820FA85-D138-4C40-BD1C-9DA34D4853E7}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="11_AD4D066CA252ABDACC1048B789D1F66E72EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D440A8F-BF9B-4CB8-8A77-2FD37E630F6B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="27">
   <si>
     <t>LOS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,50 @@
   </si>
   <si>
     <t>Pypy with Jump to Front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minsum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paths_len</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my research (options close)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my research(with speed up options)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time/s(lazy A*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my research (old)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +183,13 @@
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -154,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -177,11 +228,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,18 +307,77 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -485,43 +658,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K28"/>
+  <dimension ref="B2:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="H42" workbookViewId="0">
+      <selection activeCell="R52" sqref="R52:S52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
+    <col min="13" max="13" width="13.75" customWidth="1"/>
+    <col min="16" max="16" width="16.25" customWidth="1"/>
+    <col min="19" max="19" width="15.75" customWidth="1"/>
+    <col min="21" max="21" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="41.4">
+    <row r="2" spans="2:11" ht="42.75">
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
@@ -556,7 +734,7 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -577,18 +755,18 @@
       <c r="H5" s="2">
         <v>81.709999999999994</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <v>496698</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="2">
         <v>21.616</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="8"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -609,20 +787,20 @@
         <f>598.79/100</f>
         <v>5.9878999999999998</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <f>3054600/100</f>
         <v>30546</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="2">
         <f>56.5/30</f>
         <v>1.8833333333333333</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="8"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -643,20 +821,20 @@
         <f>235.11/100</f>
         <v>2.3511000000000002</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <f>406200/100</f>
         <v>4062</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="2">
         <f>70.525/100</f>
         <v>0.70525000000000004</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -669,14 +847,14 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="8"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
@@ -687,14 +865,14 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="8"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -705,14 +883,14 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -725,14 +903,14 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="8"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -743,14 +921,14 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="8"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -761,11 +939,11 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="3" t="s">
@@ -773,16 +951,16 @@
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="1" t="s">
@@ -808,7 +986,7 @@
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -823,7 +1001,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="8"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
@@ -836,7 +1014,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="8"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
@@ -849,7 +1027,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -864,7 +1042,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="8"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
@@ -877,7 +1055,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="8"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="2" t="s">
         <v>6</v>
       </c>
@@ -890,7 +1068,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -905,7 +1083,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="8"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
@@ -918,7 +1096,7 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="8"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="2" t="s">
         <v>6</v>
       </c>
@@ -930,19 +1108,615 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
+    <row r="33" spans="2:23" ht="42.75">
+      <c r="M33" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23">
+      <c r="M34" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="U34" s="9"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="26"/>
+    </row>
+    <row r="35" spans="2:23">
+      <c r="M35" s="17"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" s="19"/>
+      <c r="T35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W35" s="27"/>
+    </row>
+    <row r="36" spans="2:23">
+      <c r="M36" s="12">
+        <v>2</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36" s="2">
+        <v>43.93</v>
+      </c>
+      <c r="P36" s="7">
+        <v>0.503</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>44.41</v>
+      </c>
+      <c r="R36" s="20">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="S36" s="21"/>
+      <c r="T36" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="U36" s="7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="V36" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="W36" s="28"/>
+    </row>
+    <row r="37" spans="2:23">
+      <c r="M37" s="12"/>
+      <c r="N37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O37" s="6"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="28"/>
+    </row>
+    <row r="38" spans="2:23">
+      <c r="M38" s="13">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38" s="2">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="P38" s="7">
+        <v>0.126</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="R38" s="20">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="S38" s="21"/>
+      <c r="T38" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="U38" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="V38" s="7">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="W38" s="28"/>
+    </row>
+    <row r="39" spans="2:23">
+      <c r="M39" s="13"/>
+      <c r="N39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="28"/>
+    </row>
+    <row r="40" spans="2:23">
+      <c r="M40" s="13">
+        <v>4</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O40" s="2">
+        <v>26.55</v>
+      </c>
+      <c r="P40" s="7">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="R40" s="20">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="S40" s="21"/>
+      <c r="T40" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="U40" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="V40" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="W40" s="28"/>
+    </row>
+    <row r="41" spans="2:23">
+      <c r="M41" s="13"/>
+      <c r="N41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="28"/>
+    </row>
+    <row r="42" spans="2:23">
+      <c r="M42" s="13">
+        <v>5</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O42" s="2">
+        <v>20.99</v>
+      </c>
+      <c r="P42" s="7">
+        <v>6.83E-2</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>22.62</v>
+      </c>
+      <c r="R42" s="20">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="S42" s="21"/>
+      <c r="T42" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="U42" s="7">
+        <v>3</v>
+      </c>
+      <c r="V42" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="W42" s="28"/>
+    </row>
+    <row r="43" spans="2:23">
+      <c r="M43" s="13"/>
+      <c r="N43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="28"/>
+    </row>
+    <row r="44" spans="2:23">
+      <c r="M44" s="13">
+        <v>6</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O44" s="2">
+        <v>19.54</v>
+      </c>
+      <c r="P44" s="7">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>19.21</v>
+      </c>
+      <c r="R44" s="20">
+        <v>7.8E-2</v>
+      </c>
+      <c r="S44" s="21"/>
+      <c r="T44" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="U44" s="7">
+        <v>3</v>
+      </c>
+      <c r="V44" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="W44" s="28"/>
+    </row>
+    <row r="45" spans="2:23">
+      <c r="M45" s="13"/>
+      <c r="N45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="29"/>
+    </row>
+    <row r="46" spans="2:23">
+      <c r="B46" s="14"/>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="2:23">
+      <c r="B47" s="14"/>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="2:23">
+      <c r="M48" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="U48" s="9"/>
+      <c r="V48" s="10"/>
+    </row>
+    <row r="49" spans="13:22">
+      <c r="M49" s="17"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="19"/>
+      <c r="T49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="13:22">
+      <c r="M50" s="12">
+        <v>2</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O50" s="2">
+        <v>43.93</v>
+      </c>
+      <c r="P50" s="7">
+        <v>0.503</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>41.9</v>
+      </c>
+      <c r="R50" s="20">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="S50" s="21"/>
+      <c r="T50" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="U50" s="7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="V50" s="7">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="51" spans="13:22">
+      <c r="M51" s="12"/>
+      <c r="N51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O51" s="6"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+    </row>
+    <row r="52" spans="13:22">
+      <c r="M52" s="13">
+        <v>3</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O52" s="2">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="P52" s="7">
+        <v>0.126</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>29.04</v>
+      </c>
+      <c r="R52" s="20">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="S52" s="21"/>
+      <c r="T52" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="U52" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="V52" s="7">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="13:22">
+      <c r="M53" s="13"/>
+      <c r="N53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+    </row>
+    <row r="54" spans="13:22">
+      <c r="M54" s="13">
+        <v>4</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O54" s="2">
+        <v>26.55</v>
+      </c>
+      <c r="P54" s="7">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>21.59</v>
+      </c>
+      <c r="R54" s="20">
+        <v>0.255</v>
+      </c>
+      <c r="S54" s="21"/>
+      <c r="T54" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="U54" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="V54" s="7">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="55" spans="13:22">
+      <c r="M55" s="13"/>
+      <c r="N55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+    </row>
+    <row r="56" spans="13:22">
+      <c r="M56" s="13">
+        <v>5</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O56" s="2">
+        <v>20.99</v>
+      </c>
+      <c r="P56" s="7">
+        <v>6.83E-2</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="U56" s="7">
+        <v>3</v>
+      </c>
+      <c r="V56" s="7">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="57" spans="13:22">
+      <c r="M57" s="13"/>
+      <c r="N57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+    </row>
+    <row r="58" spans="13:22">
+      <c r="M58" s="13">
+        <v>6</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O58" s="2">
+        <v>19.54</v>
+      </c>
+      <c r="P58" s="7">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="U58" s="7">
+        <v>3</v>
+      </c>
+      <c r="V58" s="7">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="59" spans="13:22">
+      <c r="M59" s="13"/>
+      <c r="N59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C3:E3"/>
+  <mergeCells count="54">
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/master_research/test_result.xlsx
+++ b/master_research/test_result.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univtokyo-my.sharepoint.com/personal/8252598822_utac_u-tokyo_ac_jp/Documents/research/master_research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="11_AD4D066CA252ABDACC1048B789D1F66E72EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D440A8F-BF9B-4CB8-8A77-2FD37E630F6B}"/>
+  <xr:revisionPtr revIDLastSave="431" documentId="11_AD4D066CA252ABDACC1048B789D1F66E72EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB786B77-D51C-4D11-BAC5-EF08A8165E04}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="map_experiment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="42">
   <si>
     <t>LOS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +84,6 @@
   </si>
   <si>
     <t>Basic Expansion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maze:5x5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -145,6 +142,80 @@
   </si>
   <si>
     <t>my research (old)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metric:minmax
+test time:100
+random_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my research (old）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my research(new)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-agent path_len</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_paths_len</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65.33（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11*11
+obstacles:49
+obstacle_rate:0.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21*21
+obstacles:196
+obstacle_rate:0.44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76.8(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111.9(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">30*31
+obstacles:612
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34*50
+obstacles:677
+obstacle_rate=0.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1test with w=10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,8 +261,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,8 +288,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -291,11 +381,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,6 +415,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -368,16 +485,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -660,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H42" workbookViewId="0">
-      <selection activeCell="R52" sqref="R52:S52"/>
+    <sheetView topLeftCell="H38" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48:S59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -681,25 +809,25 @@
   <sheetData>
     <row r="2" spans="2:11" ht="42.75">
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
@@ -734,17 +862,17 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
@@ -766,15 +894,15 @@
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="13"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>5</v>
@@ -800,15 +928,15 @@
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="13"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
@@ -834,7 +962,7 @@
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -854,7 +982,7 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="13"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
@@ -872,7 +1000,7 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="13"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -890,7 +1018,7 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -910,7 +1038,7 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="13"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -928,7 +1056,7 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="13"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -946,229 +1074,167 @@
       <c r="K13" s="2"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="C18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="13"/>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="13"/>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="13"/>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="13"/>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="13"/>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="13"/>
-      <c r="C28" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
     <row r="33" spans="2:23" ht="42.75">
       <c r="M33" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:23">
-      <c r="M34" s="17" t="s">
+      <c r="M34" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N34" s="15" t="s">
+      <c r="U34" s="15"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="8"/>
+    </row>
+    <row r="35" spans="2:23">
+      <c r="M35" s="23"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="U34" s="9"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="26"/>
-    </row>
-    <row r="35" spans="2:23">
-      <c r="M35" s="17"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R35" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="S35" s="19"/>
+      <c r="S35" s="25"/>
       <c r="T35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W35" s="27"/>
+      <c r="W35" s="9"/>
     </row>
     <row r="36" spans="2:23">
-      <c r="M36" s="12">
+      <c r="M36" s="18">
         <v>2</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O36" s="2">
         <v>43.93</v>
@@ -1179,10 +1245,10 @@
       <c r="Q36" s="2">
         <v>44.41</v>
       </c>
-      <c r="R36" s="20">
+      <c r="R36" s="26">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="S36" s="21"/>
+      <c r="S36" s="27"/>
       <c r="T36" s="2">
         <v>30.1</v>
       </c>
@@ -1192,29 +1258,29 @@
       <c r="V36" s="7">
         <v>15.5</v>
       </c>
-      <c r="W36" s="28"/>
+      <c r="W36" s="10"/>
     </row>
     <row r="37" spans="2:23">
-      <c r="M37" s="12"/>
+      <c r="M37" s="18"/>
       <c r="N37" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="23"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="29"/>
       <c r="T37" s="2"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
-      <c r="W37" s="28"/>
+      <c r="W37" s="10"/>
     </row>
     <row r="38" spans="2:23">
-      <c r="M38" s="13">
+      <c r="M38" s="19">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O38" s="2">
         <v>32.840000000000003</v>
@@ -1225,10 +1291,10 @@
       <c r="Q38" s="2">
         <v>34.130000000000003</v>
       </c>
-      <c r="R38" s="20">
+      <c r="R38" s="26">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="S38" s="21"/>
+      <c r="S38" s="27"/>
       <c r="T38" s="2">
         <v>19.100000000000001</v>
       </c>
@@ -1238,29 +1304,29 @@
       <c r="V38" s="7">
         <v>19.100000000000001</v>
       </c>
-      <c r="W38" s="28"/>
+      <c r="W38" s="10"/>
     </row>
     <row r="39" spans="2:23">
-      <c r="M39" s="13"/>
+      <c r="M39" s="19"/>
       <c r="N39" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="23"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="29"/>
       <c r="T39" s="2"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
-      <c r="W39" s="28"/>
+      <c r="W39" s="10"/>
     </row>
     <row r="40" spans="2:23">
-      <c r="M40" s="13">
+      <c r="M40" s="19">
         <v>4</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O40" s="2">
         <v>26.55</v>
@@ -1271,10 +1337,10 @@
       <c r="Q40" s="2">
         <v>27.2</v>
       </c>
-      <c r="R40" s="20">
+      <c r="R40" s="26">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="S40" s="21"/>
+      <c r="S40" s="27"/>
       <c r="T40" s="2">
         <v>14.9</v>
       </c>
@@ -1284,29 +1350,29 @@
       <c r="V40" s="7">
         <v>26.2</v>
       </c>
-      <c r="W40" s="28"/>
+      <c r="W40" s="10"/>
     </row>
     <row r="41" spans="2:23">
-      <c r="M41" s="13"/>
+      <c r="M41" s="19"/>
       <c r="N41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="23"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="29"/>
       <c r="T41" s="2"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
-      <c r="W41" s="28"/>
+      <c r="W41" s="10"/>
     </row>
     <row r="42" spans="2:23">
-      <c r="M42" s="13">
+      <c r="M42" s="19">
         <v>5</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O42" s="2">
         <v>20.99</v>
@@ -1317,10 +1383,10 @@
       <c r="Q42" s="2">
         <v>22.62</v>
       </c>
-      <c r="R42" s="20">
+      <c r="R42" s="26">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="S42" s="21"/>
+      <c r="S42" s="27"/>
       <c r="T42" s="2">
         <v>12.2</v>
       </c>
@@ -1330,29 +1396,29 @@
       <c r="V42" s="7">
         <v>23.4</v>
       </c>
-      <c r="W42" s="28"/>
+      <c r="W42" s="10"/>
     </row>
     <row r="43" spans="2:23">
-      <c r="M43" s="13"/>
+      <c r="M43" s="19"/>
       <c r="N43" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="25"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="31"/>
       <c r="T43" s="2"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
-      <c r="W43" s="28"/>
+      <c r="W43" s="10"/>
     </row>
     <row r="44" spans="2:23">
-      <c r="M44" s="13">
+      <c r="M44" s="19">
         <v>6</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O44" s="2">
         <v>19.54</v>
@@ -1363,10 +1429,10 @@
       <c r="Q44" s="2">
         <v>19.21</v>
       </c>
-      <c r="R44" s="20">
+      <c r="R44" s="26">
         <v>7.8E-2</v>
       </c>
-      <c r="S44" s="21"/>
+      <c r="S44" s="27"/>
       <c r="T44" s="2">
         <v>10.1</v>
       </c>
@@ -1376,85 +1442,84 @@
       <c r="V44" s="7">
         <v>17.8</v>
       </c>
-      <c r="W44" s="28"/>
+      <c r="W44" s="10"/>
     </row>
     <row r="45" spans="2:23">
-      <c r="M45" s="13"/>
+      <c r="M45" s="19"/>
       <c r="N45" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="25"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="31"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
-      <c r="W45" s="29"/>
     </row>
     <row r="46" spans="2:23">
-      <c r="B46" s="14"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="2:23">
-      <c r="B47" s="14"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="2:23">
-      <c r="M48" s="17" t="s">
+      <c r="M48" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N48" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="15" t="s">
+      <c r="U48" s="15"/>
+      <c r="V48" s="16"/>
+    </row>
+    <row r="49" spans="13:22">
+      <c r="M49" s="23"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O48" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="U48" s="9"/>
-      <c r="V48" s="10"/>
-    </row>
-    <row r="49" spans="13:22">
-      <c r="M49" s="17"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R49" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="19"/>
+      <c r="S49" s="25"/>
       <c r="T49" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="50" spans="13:22">
-      <c r="M50" s="12">
+      <c r="M50" s="18">
         <v>2</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O50" s="2">
         <v>43.93</v>
@@ -1465,10 +1530,10 @@
       <c r="Q50" s="2">
         <v>41.9</v>
       </c>
-      <c r="R50" s="20">
+      <c r="R50" s="26">
         <v>0.83599999999999997</v>
       </c>
-      <c r="S50" s="21"/>
+      <c r="S50" s="27"/>
       <c r="T50" s="2">
         <v>30.1</v>
       </c>
@@ -1480,25 +1545,25 @@
       </c>
     </row>
     <row r="51" spans="13:22">
-      <c r="M51" s="12"/>
+      <c r="M51" s="18"/>
       <c r="N51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="23"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="29"/>
       <c r="T51" s="2"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
     </row>
     <row r="52" spans="13:22">
-      <c r="M52" s="13">
+      <c r="M52" s="19">
         <v>3</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O52" s="2">
         <v>32.840000000000003</v>
@@ -1509,10 +1574,10 @@
       <c r="Q52" s="2">
         <v>29.04</v>
       </c>
-      <c r="R52" s="20">
+      <c r="R52" s="26">
         <v>0.42599999999999999</v>
       </c>
-      <c r="S52" s="21"/>
+      <c r="S52" s="27"/>
       <c r="T52" s="2">
         <v>19.100000000000001</v>
       </c>
@@ -1524,25 +1589,25 @@
       </c>
     </row>
     <row r="53" spans="13:22">
-      <c r="M53" s="13"/>
+      <c r="M53" s="19"/>
       <c r="N53" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="23"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="29"/>
       <c r="T53" s="2"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
     </row>
     <row r="54" spans="13:22">
-      <c r="M54" s="13">
+      <c r="M54" s="19">
         <v>4</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O54" s="2">
         <v>26.55</v>
@@ -1553,10 +1618,10 @@
       <c r="Q54" s="2">
         <v>21.59</v>
       </c>
-      <c r="R54" s="20">
+      <c r="R54" s="26">
         <v>0.255</v>
       </c>
-      <c r="S54" s="21"/>
+      <c r="S54" s="27"/>
       <c r="T54" s="2">
         <v>14.9</v>
       </c>
@@ -1568,25 +1633,25 @@
       </c>
     </row>
     <row r="55" spans="13:22">
-      <c r="M55" s="13"/>
+      <c r="M55" s="19"/>
       <c r="N55" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="23"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="29"/>
       <c r="T55" s="2"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
     </row>
     <row r="56" spans="13:22">
-      <c r="M56" s="13">
+      <c r="M56" s="19">
         <v>5</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O56" s="2">
         <v>20.99</v>
@@ -1595,8 +1660,8 @@
         <v>6.83E-2</v>
       </c>
       <c r="Q56" s="2"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="21"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="27"/>
       <c r="T56" s="2">
         <v>12.2</v>
       </c>
@@ -1608,25 +1673,25 @@
       </c>
     </row>
     <row r="57" spans="13:22">
-      <c r="M57" s="13"/>
+      <c r="M57" s="19"/>
       <c r="N57" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="25"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="31"/>
       <c r="T57" s="2"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
     </row>
     <row r="58" spans="13:22">
-      <c r="M58" s="13">
+      <c r="M58" s="19">
         <v>6</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O58" s="2">
         <v>19.54</v>
@@ -1635,8 +1700,8 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="Q58" s="2"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="21"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="27"/>
       <c r="T58" s="2">
         <v>10.1</v>
       </c>
@@ -1648,15 +1713,15 @@
       </c>
     </row>
     <row r="59" spans="13:22">
-      <c r="M59" s="13"/>
+      <c r="M59" s="19"/>
       <c r="N59" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="25"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="31"/>
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
@@ -1722,4 +1787,444 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D0097C-6E56-442D-B4E2-B0B31B73614F}">
+  <dimension ref="B2:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="46.5" customHeight="1">
+      <c r="B2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>41.9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="F5" s="37">
+        <v>40.545000000000002</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1.5309999999999999</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="7">
+        <f>J5/2</f>
+        <v>36.685000000000002</v>
+      </c>
+      <c r="J5" s="32">
+        <v>73.37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="18"/>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>29.04</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="F6" s="37">
+        <v>27.97</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="7">
+        <f>J5/3</f>
+        <v>24.456666666666667</v>
+      </c>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="18"/>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>21.59</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.255</v>
+      </c>
+      <c r="F7" s="37">
+        <v>21.44</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.41</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="7">
+        <f>J5/4</f>
+        <v>18.342500000000001</v>
+      </c>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="18"/>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>19.54</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F8" s="37">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="7">
+        <f>J5/5</f>
+        <v>14.674000000000001</v>
+      </c>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="19">
+        <v>714.92</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="7">
+        <f>J9/2</f>
+        <v>104</v>
+      </c>
+      <c r="J9" s="32">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="19"/>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="19">
+        <v>53.55</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="7">
+        <f>J9/3</f>
+        <v>69.333333333333329</v>
+      </c>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="19"/>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="19">
+        <v>28.88</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="7">
+        <f>J9/4</f>
+        <v>52</v>
+      </c>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="19"/>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="38">
+        <v>52.88</v>
+      </c>
+      <c r="G12" s="19">
+        <v>14.98</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="7">
+        <f>J9/5</f>
+        <v>41.6</v>
+      </c>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="2">
+        <f>J13/2</f>
+        <v>22.07</v>
+      </c>
+      <c r="J13" s="32">
+        <v>44.14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="19"/>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="2">
+        <f>J13/3</f>
+        <v>14.713333333333333</v>
+      </c>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="19"/>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="2">
+        <f>J13/4</f>
+        <v>11.035</v>
+      </c>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="19"/>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="2">
+        <f>J13/5</f>
+        <v>8.8279999999999994</v>
+      </c>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="2">
+        <f>J17/2</f>
+        <v>69</v>
+      </c>
+      <c r="J17" s="36">
+        <v>138</v>
+      </c>
+      <c r="K17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="19"/>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="2">
+        <f>J17/3</f>
+        <v>46</v>
+      </c>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="19"/>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="2">
+        <f>J17/4</f>
+        <v>34.5</v>
+      </c>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="19"/>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="2">
+        <f>J17/5</f>
+        <v>27.6</v>
+      </c>
+      <c r="J20" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B9:B12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/master_research/test_result.xlsx
+++ b/master_research/test_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univtokyo-my.sharepoint.com/personal/8252598822_utac_u-tokyo_ac_jp/Documents/research/master_research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="431" documentId="11_AD4D066CA252ABDACC1048B789D1F66E72EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB786B77-D51C-4D11-BAC5-EF08A8165E04}"/>
+  <xr:revisionPtr revIDLastSave="512" documentId="11_AD4D066CA252ABDACC1048B789D1F66E72EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF018A7A-D7A1-436A-B9FA-2297FFAA3BB8}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
   <si>
     <t>LOS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,23 +163,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>my research (old）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my research(new)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-agent path_len</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>avg_paths_len</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65.33（33）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -195,17 +183,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>76.8(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>111.9(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">30*31
-obstacles:612
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,6 +194,45 @@
   </si>
   <si>
     <t>(1test with w=10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">30*31
+obstacles:612
+0_lak101d
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my research(var)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my research (mean）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.55(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.88(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62.6(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61.6（10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80.6(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80.2(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -223,7 +240,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +272,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,15 +284,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -396,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -431,6 +454,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -485,25 +511,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -792,44 +827,44 @@
       <selection activeCell="M48" sqref="M48:S59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="16.1328125" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" customWidth="1"/>
+    <col min="4" max="4" width="19.265625" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
-    <col min="16" max="16" width="16.25" customWidth="1"/>
-    <col min="19" max="19" width="15.75" customWidth="1"/>
-    <col min="21" max="21" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" customWidth="1"/>
+    <col min="13" max="13" width="13.73046875" customWidth="1"/>
+    <col min="16" max="16" width="16.265625" customWidth="1"/>
+    <col min="19" max="19" width="15.73046875" customWidth="1"/>
+    <col min="21" max="21" width="14.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="42.75">
+    <row r="2" spans="2:11" ht="41.65" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
-      <c r="C3" s="17" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="2:11">
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,8 +896,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -893,8 +928,8 @@
         <v>21.616</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="19"/>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="20"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -927,8 +962,8 @@
         <v>1.8833333333333333</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="19"/>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -961,8 +996,8 @@
         <v>0.70525000000000004</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -981,8 +1016,8 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="19"/>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
@@ -999,8 +1034,8 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="19"/>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="20"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1017,8 +1052,8 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="19" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1037,8 +1072,8 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="19"/>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="20"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1055,8 +1090,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="19"/>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="20"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1073,18 +1108,18 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:8">
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1093,8 +1128,8 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="18"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="19"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1102,8 +1137,8 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="19"/>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="20"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1111,8 +1146,8 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="19"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="20"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1120,8 +1155,8 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="19"/>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="20"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1129,8 +1164,8 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="19"/>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="20"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1138,8 +1173,8 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="19"/>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="20"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1147,8 +1182,8 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="19"/>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="20"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1156,8 +1191,8 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="19"/>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="20"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1165,8 +1200,8 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="19"/>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="20"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1174,37 +1209,37 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="33" spans="2:23" ht="42.75">
+    <row r="33" spans="2:23" ht="55.5" x14ac:dyDescent="0.4">
       <c r="M33" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:23">
-      <c r="M34" s="23" t="s">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="M34" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N34" s="21" t="s">
+      <c r="N34" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="O34" s="14" t="s">
+      <c r="O34" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="17" t="s">
+      <c r="P34" s="17"/>
+      <c r="Q34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="14" t="s">
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="U34" s="15"/>
-      <c r="V34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="17"/>
       <c r="W34" s="8"/>
     </row>
-    <row r="35" spans="2:23">
-      <c r="M35" s="23"/>
-      <c r="N35" s="22"/>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="M35" s="24"/>
+      <c r="N35" s="23"/>
       <c r="O35" s="1" t="s">
         <v>20</v>
       </c>
@@ -1214,10 +1249,10 @@
       <c r="Q35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R35" s="24" t="s">
+      <c r="R35" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="S35" s="25"/>
+      <c r="S35" s="26"/>
       <c r="T35" s="1" t="s">
         <v>20</v>
       </c>
@@ -1229,8 +1264,8 @@
       </c>
       <c r="W35" s="9"/>
     </row>
-    <row r="36" spans="2:23">
-      <c r="M36" s="18">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="M36" s="19">
         <v>2</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -1245,10 +1280,10 @@
       <c r="Q36" s="2">
         <v>44.41</v>
       </c>
-      <c r="R36" s="26">
+      <c r="R36" s="27">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="S36" s="27"/>
+      <c r="S36" s="28"/>
       <c r="T36" s="2">
         <v>30.1</v>
       </c>
@@ -1260,23 +1295,23 @@
       </c>
       <c r="W36" s="10"/>
     </row>
-    <row r="37" spans="2:23">
-      <c r="M37" s="18"/>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="M37" s="19"/>
       <c r="N37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="30"/>
       <c r="T37" s="2"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="10"/>
     </row>
-    <row r="38" spans="2:23">
-      <c r="M38" s="19">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="M38" s="20">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -1291,10 +1326,10 @@
       <c r="Q38" s="2">
         <v>34.130000000000003</v>
       </c>
-      <c r="R38" s="26">
+      <c r="R38" s="27">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="S38" s="27"/>
+      <c r="S38" s="28"/>
       <c r="T38" s="2">
         <v>19.100000000000001</v>
       </c>
@@ -1306,23 +1341,23 @@
       </c>
       <c r="W38" s="10"/>
     </row>
-    <row r="39" spans="2:23">
-      <c r="M39" s="19"/>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="M39" s="20"/>
       <c r="N39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="30"/>
       <c r="T39" s="2"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="10"/>
     </row>
-    <row r="40" spans="2:23">
-      <c r="M40" s="19">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="M40" s="20">
         <v>4</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -1337,10 +1372,10 @@
       <c r="Q40" s="2">
         <v>27.2</v>
       </c>
-      <c r="R40" s="26">
+      <c r="R40" s="27">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="S40" s="27"/>
+      <c r="S40" s="28"/>
       <c r="T40" s="2">
         <v>14.9</v>
       </c>
@@ -1352,23 +1387,23 @@
       </c>
       <c r="W40" s="10"/>
     </row>
-    <row r="41" spans="2:23">
-      <c r="M41" s="19"/>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="M41" s="20"/>
       <c r="N41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="30"/>
       <c r="T41" s="2"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="10"/>
     </row>
-    <row r="42" spans="2:23">
-      <c r="M42" s="19">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="M42" s="20">
         <v>5</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -1383,10 +1418,10 @@
       <c r="Q42" s="2">
         <v>22.62</v>
       </c>
-      <c r="R42" s="26">
+      <c r="R42" s="27">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="S42" s="27"/>
+      <c r="S42" s="28"/>
       <c r="T42" s="2">
         <v>12.2</v>
       </c>
@@ -1398,23 +1433,23 @@
       </c>
       <c r="W42" s="10"/>
     </row>
-    <row r="43" spans="2:23">
-      <c r="M43" s="19"/>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="M43" s="20"/>
       <c r="N43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="32"/>
       <c r="T43" s="2"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
       <c r="W43" s="10"/>
     </row>
-    <row r="44" spans="2:23">
-      <c r="M44" s="19">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="M44" s="20">
         <v>6</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -1429,10 +1464,10 @@
       <c r="Q44" s="2">
         <v>19.21</v>
       </c>
-      <c r="R44" s="26">
+      <c r="R44" s="27">
         <v>7.8E-2</v>
       </c>
-      <c r="S44" s="27"/>
+      <c r="S44" s="28"/>
       <c r="T44" s="2">
         <v>10.1</v>
       </c>
@@ -1444,53 +1479,53 @@
       </c>
       <c r="W44" s="10"/>
     </row>
-    <row r="45" spans="2:23">
-      <c r="M45" s="19"/>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="M45" s="20"/>
       <c r="N45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="32"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
-    <row r="46" spans="2:23">
-      <c r="B46" s="20"/>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B46" s="21"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="2:23">
-      <c r="B47" s="20"/>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B47" s="21"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="2:23">
-      <c r="M48" s="23" t="s">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="M48" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="21" t="s">
+      <c r="N48" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="O48" s="14" t="s">
+      <c r="O48" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="17" t="s">
+      <c r="P48" s="17"/>
+      <c r="Q48" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="14" t="s">
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="U48" s="15"/>
-      <c r="V48" s="16"/>
-    </row>
-    <row r="49" spans="13:22">
-      <c r="M49" s="23"/>
-      <c r="N49" s="22"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="17"/>
+    </row>
+    <row r="49" spans="13:22" x14ac:dyDescent="0.4">
+      <c r="M49" s="24"/>
+      <c r="N49" s="23"/>
       <c r="O49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1500,10 +1535,10 @@
       <c r="Q49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R49" s="24" t="s">
+      <c r="R49" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="25"/>
+      <c r="S49" s="26"/>
       <c r="T49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1514,8 +1549,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="13:22">
-      <c r="M50" s="18">
+    <row r="50" spans="13:22" x14ac:dyDescent="0.4">
+      <c r="M50" s="19">
         <v>2</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -1530,10 +1565,10 @@
       <c r="Q50" s="2">
         <v>41.9</v>
       </c>
-      <c r="R50" s="26">
+      <c r="R50" s="27">
         <v>0.83599999999999997</v>
       </c>
-      <c r="S50" s="27"/>
+      <c r="S50" s="28"/>
       <c r="T50" s="2">
         <v>30.1</v>
       </c>
@@ -1544,22 +1579,22 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="51" spans="13:22">
-      <c r="M51" s="18"/>
+    <row r="51" spans="13:22" x14ac:dyDescent="0.4">
+      <c r="M51" s="19"/>
       <c r="N51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="30"/>
       <c r="T51" s="2"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
     </row>
-    <row r="52" spans="13:22">
-      <c r="M52" s="19">
+    <row r="52" spans="13:22" x14ac:dyDescent="0.4">
+      <c r="M52" s="20">
         <v>3</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -1574,10 +1609,10 @@
       <c r="Q52" s="2">
         <v>29.04</v>
       </c>
-      <c r="R52" s="26">
+      <c r="R52" s="27">
         <v>0.42599999999999999</v>
       </c>
-      <c r="S52" s="27"/>
+      <c r="S52" s="28"/>
       <c r="T52" s="2">
         <v>19.100000000000001</v>
       </c>
@@ -1588,22 +1623,22 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="53" spans="13:22">
-      <c r="M53" s="19"/>
+    <row r="53" spans="13:22" x14ac:dyDescent="0.4">
+      <c r="M53" s="20"/>
       <c r="N53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="30"/>
       <c r="T53" s="2"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
     </row>
-    <row r="54" spans="13:22">
-      <c r="M54" s="19">
+    <row r="54" spans="13:22" x14ac:dyDescent="0.4">
+      <c r="M54" s="20">
         <v>4</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -1618,10 +1653,10 @@
       <c r="Q54" s="2">
         <v>21.59</v>
       </c>
-      <c r="R54" s="26">
+      <c r="R54" s="27">
         <v>0.255</v>
       </c>
-      <c r="S54" s="27"/>
+      <c r="S54" s="28"/>
       <c r="T54" s="2">
         <v>14.9</v>
       </c>
@@ -1632,22 +1667,22 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="55" spans="13:22">
-      <c r="M55" s="19"/>
+    <row r="55" spans="13:22" x14ac:dyDescent="0.4">
+      <c r="M55" s="20"/>
       <c r="N55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="30"/>
       <c r="T55" s="2"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
     </row>
-    <row r="56" spans="13:22">
-      <c r="M56" s="19">
+    <row r="56" spans="13:22" x14ac:dyDescent="0.4">
+      <c r="M56" s="20">
         <v>5</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -1660,8 +1695,8 @@
         <v>6.83E-2</v>
       </c>
       <c r="Q56" s="2"/>
-      <c r="R56" s="26"/>
-      <c r="S56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="28"/>
       <c r="T56" s="2">
         <v>12.2</v>
       </c>
@@ -1672,22 +1707,22 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="57" spans="13:22">
-      <c r="M57" s="19"/>
+    <row r="57" spans="13:22" x14ac:dyDescent="0.4">
+      <c r="M57" s="20"/>
       <c r="N57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="32"/>
       <c r="T57" s="2"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
     </row>
-    <row r="58" spans="13:22">
-      <c r="M58" s="19">
+    <row r="58" spans="13:22" x14ac:dyDescent="0.4">
+      <c r="M58" s="20">
         <v>6</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -1700,8 +1735,8 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="Q58" s="2"/>
-      <c r="R58" s="26"/>
-      <c r="S58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="28"/>
       <c r="T58" s="2">
         <v>10.1</v>
       </c>
@@ -1712,16 +1747,16 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="59" spans="13:22">
-      <c r="M59" s="19"/>
+    <row r="59" spans="13:22" x14ac:dyDescent="0.4">
+      <c r="M59" s="20"/>
       <c r="N59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="32"/>
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
@@ -1794,21 +1829,21 @@
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J9" sqref="J9:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" customWidth="1"/>
+    <col min="6" max="6" width="13.86328125" customWidth="1"/>
+    <col min="8" max="8" width="8.46484375" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" customWidth="1"/>
+    <col min="10" max="10" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="46.5" customHeight="1">
+    <row r="2" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
         <v>29</v>
       </c>
@@ -1821,31 +1856,31 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35" t="s">
+      <c r="D3" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="35"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,350 +1890,365 @@
       <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
-        <v>41.9</v>
+      <c r="D5" s="14">
+        <v>39.07</v>
       </c>
       <c r="E5" s="2">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="F5" s="37">
-        <v>40.545000000000002</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1.5309999999999999</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="F5" s="2">
+        <v>38.93</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40">
         <f>J5/2</f>
-        <v>36.685000000000002</v>
-      </c>
-      <c r="J5" s="32">
-        <v>73.37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="18"/>
+        <v>40.924999999999997</v>
+      </c>
+      <c r="J5" s="37">
+        <v>81.849999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="19"/>
       <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
-        <v>29.04</v>
+      <c r="D6" s="14">
+        <v>31.4</v>
       </c>
       <c r="E6" s="2">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="F6" s="37">
-        <v>27.97</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>31.35</v>
+      </c>
+      <c r="G6" s="39">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40">
         <f>J5/3</f>
-        <v>24.456666666666667</v>
-      </c>
-      <c r="J6" s="33"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="18"/>
+        <v>27.283333333333331</v>
+      </c>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="19"/>
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="2">
-        <v>21.59</v>
+      <c r="D7" s="14">
+        <v>24.38</v>
       </c>
       <c r="E7" s="2">
-        <v>0.255</v>
-      </c>
-      <c r="F7" s="37">
-        <v>21.44</v>
-      </c>
-      <c r="G7" s="19">
         <v>0.41</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="7">
+      <c r="F7" s="2">
+        <v>24.42</v>
+      </c>
+      <c r="G7" s="39">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40">
         <f>J5/4</f>
-        <v>18.342500000000001</v>
-      </c>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="18"/>
+        <v>20.462499999999999</v>
+      </c>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="19"/>
       <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="2">
-        <v>19.54</v>
+      <c r="D8" s="14">
+        <v>19.239999999999998</v>
       </c>
       <c r="E8" s="2">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="F8" s="37">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0.6</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="F8" s="2">
+        <v>19.32</v>
+      </c>
+      <c r="G8" s="39">
+        <v>0.191</v>
+      </c>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40">
         <f>J5/5</f>
-        <v>14.674000000000001</v>
-      </c>
-      <c r="J8" s="34"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="18" t="s">
-        <v>36</v>
+        <v>16.369999999999997</v>
+      </c>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B9" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="19">
+      <c r="D9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2">
         <v>714.92</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="7">
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40">
         <f>J9/2</f>
-        <v>104</v>
-      </c>
-      <c r="J9" s="32">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="20"/>
       <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2">
+        <v>63.55</v>
+      </c>
       <c r="F10" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="19">
-        <v>53.55</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="7">
+        <v>44</v>
+      </c>
+      <c r="G10" s="39">
+        <v>116.05</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40">
         <f>J9/3</f>
-        <v>69.333333333333329</v>
-      </c>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="20"/>
       <c r="C11" s="2">
         <v>4</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2">
+        <v>23.69</v>
+      </c>
       <c r="F11" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="19">
-        <v>28.88</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="7">
+        <v>42</v>
+      </c>
+      <c r="G11" s="39">
+        <v>14.946</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40">
         <f>J9/4</f>
-        <v>52</v>
-      </c>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="20"/>
       <c r="C12" s="2">
         <v>5</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="38">
-        <v>52.88</v>
-      </c>
-      <c r="G12" s="19">
+      <c r="D12" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2">
         <v>14.98</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="7">
+      <c r="F12" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="39">
+        <f>81.881/9</f>
+        <v>9.0978888888888889</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40">
         <f>J9/5</f>
-        <v>41.6</v>
-      </c>
-      <c r="J12" s="34"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="18" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="J12" s="36"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="2">
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40">
         <f>J13/2</f>
-        <v>22.07</v>
-      </c>
-      <c r="J13" s="32">
-        <v>44.14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="19"/>
+        <v>26.38</v>
+      </c>
+      <c r="J13" s="37">
+        <v>52.76</v>
+      </c>
+      <c r="K13">
+        <f>85.191/30</f>
+        <v>2.8397000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="20"/>
       <c r="C14" s="2">
         <v>3</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="2">
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40">
         <f>J13/3</f>
-        <v>14.713333333333333</v>
-      </c>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="19"/>
+        <v>17.586666666666666</v>
+      </c>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="20"/>
       <c r="C15" s="2">
         <v>4</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="2">
+      <c r="F15" s="38"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="40">
         <f>J13/4</f>
-        <v>11.035</v>
-      </c>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="19"/>
+        <v>13.19</v>
+      </c>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16" s="20"/>
       <c r="C16" s="2">
         <v>5</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="2">
+      <c r="F16" s="38"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="40">
         <f>J13/5</f>
-        <v>8.8279999999999994</v>
-      </c>
-      <c r="J16" s="34"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="18" t="s">
-        <v>40</v>
+        <v>10.552</v>
+      </c>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B17" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="2">
+      <c r="F17" s="38"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="40">
         <f>J17/2</f>
         <v>69</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="34">
         <v>138</v>
       </c>
       <c r="K17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="19"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B18" s="20"/>
       <c r="C18" s="2">
         <v>3</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="2">
+      <c r="F18" s="38"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="40">
         <f>J17/3</f>
         <v>46</v>
       </c>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="19"/>
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B19" s="20"/>
       <c r="C19" s="2">
         <v>4</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="2">
+      <c r="F19" s="38"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="40">
         <f>J17/4</f>
         <v>34.5</v>
       </c>
-      <c r="J19" s="33"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="19"/>
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B20" s="20"/>
       <c r="C20" s="2">
         <v>5</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="2">
+      <c r="F20" s="38"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="40">
         <f>J17/5</f>
         <v>27.6</v>
       </c>
-      <c r="J20" s="34"/>
+      <c r="J20" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J17:J20"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="J5:J8"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="J9:J12"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
@@ -2206,9 +2256,6 @@
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="J9:J12"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="G15:H15"/>
@@ -2222,6 +2269,9 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="B9:B12"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B13:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/master_research/test_result.xlsx
+++ b/master_research/test_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univtokyo-my.sharepoint.com/personal/8252598822_utac_u-tokyo_ac_jp/Documents/research/master_research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="512" documentId="11_AD4D066CA252ABDACC1048B789D1F66E72EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF018A7A-D7A1-436A-B9FA-2297FFAA3BB8}"/>
+  <xr:revisionPtr revIDLastSave="736" documentId="11_AD4D066CA252ABDACC1048B789D1F66E72EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8E64F6D-C608-45E4-9554-2DBD36F63980}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="59">
   <si>
     <t>LOS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,19 +171,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11*11
-obstacles:49
-obstacle_rate:0.40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>21*21
 obstacles:196
 obstacle_rate:0.44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111.9(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -204,35 +194,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>my research(var)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my research (mean）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>53.55(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>52.88(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>62.6(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>61.6（10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>80.6(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>80.2(10)</t>
+    <t>my research (var）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my research(new)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11*11
+obstacles:49
+obstacle_rate:0.40
+4_11d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heuristics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agg_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30*31
+obstacles:612
+0_lak101d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.39
+(condition2=1.33)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.58
+(condition2=1.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.52(1.5)
+30.4（2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1998
+0.2445</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.16（2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21*21
+obstacles:196
+obstacle_rate:0.44
+2_maze_21d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use f_weight=10 to test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my research (old）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old=no prune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.8(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.8(1.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.8(1.333)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,10 +302,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,7 +336,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,13 +343,6 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -415,11 +471,229 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,6 +731,86 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,7 +865,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -523,22 +934,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -823,48 +1279,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:W59"/>
   <sheetViews>
-    <sheetView topLeftCell="H38" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48:S59"/>
+    <sheetView topLeftCell="H28" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.1328125" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" customWidth="1"/>
-    <col min="4" max="4" width="19.265625" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" customWidth="1"/>
-    <col min="13" max="13" width="13.73046875" customWidth="1"/>
-    <col min="16" max="16" width="16.265625" customWidth="1"/>
-    <col min="19" max="19" width="15.73046875" customWidth="1"/>
-    <col min="21" max="21" width="14.1328125" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
+    <col min="13" max="13" width="13.75" customWidth="1"/>
+    <col min="16" max="16" width="16.25" customWidth="1"/>
+    <col min="19" max="19" width="15.75" customWidth="1"/>
+    <col min="21" max="21" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="42.75">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="2:11">
+      <c r="C3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18" t="s">
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,8 +1352,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="2:11">
+      <c r="B5" s="53" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -928,8 +1384,8 @@
         <v>21.616</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="20"/>
+    <row r="6" spans="2:11">
+      <c r="B6" s="54"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -962,8 +1418,8 @@
         <v>1.8833333333333333</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="20"/>
+    <row r="7" spans="2:11">
+      <c r="B7" s="54"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -996,8 +1452,8 @@
         <v>0.70525000000000004</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="2:11">
+      <c r="B8" s="54" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1016,8 +1472,8 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="20"/>
+    <row r="9" spans="2:11">
+      <c r="B9" s="54"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1034,8 +1490,8 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="20"/>
+    <row r="10" spans="2:11">
+      <c r="B10" s="54"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1052,8 +1508,8 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11" s="20" t="s">
+    <row r="11" spans="2:11">
+      <c r="B11" s="54" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1072,8 +1528,8 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="20"/>
+    <row r="12" spans="2:11">
+      <c r="B12" s="54"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1090,8 +1546,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="20"/>
+    <row r="13" spans="2:11">
+      <c r="B13" s="54"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1108,18 +1564,18 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1128,8 +1584,8 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="19"/>
+    <row r="20" spans="2:8">
+      <c r="B20" s="53"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1137,8 +1593,8 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="20"/>
+    <row r="21" spans="2:8">
+      <c r="B21" s="54"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1146,8 +1602,8 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="20"/>
+    <row r="22" spans="2:8">
+      <c r="B22" s="54"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1155,8 +1611,8 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="20"/>
+    <row r="23" spans="2:8">
+      <c r="B23" s="54"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1164,8 +1620,8 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="20"/>
+    <row r="24" spans="2:8">
+      <c r="B24" s="54"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1173,8 +1629,8 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="20"/>
+    <row r="25" spans="2:8">
+      <c r="B25" s="54"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1182,8 +1638,8 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="20"/>
+    <row r="26" spans="2:8">
+      <c r="B26" s="54"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1191,8 +1647,8 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="20"/>
+    <row r="27" spans="2:8">
+      <c r="B27" s="54"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1200,8 +1656,8 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B28" s="20"/>
+    <row r="28" spans="2:8">
+      <c r="B28" s="54"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1209,37 +1665,37 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="33" spans="2:23" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:23" ht="42.75">
       <c r="M33" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="M34" s="24" t="s">
+    <row r="34" spans="2:23">
+      <c r="M34" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="N34" s="22" t="s">
+      <c r="N34" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="O34" s="15" t="s">
+      <c r="O34" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="18" t="s">
+      <c r="P34" s="51"/>
+      <c r="Q34" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="15" t="s">
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="U34" s="16"/>
-      <c r="V34" s="17"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="51"/>
       <c r="W34" s="8"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="M35" s="24"/>
-      <c r="N35" s="23"/>
+    <row r="35" spans="2:23">
+      <c r="M35" s="58"/>
+      <c r="N35" s="57"/>
       <c r="O35" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,10 +1705,10 @@
       <c r="Q35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R35" s="25" t="s">
+      <c r="R35" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="S35" s="26"/>
+      <c r="S35" s="60"/>
       <c r="T35" s="1" t="s">
         <v>20</v>
       </c>
@@ -1264,8 +1720,8 @@
       </c>
       <c r="W35" s="9"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="M36" s="19">
+    <row r="36" spans="2:23">
+      <c r="M36" s="53">
         <v>2</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -1280,10 +1736,10 @@
       <c r="Q36" s="2">
         <v>44.41</v>
       </c>
-      <c r="R36" s="27">
+      <c r="R36" s="61">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="S36" s="28"/>
+      <c r="S36" s="62"/>
       <c r="T36" s="2">
         <v>30.1</v>
       </c>
@@ -1295,23 +1751,23 @@
       </c>
       <c r="W36" s="10"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="M37" s="19"/>
+    <row r="37" spans="2:23">
+      <c r="M37" s="53"/>
       <c r="N37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="30"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="64"/>
       <c r="T37" s="2"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="10"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="M38" s="20">
+    <row r="38" spans="2:23">
+      <c r="M38" s="54">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -1326,10 +1782,10 @@
       <c r="Q38" s="2">
         <v>34.130000000000003</v>
       </c>
-      <c r="R38" s="27">
+      <c r="R38" s="61">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="S38" s="28"/>
+      <c r="S38" s="62"/>
       <c r="T38" s="2">
         <v>19.100000000000001</v>
       </c>
@@ -1341,23 +1797,23 @@
       </c>
       <c r="W38" s="10"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="M39" s="20"/>
+    <row r="39" spans="2:23">
+      <c r="M39" s="54"/>
       <c r="N39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="30"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="64"/>
       <c r="T39" s="2"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="10"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="M40" s="20">
+    <row r="40" spans="2:23">
+      <c r="M40" s="54">
         <v>4</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -1372,10 +1828,10 @@
       <c r="Q40" s="2">
         <v>27.2</v>
       </c>
-      <c r="R40" s="27">
+      <c r="R40" s="61">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="S40" s="28"/>
+      <c r="S40" s="62"/>
       <c r="T40" s="2">
         <v>14.9</v>
       </c>
@@ -1387,23 +1843,23 @@
       </c>
       <c r="W40" s="10"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="M41" s="20"/>
+    <row r="41" spans="2:23">
+      <c r="M41" s="54"/>
       <c r="N41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="30"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="64"/>
       <c r="T41" s="2"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="10"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="M42" s="20">
+    <row r="42" spans="2:23">
+      <c r="M42" s="54">
         <v>5</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -1418,10 +1874,10 @@
       <c r="Q42" s="2">
         <v>22.62</v>
       </c>
-      <c r="R42" s="27">
+      <c r="R42" s="61">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="S42" s="28"/>
+      <c r="S42" s="62"/>
       <c r="T42" s="2">
         <v>12.2</v>
       </c>
@@ -1433,23 +1889,23 @@
       </c>
       <c r="W42" s="10"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="M43" s="20"/>
+    <row r="43" spans="2:23">
+      <c r="M43" s="54"/>
       <c r="N43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="32"/>
+      <c r="R43" s="65"/>
+      <c r="S43" s="66"/>
       <c r="T43" s="2"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
       <c r="W43" s="10"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="M44" s="20">
+    <row r="44" spans="2:23">
+      <c r="M44" s="54">
         <v>6</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -1464,10 +1920,10 @@
       <c r="Q44" s="2">
         <v>19.21</v>
       </c>
-      <c r="R44" s="27">
+      <c r="R44" s="61">
         <v>7.8E-2</v>
       </c>
-      <c r="S44" s="28"/>
+      <c r="S44" s="62"/>
       <c r="T44" s="2">
         <v>10.1</v>
       </c>
@@ -1479,53 +1935,53 @@
       </c>
       <c r="W44" s="10"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="M45" s="20"/>
+    <row r="45" spans="2:23">
+      <c r="M45" s="54"/>
       <c r="N45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="32"/>
+      <c r="R45" s="65"/>
+      <c r="S45" s="66"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B46" s="21"/>
+    <row r="46" spans="2:23">
+      <c r="B46" s="55"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B47" s="21"/>
+    <row r="47" spans="2:23">
+      <c r="B47" s="55"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="M48" s="24" t="s">
+    <row r="48" spans="2:23">
+      <c r="M48" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="22" t="s">
+      <c r="N48" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="O48" s="15" t="s">
+      <c r="O48" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="18" t="s">
+      <c r="P48" s="51"/>
+      <c r="Q48" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="15" t="s">
+      <c r="R48" s="52"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="U48" s="16"/>
-      <c r="V48" s="17"/>
-    </row>
-    <row r="49" spans="13:22" x14ac:dyDescent="0.4">
-      <c r="M49" s="24"/>
-      <c r="N49" s="23"/>
+      <c r="U48" s="50"/>
+      <c r="V48" s="51"/>
+    </row>
+    <row r="49" spans="13:22">
+      <c r="M49" s="58"/>
+      <c r="N49" s="57"/>
       <c r="O49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,10 +1991,10 @@
       <c r="Q49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R49" s="25" t="s">
+      <c r="R49" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="26"/>
+      <c r="S49" s="60"/>
       <c r="T49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,8 +2005,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="13:22" x14ac:dyDescent="0.4">
-      <c r="M50" s="19">
+    <row r="50" spans="13:22">
+      <c r="M50" s="53">
         <v>2</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -1565,10 +2021,10 @@
       <c r="Q50" s="2">
         <v>41.9</v>
       </c>
-      <c r="R50" s="27">
+      <c r="R50" s="61">
         <v>0.83599999999999997</v>
       </c>
-      <c r="S50" s="28"/>
+      <c r="S50" s="62"/>
       <c r="T50" s="2">
         <v>30.1</v>
       </c>
@@ -1579,22 +2035,22 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="51" spans="13:22" x14ac:dyDescent="0.4">
-      <c r="M51" s="19"/>
+    <row r="51" spans="13:22">
+      <c r="M51" s="53"/>
       <c r="N51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="30"/>
+      <c r="R51" s="63"/>
+      <c r="S51" s="64"/>
       <c r="T51" s="2"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
     </row>
-    <row r="52" spans="13:22" x14ac:dyDescent="0.4">
-      <c r="M52" s="20">
+    <row r="52" spans="13:22">
+      <c r="M52" s="54">
         <v>3</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -1609,10 +2065,10 @@
       <c r="Q52" s="2">
         <v>29.04</v>
       </c>
-      <c r="R52" s="27">
+      <c r="R52" s="61">
         <v>0.42599999999999999</v>
       </c>
-      <c r="S52" s="28"/>
+      <c r="S52" s="62"/>
       <c r="T52" s="2">
         <v>19.100000000000001</v>
       </c>
@@ -1623,22 +2079,22 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="53" spans="13:22" x14ac:dyDescent="0.4">
-      <c r="M53" s="20"/>
+    <row r="53" spans="13:22">
+      <c r="M53" s="54"/>
       <c r="N53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="30"/>
+      <c r="R53" s="63"/>
+      <c r="S53" s="64"/>
       <c r="T53" s="2"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
     </row>
-    <row r="54" spans="13:22" x14ac:dyDescent="0.4">
-      <c r="M54" s="20">
+    <row r="54" spans="13:22">
+      <c r="M54" s="54">
         <v>4</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -1653,10 +2109,10 @@
       <c r="Q54" s="2">
         <v>21.59</v>
       </c>
-      <c r="R54" s="27">
+      <c r="R54" s="61">
         <v>0.255</v>
       </c>
-      <c r="S54" s="28"/>
+      <c r="S54" s="62"/>
       <c r="T54" s="2">
         <v>14.9</v>
       </c>
@@ -1667,22 +2123,22 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="55" spans="13:22" x14ac:dyDescent="0.4">
-      <c r="M55" s="20"/>
+    <row r="55" spans="13:22">
+      <c r="M55" s="54"/>
       <c r="N55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="30"/>
+      <c r="R55" s="63"/>
+      <c r="S55" s="64"/>
       <c r="T55" s="2"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
     </row>
-    <row r="56" spans="13:22" x14ac:dyDescent="0.4">
-      <c r="M56" s="20">
+    <row r="56" spans="13:22">
+      <c r="M56" s="54">
         <v>5</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -1695,8 +2151,8 @@
         <v>6.83E-2</v>
       </c>
       <c r="Q56" s="2"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="28"/>
+      <c r="R56" s="61"/>
+      <c r="S56" s="62"/>
       <c r="T56" s="2">
         <v>12.2</v>
       </c>
@@ -1707,22 +2163,22 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="57" spans="13:22" x14ac:dyDescent="0.4">
-      <c r="M57" s="20"/>
+    <row r="57" spans="13:22">
+      <c r="M57" s="54"/>
       <c r="N57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="32"/>
+      <c r="R57" s="65"/>
+      <c r="S57" s="66"/>
       <c r="T57" s="2"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
     </row>
-    <row r="58" spans="13:22" x14ac:dyDescent="0.4">
-      <c r="M58" s="20">
+    <row r="58" spans="13:22">
+      <c r="M58" s="54">
         <v>6</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -1735,8 +2191,8 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="Q58" s="2"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="28"/>
+      <c r="R58" s="61"/>
+      <c r="S58" s="62"/>
       <c r="T58" s="2">
         <v>10.1</v>
       </c>
@@ -1747,16 +2203,16 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="59" spans="13:22" x14ac:dyDescent="0.4">
-      <c r="M59" s="20"/>
+    <row r="59" spans="13:22">
+      <c r="M59" s="54"/>
       <c r="N59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="32"/>
+      <c r="R59" s="65"/>
+      <c r="S59" s="66"/>
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
@@ -1826,24 +2282,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D0097C-6E56-442D-B4E2-B0B31B73614F}">
-  <dimension ref="B2:K20"/>
+  <dimension ref="B2:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:J12"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="4" max="4" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.3984375" customWidth="1"/>
-    <col min="6" max="6" width="13.86328125" customWidth="1"/>
-    <col min="8" max="8" width="8.46484375" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" customWidth="1"/>
-    <col min="10" max="10" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="46.5" customHeight="1">
       <c r="B2" s="13" t="s">
         <v>29</v>
       </c>
@@ -1856,31 +2313,31 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="2:11">
+      <c r="B3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33" t="s">
+      <c r="E3" s="83"/>
+      <c r="F3" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="33"/>
+      <c r="J3" s="83"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+    <row r="4" spans="2:11">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1890,10 +2347,10 @@
       <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="24"/>
+      <c r="H4" s="58"/>
       <c r="I4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1902,218 +2359,185 @@
       </c>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
-        <v>32</v>
+    <row r="5" spans="2:11">
+      <c r="B5" s="53" t="s">
+        <v>42</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="14">
-        <v>39.07</v>
+      <c r="D5" s="2">
+        <v>38.93</v>
       </c>
       <c r="E5" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="F5" s="2">
-        <v>38.93</v>
-      </c>
-      <c r="G5" s="39">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40">
+        <v>0.51</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="16">
         <f>J5/2</f>
         <v>40.924999999999997</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="93">
         <v>81.849999999999994</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="19"/>
+    <row r="6" spans="2:11">
+      <c r="B6" s="53"/>
       <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="14">
-        <v>31.4</v>
+      <c r="D6" s="2">
+        <v>31.35</v>
       </c>
       <c r="E6" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F6" s="2">
-        <v>31.35</v>
-      </c>
-      <c r="G6" s="39">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40">
+        <v>0.32</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="16">
         <f>J5/3</f>
         <v>27.283333333333331</v>
       </c>
-      <c r="J6" s="35"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
+      <c r="J6" s="88"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="53"/>
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="14">
-        <v>24.38</v>
+      <c r="D7" s="2">
+        <v>24.42</v>
       </c>
       <c r="E7" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="F7" s="2">
-        <v>24.42</v>
-      </c>
-      <c r="G7" s="39">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40">
+        <v>0.23</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="16">
         <f>J5/4</f>
         <v>20.462499999999999</v>
       </c>
-      <c r="J7" s="35"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="19"/>
+      <c r="J7" s="88"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="53"/>
       <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="14">
-        <v>19.239999999999998</v>
+      <c r="D8" s="2">
+        <v>19.32</v>
       </c>
       <c r="E8" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="F8" s="2">
-        <v>19.32</v>
-      </c>
-      <c r="G8" s="39">
-        <v>0.191</v>
-      </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40">
+        <v>0.19</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="16">
         <f>J5/5</f>
         <v>16.369999999999997</v>
       </c>
-      <c r="J8" s="36"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="19" t="s">
-        <v>33</v>
+      <c r="J8" s="89"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="53" t="s">
+        <v>32</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="2">
-        <v>714.92</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40">
+      <c r="D9" s="14"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="16">
         <f>J9/2</f>
         <v>0</v>
       </c>
-      <c r="J9" s="37"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="20"/>
+      <c r="J9" s="93"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="54"/>
       <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>45</v>
+      <c r="D10" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="E10" s="2">
-        <v>63.55</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="39">
         <v>116.05</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40">
+      <c r="F10" s="14"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="16">
         <f>J9/3</f>
         <v>0</v>
       </c>
-      <c r="J10" s="35"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11" s="20"/>
+      <c r="J10" s="88"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="54"/>
       <c r="C11" s="2">
         <v>4</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>43</v>
+      <c r="D11" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="E11" s="2">
-        <v>23.69</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="39">
-        <v>14.946</v>
-      </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40">
+        <v>14.95</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="16">
         <f>J9/4</f>
         <v>0</v>
       </c>
-      <c r="J11" s="35"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="20"/>
+      <c r="J11" s="88"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="54"/>
       <c r="C12" s="2">
         <v>5</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>41</v>
+      <c r="D12" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="E12" s="2">
-        <v>14.98</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="39">
-        <f>81.881/9</f>
-        <v>9.0978888888888889</v>
-      </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40">
+        <v>9.1</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="16">
         <f>J9/5</f>
         <v>0</v>
       </c>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="19" t="s">
-        <v>37</v>
+      <c r="J12" s="89"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="53" t="s">
+        <v>35</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40">
+      <c r="F13" s="14"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="16">
         <f>J13/2</f>
         <v>26.38</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="93">
         <v>52.76</v>
       </c>
       <c r="K13">
@@ -2121,127 +2545,1109 @@
         <v>2.8397000000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="20"/>
+    <row r="14" spans="2:11">
+      <c r="B14" s="54"/>
       <c r="C14" s="2">
         <v>3</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40">
+      <c r="F14" s="14"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="16">
         <f>J13/3</f>
         <v>17.586666666666666</v>
       </c>
-      <c r="J14" s="35"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="20"/>
+      <c r="J14" s="88"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="54"/>
       <c r="C15" s="2">
         <v>4</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="40">
+      <c r="F15" s="14"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="16">
         <f>J13/4</f>
         <v>13.19</v>
       </c>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="20"/>
+      <c r="J15" s="88"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="54"/>
       <c r="C16" s="2">
         <v>5</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="40">
+      <c r="F16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="90">
+        <v>25.9</v>
+      </c>
+      <c r="H16" s="91"/>
+      <c r="I16" s="16">
         <f>J13/5</f>
         <v>10.552</v>
       </c>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="19" t="s">
-        <v>35</v>
+      <c r="J16" s="89"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="53" t="s">
+        <v>33</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="40">
+      <c r="F17" s="14"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="16">
         <f>J17/2</f>
         <v>69</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="87">
         <v>138</v>
       </c>
       <c r="K17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="20"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="54"/>
       <c r="C18" s="2">
         <v>3</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="40">
+      <c r="F18" s="14"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="16">
         <f>J17/3</f>
         <v>46</v>
       </c>
-      <c r="J18" s="35"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="20"/>
+      <c r="J18" s="88"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="54"/>
       <c r="C19" s="2">
         <v>4</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="40">
+      <c r="F19" s="14"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="16">
         <f>J17/4</f>
         <v>34.5</v>
       </c>
-      <c r="J19" s="35"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B20" s="20"/>
+      <c r="J19" s="88"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="54"/>
       <c r="C20" s="2">
         <v>5</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="40">
+      <c r="F20" s="14"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="16">
         <f>J17/5</f>
         <v>27.6</v>
       </c>
-      <c r="J20" s="36"/>
+      <c r="J20" s="89"/>
+    </row>
+    <row r="21" spans="2:11" ht="15" thickBot="1">
+      <c r="B21" s="95"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="99"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="82"/>
+    </row>
+    <row r="23" spans="2:11" ht="15" thickBot="1">
+      <c r="B23" s="85"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="78">
+        <v>2</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="79"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="68"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="80"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="68"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="80"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="68"/>
+      <c r="C27" s="54">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="80"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="68"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="32"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="68"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="32"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="68"/>
+      <c r="C30" s="54">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="32"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="68"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="32"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="68"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="32"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="68"/>
+      <c r="C33" s="54">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="32"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="68"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" spans="2:12" ht="15" thickBot="1">
+      <c r="B35" s="69"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="14"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="2:12" ht="15" thickBot="1"/>
+    <row r="38" spans="2:12">
+      <c r="B38" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="82"/>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="85"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="18" customHeight="1">
+      <c r="B40" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="54">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="2">
+        <v>37.93</v>
+      </c>
+      <c r="F40" s="21">
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="G40" s="15">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="H40" s="40">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="I40" s="73">
+        <f>J40/2</f>
+        <v>40.924999999999997</v>
+      </c>
+      <c r="J40" s="70">
+        <v>81.849999999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="68"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="2">
+        <v>37.93</v>
+      </c>
+      <c r="F41" s="21">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="40">
+        <v>0.27279999999999999</v>
+      </c>
+      <c r="I41" s="74"/>
+      <c r="J41" s="71"/>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="68"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="71"/>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" s="68"/>
+      <c r="C43" s="54">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="F43" s="21">
+        <v>0.31480000000000002</v>
+      </c>
+      <c r="G43" s="15"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="73">
+        <f>J40/3</f>
+        <v>27.283333333333331</v>
+      </c>
+      <c r="J43" s="71"/>
+    </row>
+    <row r="44" spans="2:12" ht="27" customHeight="1">
+      <c r="B44" s="68"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="F44" s="22">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="40">
+        <v>0.193</v>
+      </c>
+      <c r="I44" s="74"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="L44" s="94" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" s="68"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="71"/>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" s="68"/>
+      <c r="C46" s="54">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="2">
+        <v>23.46</v>
+      </c>
+      <c r="F46" s="22">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="G46" s="15"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="74">
+        <f>J40/4</f>
+        <v>20.462499999999999</v>
+      </c>
+      <c r="J46" s="71"/>
+    </row>
+    <row r="47" spans="2:12" ht="42.75">
+      <c r="B47" s="68"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2">
+        <v>23.42</v>
+      </c>
+      <c r="F47" s="22">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="40">
+        <v>0.1767</v>
+      </c>
+      <c r="I47" s="74"/>
+      <c r="J47" s="71"/>
+    </row>
+    <row r="48" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B48" s="68"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="2">
+        <v>23.49</v>
+      </c>
+      <c r="F48" s="22">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="G48" s="15"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="71"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="68"/>
+      <c r="C49" s="54">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="2">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="F49" s="22">
+        <v>0.17849999999999999</v>
+      </c>
+      <c r="G49" s="15"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="74">
+        <f>J40/5</f>
+        <v>16.369999999999997</v>
+      </c>
+      <c r="J49" s="71"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="68"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="2">
+        <v>18.3</v>
+      </c>
+      <c r="F50" s="22">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="G50" s="15"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="71"/>
+    </row>
+    <row r="51" spans="2:10" ht="15" thickBot="1">
+      <c r="B51" s="69"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="26">
+        <v>18.29</v>
+      </c>
+      <c r="F51" s="27">
+        <v>0.34</v>
+      </c>
+      <c r="G51" s="39"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="72"/>
+    </row>
+    <row r="52" spans="2:10" ht="14.25" customHeight="1" thickBot="1"/>
+    <row r="53" spans="2:10">
+      <c r="B53" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="24"/>
+      <c r="E53" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" s="82"/>
+    </row>
+    <row r="54" spans="2:10" ht="15" thickBot="1">
+      <c r="B54" s="85"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J54" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="78">
+        <v>2</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="36"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="38"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="68"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="68"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="32"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="68"/>
+      <c r="C58" s="54">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="32"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="68"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="32"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="68"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="32"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="68"/>
+      <c r="C61" s="54">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="32"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="68"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="32"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="68"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="32"/>
+    </row>
+    <row r="64" spans="2:10" ht="42.75" customHeight="1">
+      <c r="B64" s="68"/>
+      <c r="C64" s="54">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="32"/>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65" s="68"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="32"/>
+    </row>
+    <row r="66" spans="2:12" ht="15" thickBot="1">
+      <c r="B66" s="69"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="33"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="35"/>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="B68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="15" thickBot="1">
+      <c r="B69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="24"/>
+      <c r="E70" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" s="81"/>
+      <c r="I70" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" s="82"/>
+    </row>
+    <row r="71" spans="2:12" ht="15" thickBot="1">
+      <c r="B71" s="85"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J71" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="B72" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" s="78">
+        <v>2</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="28"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="109"/>
+      <c r="I72" s="103"/>
+      <c r="J72" s="100"/>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="B73" s="68"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="104"/>
+      <c r="J73" s="101"/>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74" s="68"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="105"/>
+      <c r="J74" s="101"/>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75" s="68"/>
+      <c r="C75" s="54">
+        <v>3</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="106"/>
+      <c r="J75" s="101"/>
+    </row>
+    <row r="76" spans="2:12" ht="12.75" customHeight="1">
+      <c r="B76" s="68"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="104"/>
+      <c r="J76" s="101"/>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77" s="68"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="105"/>
+      <c r="J77" s="101"/>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78" s="68"/>
+      <c r="C78" s="54">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="106"/>
+      <c r="J78" s="101"/>
+      <c r="K78" t="s">
+        <v>58</v>
+      </c>
+      <c r="L78">
+        <v>12.3934</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="B79" s="68"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H79" s="40">
+        <v>16.09</v>
+      </c>
+      <c r="I79" s="104"/>
+      <c r="J79" s="101"/>
+      <c r="K79" t="s">
+        <v>57</v>
+      </c>
+      <c r="L79">
+        <v>12.316000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="B80" s="68"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="105"/>
+      <c r="J80" s="101"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="68"/>
+      <c r="C81" s="54">
+        <v>5</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="106"/>
+      <c r="J81" s="101"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="68"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="104"/>
+      <c r="J82" s="101"/>
+    </row>
+    <row r="83" spans="2:10" ht="15" thickBot="1">
+      <c r="B83" s="69"/>
+      <c r="C83" s="77"/>
+      <c r="D83" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="26"/>
+      <c r="F83" s="110"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="107"/>
+      <c r="J83" s="102"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="81">
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="B9:B12"/>
     <mergeCell ref="J13:J16"/>
     <mergeCell ref="J5:J8"/>
     <mergeCell ref="C3:C4"/>
@@ -2253,6 +3659,16 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B13:B16"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
@@ -2263,15 +3679,45 @@
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="J17:J20"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="J72:J83"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="B72:B83"/>
+    <mergeCell ref="B55:B66"/>
+    <mergeCell ref="J40:J51"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/master_research/test_result.xlsx
+++ b/master_research/test_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univtokyo-my.sharepoint.com/personal/8252598822_utac_u-tokyo_ac_jp/Documents/research/master_research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="736" documentId="11_AD4D066CA252ABDACC1048B789D1F66E72EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8E64F6D-C608-45E4-9554-2DBD36F63980}"/>
+  <xr:revisionPtr revIDLastSave="738" documentId="11_AD4D066CA252ABDACC1048B789D1F66E72EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD4C71AD-D179-41C5-9ADD-CF73530DE064}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -811,159 +811,147 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -988,13 +976,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1304,21 +1304,21 @@
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52" t="s">
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52" t="s">
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
@@ -1353,7 +1353,7 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="65" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1385,7 +1385,7 @@
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="54"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1419,7 +1419,7 @@
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="54"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1453,7 +1453,7 @@
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1473,7 +1473,7 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="54"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="54"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1529,7 +1529,7 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="54"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1547,7 +1547,7 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="54"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1568,12 +1568,12 @@
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="1"/>
@@ -1585,7 +1585,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="53"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1594,7 +1594,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="54"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1603,7 +1603,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="54"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1612,7 +1612,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="54"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1621,7 +1621,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="54"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1630,7 +1630,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="54"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1639,7 +1639,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="54"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1648,7 +1648,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="54"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1657,7 +1657,7 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="54"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1671,31 +1671,31 @@
       </c>
     </row>
     <row r="34" spans="2:23">
-      <c r="M34" s="58" t="s">
+      <c r="M34" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="N34" s="56" t="s">
+      <c r="N34" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="O34" s="49" t="s">
+      <c r="O34" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="52" t="s">
+      <c r="P34" s="70"/>
+      <c r="Q34" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="49" t="s">
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="U34" s="50"/>
-      <c r="V34" s="51"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="70"/>
       <c r="W34" s="8"/>
     </row>
     <row r="35" spans="2:23">
-      <c r="M35" s="58"/>
-      <c r="N35" s="57"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="68"/>
       <c r="O35" s="1" t="s">
         <v>20</v>
       </c>
@@ -1705,10 +1705,10 @@
       <c r="Q35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R35" s="59" t="s">
+      <c r="R35" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="S35" s="60"/>
+      <c r="S35" s="74"/>
       <c r="T35" s="1" t="s">
         <v>20</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="2:23">
-      <c r="M36" s="53">
+      <c r="M36" s="65">
         <v>2</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -1736,10 +1736,10 @@
       <c r="Q36" s="2">
         <v>44.41</v>
       </c>
-      <c r="R36" s="61">
+      <c r="R36" s="59">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="S36" s="62"/>
+      <c r="S36" s="60"/>
       <c r="T36" s="2">
         <v>30.1</v>
       </c>
@@ -1752,7 +1752,7 @@
       <c r="W36" s="10"/>
     </row>
     <row r="37" spans="2:23">
-      <c r="M37" s="53"/>
+      <c r="M37" s="65"/>
       <c r="N37" s="2" t="s">
         <v>18</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="W37" s="10"/>
     </row>
     <row r="38" spans="2:23">
-      <c r="M38" s="54">
+      <c r="M38" s="58">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -1782,10 +1782,10 @@
       <c r="Q38" s="2">
         <v>34.130000000000003</v>
       </c>
-      <c r="R38" s="61">
+      <c r="R38" s="59">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="S38" s="62"/>
+      <c r="S38" s="60"/>
       <c r="T38" s="2">
         <v>19.100000000000001</v>
       </c>
@@ -1798,7 +1798,7 @@
       <c r="W38" s="10"/>
     </row>
     <row r="39" spans="2:23">
-      <c r="M39" s="54"/>
+      <c r="M39" s="58"/>
       <c r="N39" s="2" t="s">
         <v>18</v>
       </c>
@@ -1813,7 +1813,7 @@
       <c r="W39" s="10"/>
     </row>
     <row r="40" spans="2:23">
-      <c r="M40" s="54">
+      <c r="M40" s="58">
         <v>4</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -1828,10 +1828,10 @@
       <c r="Q40" s="2">
         <v>27.2</v>
       </c>
-      <c r="R40" s="61">
+      <c r="R40" s="59">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="S40" s="62"/>
+      <c r="S40" s="60"/>
       <c r="T40" s="2">
         <v>14.9</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="W40" s="10"/>
     </row>
     <row r="41" spans="2:23">
-      <c r="M41" s="54"/>
+      <c r="M41" s="58"/>
       <c r="N41" s="2" t="s">
         <v>18</v>
       </c>
@@ -1859,7 +1859,7 @@
       <c r="W41" s="10"/>
     </row>
     <row r="42" spans="2:23">
-      <c r="M42" s="54">
+      <c r="M42" s="58">
         <v>5</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -1874,10 +1874,10 @@
       <c r="Q42" s="2">
         <v>22.62</v>
       </c>
-      <c r="R42" s="61">
+      <c r="R42" s="59">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="S42" s="62"/>
+      <c r="S42" s="60"/>
       <c r="T42" s="2">
         <v>12.2</v>
       </c>
@@ -1890,22 +1890,22 @@
       <c r="W42" s="10"/>
     </row>
     <row r="43" spans="2:23">
-      <c r="M43" s="54"/>
+      <c r="M43" s="58"/>
       <c r="N43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="65"/>
-      <c r="S43" s="66"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="62"/>
       <c r="T43" s="2"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
       <c r="W43" s="10"/>
     </row>
     <row r="44" spans="2:23">
-      <c r="M44" s="54">
+      <c r="M44" s="58">
         <v>6</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -1920,10 +1920,10 @@
       <c r="Q44" s="2">
         <v>19.21</v>
       </c>
-      <c r="R44" s="61">
+      <c r="R44" s="59">
         <v>7.8E-2</v>
       </c>
-      <c r="S44" s="62"/>
+      <c r="S44" s="60"/>
       <c r="T44" s="2">
         <v>10.1</v>
       </c>
@@ -1936,52 +1936,52 @@
       <c r="W44" s="10"/>
     </row>
     <row r="45" spans="2:23">
-      <c r="M45" s="54"/>
+      <c r="M45" s="58"/>
       <c r="N45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
-      <c r="R45" s="65"/>
-      <c r="S45" s="66"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="62"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
     <row r="46" spans="2:23">
-      <c r="B46" s="55"/>
+      <c r="B46" s="75"/>
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="2:23">
-      <c r="B47" s="55"/>
+      <c r="B47" s="75"/>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="2:23">
-      <c r="M48" s="58" t="s">
+      <c r="M48" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="56" t="s">
+      <c r="N48" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="O48" s="49" t="s">
+      <c r="O48" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="52" t="s">
+      <c r="P48" s="70"/>
+      <c r="Q48" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="49" t="s">
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
+      <c r="T48" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="U48" s="50"/>
-      <c r="V48" s="51"/>
+      <c r="U48" s="72"/>
+      <c r="V48" s="70"/>
     </row>
     <row r="49" spans="13:22">
-      <c r="M49" s="58"/>
-      <c r="N49" s="57"/>
+      <c r="M49" s="66"/>
+      <c r="N49" s="68"/>
       <c r="O49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1991,10 +1991,10 @@
       <c r="Q49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R49" s="59" t="s">
+      <c r="R49" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="60"/>
+      <c r="S49" s="74"/>
       <c r="T49" s="1" t="s">
         <v>20</v>
       </c>
@@ -2006,7 +2006,7 @@
       </c>
     </row>
     <row r="50" spans="13:22">
-      <c r="M50" s="53">
+      <c r="M50" s="65">
         <v>2</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -2021,10 +2021,10 @@
       <c r="Q50" s="2">
         <v>41.9</v>
       </c>
-      <c r="R50" s="61">
+      <c r="R50" s="59">
         <v>0.83599999999999997</v>
       </c>
-      <c r="S50" s="62"/>
+      <c r="S50" s="60"/>
       <c r="T50" s="2">
         <v>30.1</v>
       </c>
@@ -2036,7 +2036,7 @@
       </c>
     </row>
     <row r="51" spans="13:22">
-      <c r="M51" s="53"/>
+      <c r="M51" s="65"/>
       <c r="N51" s="2" t="s">
         <v>18</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="V51" s="7"/>
     </row>
     <row r="52" spans="13:22">
-      <c r="M52" s="54">
+      <c r="M52" s="58">
         <v>3</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -2065,10 +2065,10 @@
       <c r="Q52" s="2">
         <v>29.04</v>
       </c>
-      <c r="R52" s="61">
+      <c r="R52" s="59">
         <v>0.42599999999999999</v>
       </c>
-      <c r="S52" s="62"/>
+      <c r="S52" s="60"/>
       <c r="T52" s="2">
         <v>19.100000000000001</v>
       </c>
@@ -2080,7 +2080,7 @@
       </c>
     </row>
     <row r="53" spans="13:22">
-      <c r="M53" s="54"/>
+      <c r="M53" s="58"/>
       <c r="N53" s="2" t="s">
         <v>18</v>
       </c>
@@ -2094,7 +2094,7 @@
       <c r="V53" s="7"/>
     </row>
     <row r="54" spans="13:22">
-      <c r="M54" s="54">
+      <c r="M54" s="58">
         <v>4</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -2109,10 +2109,10 @@
       <c r="Q54" s="2">
         <v>21.59</v>
       </c>
-      <c r="R54" s="61">
+      <c r="R54" s="59">
         <v>0.255</v>
       </c>
-      <c r="S54" s="62"/>
+      <c r="S54" s="60"/>
       <c r="T54" s="2">
         <v>14.9</v>
       </c>
@@ -2124,7 +2124,7 @@
       </c>
     </row>
     <row r="55" spans="13:22">
-      <c r="M55" s="54"/>
+      <c r="M55" s="58"/>
       <c r="N55" s="2" t="s">
         <v>18</v>
       </c>
@@ -2138,7 +2138,7 @@
       <c r="V55" s="7"/>
     </row>
     <row r="56" spans="13:22">
-      <c r="M56" s="54">
+      <c r="M56" s="58">
         <v>5</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -2151,8 +2151,8 @@
         <v>6.83E-2</v>
       </c>
       <c r="Q56" s="2"/>
-      <c r="R56" s="61"/>
-      <c r="S56" s="62"/>
+      <c r="R56" s="59"/>
+      <c r="S56" s="60"/>
       <c r="T56" s="2">
         <v>12.2</v>
       </c>
@@ -2164,21 +2164,21 @@
       </c>
     </row>
     <row r="57" spans="13:22">
-      <c r="M57" s="54"/>
+      <c r="M57" s="58"/>
       <c r="N57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="65"/>
-      <c r="S57" s="66"/>
+      <c r="R57" s="61"/>
+      <c r="S57" s="62"/>
       <c r="T57" s="2"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
     </row>
     <row r="58" spans="13:22">
-      <c r="M58" s="54">
+      <c r="M58" s="58">
         <v>6</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -2191,8 +2191,8 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="Q58" s="2"/>
-      <c r="R58" s="61"/>
-      <c r="S58" s="62"/>
+      <c r="R58" s="59"/>
+      <c r="S58" s="60"/>
       <c r="T58" s="2">
         <v>10.1</v>
       </c>
@@ -2204,42 +2204,38 @@
       </c>
     </row>
     <row r="59" spans="13:22">
-      <c r="M59" s="54"/>
+      <c r="M59" s="58"/>
       <c r="N59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
-      <c r="R59" s="65"/>
-      <c r="S59" s="66"/>
+      <c r="R59" s="61"/>
+      <c r="S59" s="62"/>
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="Q34:S34"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="N34:N35"/>
     <mergeCell ref="M34:M35"/>
@@ -2256,23 +2252,27 @@
     <mergeCell ref="R45:S45"/>
     <mergeCell ref="O34:P34"/>
     <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="R57:S57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2284,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D0097C-6E56-442D-B4E2-B0B31B73614F}">
   <dimension ref="B2:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="L79" sqref="L79"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2314,30 +2314,30 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83" t="s">
+      <c r="E3" s="84"/>
+      <c r="F3" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83" t="s">
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="83"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
@@ -2347,10 +2347,10 @@
       <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="58"/>
+      <c r="H4" s="66"/>
       <c r="I4" s="1" t="s">
         <v>31</v>
       </c>
@@ -2360,7 +2360,7 @@
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="65" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="2">
@@ -2373,18 +2373,18 @@
         <v>0.51</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="86"/>
       <c r="I5" s="16">
         <f>J5/2</f>
         <v>40.924999999999997</v>
       </c>
-      <c r="J5" s="93">
+      <c r="J5" s="81">
         <v>81.849999999999994</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="53"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="2">
         <v>3</v>
       </c>
@@ -2395,16 +2395,16 @@
         <v>0.32</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="91"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="86"/>
       <c r="I6" s="16">
         <f>J5/3</f>
         <v>27.283333333333331</v>
       </c>
-      <c r="J6" s="88"/>
+      <c r="J6" s="82"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="53"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="2">
         <v>4</v>
       </c>
@@ -2415,16 +2415,16 @@
         <v>0.23</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="91"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="86"/>
       <c r="I7" s="16">
         <f>J5/4</f>
         <v>20.462499999999999</v>
       </c>
-      <c r="J7" s="88"/>
+      <c r="J7" s="82"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="53"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="2">
         <v>5</v>
       </c>
@@ -2435,16 +2435,16 @@
         <v>0.19</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="86"/>
       <c r="I8" s="16">
         <f>J5/5</f>
         <v>16.369999999999997</v>
       </c>
-      <c r="J8" s="89"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="65" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="2">
@@ -2453,16 +2453,16 @@
       <c r="D9" s="14"/>
       <c r="E9" s="2"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="86"/>
       <c r="I9" s="16">
         <f>J9/2</f>
         <v>0</v>
       </c>
-      <c r="J9" s="93"/>
+      <c r="J9" s="81"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="54"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="2">
         <v>3</v>
       </c>
@@ -2473,16 +2473,16 @@
         <v>116.05</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="86"/>
       <c r="I10" s="16">
         <f>J9/3</f>
         <v>0</v>
       </c>
-      <c r="J10" s="88"/>
+      <c r="J10" s="82"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="54"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="2">
         <v>4</v>
       </c>
@@ -2493,16 +2493,16 @@
         <v>14.95</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="86"/>
       <c r="I11" s="16">
         <f>J9/4</f>
         <v>0</v>
       </c>
-      <c r="J11" s="88"/>
+      <c r="J11" s="82"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="54"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="2">
         <v>5</v>
       </c>
@@ -2513,16 +2513,16 @@
         <v>9.1</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="91"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="86"/>
       <c r="I12" s="16">
         <f>J9/5</f>
         <v>0</v>
       </c>
-      <c r="J12" s="89"/>
+      <c r="J12" s="83"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="65" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2">
@@ -2531,13 +2531,13 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="16">
         <f>J13/2</f>
         <v>26.38</v>
       </c>
-      <c r="J13" s="93">
+      <c r="J13" s="81">
         <v>52.76</v>
       </c>
       <c r="K13">
@@ -2546,39 +2546,39 @@
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="54"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="2">
         <v>3</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
       <c r="I14" s="16">
         <f>J13/3</f>
         <v>17.586666666666666</v>
       </c>
-      <c r="J14" s="88"/>
+      <c r="J14" s="82"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="54"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="2">
         <v>4</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="91"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
       <c r="I15" s="16">
         <f>J13/4</f>
         <v>13.19</v>
       </c>
-      <c r="J15" s="88"/>
+      <c r="J15" s="82"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="54"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="2">
         <v>5</v>
       </c>
@@ -2587,18 +2587,18 @@
       <c r="F16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16" s="85">
         <v>25.9</v>
       </c>
-      <c r="H16" s="91"/>
+      <c r="H16" s="86"/>
       <c r="I16" s="16">
         <f>J13/5</f>
         <v>10.552</v>
       </c>
-      <c r="J16" s="89"/>
+      <c r="J16" s="83"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="65" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="2">
@@ -2607,13 +2607,13 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="91"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
       <c r="I17" s="16">
         <f>J17/2</f>
         <v>69</v>
       </c>
-      <c r="J17" s="87">
+      <c r="J17" s="88">
         <v>138</v>
       </c>
       <c r="K17" t="s">
@@ -2621,88 +2621,88 @@
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="54"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="2">
         <v>3</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
       <c r="I18" s="16">
         <f>J17/3</f>
         <v>46</v>
       </c>
-      <c r="J18" s="88"/>
+      <c r="J18" s="82"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="54"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="2">
         <v>4</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="91"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
       <c r="I19" s="16">
         <f>J17/4</f>
         <v>34.5</v>
       </c>
-      <c r="J19" s="88"/>
+      <c r="J19" s="82"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="54"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="2">
         <v>5</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="91"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
       <c r="I20" s="16">
         <f>J17/5</f>
         <v>27.6</v>
       </c>
-      <c r="J20" s="89"/>
+      <c r="J20" s="83"/>
     </row>
     <row r="21" spans="2:11" ht="15" thickBot="1">
-      <c r="B21" s="95"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="20"/>
-      <c r="J21" s="99"/>
+      <c r="J21" s="54"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="78" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="24"/>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81" t="s">
+      <c r="F22" s="79"/>
+      <c r="G22" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81" t="s">
+      <c r="H22" s="79"/>
+      <c r="I22" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="82"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="23" spans="2:11" ht="15" thickBot="1">
-      <c r="B23" s="85"/>
-      <c r="C23" s="58"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="1" t="s">
         <v>43</v>
       </c>
@@ -2726,10 +2726,10 @@
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="78">
+      <c r="C24" s="94">
         <v>2</v>
       </c>
       <c r="D24" s="28" t="s">
@@ -2740,11 +2740,11 @@
       <c r="G24" s="30"/>
       <c r="H24" s="42"/>
       <c r="I24" s="31"/>
-      <c r="J24" s="79"/>
+      <c r="J24" s="92"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="68"/>
-      <c r="C25" s="54"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2753,11 +2753,11 @@
       <c r="G25" s="18"/>
       <c r="H25" s="43"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="80"/>
+      <c r="J25" s="93"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="68"/>
-      <c r="C26" s="54"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="2" t="s">
         <v>45</v>
       </c>
@@ -2766,11 +2766,11 @@
       <c r="G26" s="18"/>
       <c r="H26" s="43"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="80"/>
+      <c r="J26" s="93"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="68"/>
-      <c r="C27" s="54">
+      <c r="B27" s="90"/>
+      <c r="C27" s="58">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2781,11 +2781,11 @@
       <c r="G27" s="18"/>
       <c r="H27" s="43"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="80"/>
+      <c r="J27" s="93"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="68"/>
-      <c r="C28" s="54"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
@@ -2797,8 +2797,8 @@
       <c r="J28" s="32"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="68"/>
-      <c r="C29" s="54"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="2" t="s">
         <v>45</v>
       </c>
@@ -2810,8 +2810,8 @@
       <c r="J29" s="32"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="68"/>
-      <c r="C30" s="54">
+      <c r="B30" s="90"/>
+      <c r="C30" s="58">
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2825,8 +2825,8 @@
       <c r="J30" s="32"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="68"/>
-      <c r="C31" s="54"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
@@ -2838,8 +2838,8 @@
       <c r="J31" s="32"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="68"/>
-      <c r="C32" s="54"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="2" t="s">
         <v>45</v>
       </c>
@@ -2851,8 +2851,8 @@
       <c r="J32" s="32"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="68"/>
-      <c r="C33" s="54">
+      <c r="B33" s="90"/>
+      <c r="C33" s="58">
         <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -2866,8 +2866,8 @@
       <c r="J33" s="32"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="68"/>
-      <c r="C34" s="54"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
@@ -2879,8 +2879,8 @@
       <c r="J34" s="32"/>
     </row>
     <row r="35" spans="2:12" ht="15" thickBot="1">
-      <c r="B35" s="69"/>
-      <c r="C35" s="77"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="89"/>
       <c r="D35" s="26" t="s">
         <v>45</v>
       </c>
@@ -2897,29 +2897,29 @@
     </row>
     <row r="37" spans="2:12" ht="15" thickBot="1"/>
     <row r="38" spans="2:12">
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C38" s="78" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="24"/>
-      <c r="E38" s="81" t="s">
+      <c r="E38" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81" t="s">
+      <c r="F38" s="79"/>
+      <c r="G38" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81" t="s">
+      <c r="H38" s="79"/>
+      <c r="I38" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="82"/>
+      <c r="J38" s="80"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="85"/>
-      <c r="C39" s="58"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="1" t="s">
         <v>43</v>
       </c>
@@ -2942,11 +2942,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="18" customHeight="1">
-      <c r="B40" s="68" t="s">
+    <row r="40" spans="2:12" ht="22.5" customHeight="1">
+      <c r="B40" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="54">
+      <c r="C40" s="58">
         <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -2964,17 +2964,17 @@
       <c r="H40" s="40">
         <v>0.14369999999999999</v>
       </c>
-      <c r="I40" s="73">
+      <c r="I40" s="107">
         <f>J40/2</f>
         <v>40.924999999999997</v>
       </c>
-      <c r="J40" s="70">
+      <c r="J40" s="104">
         <v>81.849999999999994</v>
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="68"/>
-      <c r="C41" s="54"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="2" t="s">
         <v>6</v>
       </c>
@@ -2990,12 +2990,12 @@
       <c r="H41" s="40">
         <v>0.27279999999999999</v>
       </c>
-      <c r="I41" s="74"/>
-      <c r="J41" s="71"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="105"/>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="68"/>
-      <c r="C42" s="54"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="2" t="s">
         <v>45</v>
       </c>
@@ -3003,12 +3003,12 @@
       <c r="F42" s="21"/>
       <c r="G42" s="15"/>
       <c r="H42" s="40"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="71"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="105"/>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="68"/>
-      <c r="C43" s="54">
+      <c r="B43" s="90"/>
+      <c r="C43" s="58">
         <v>3</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -3022,15 +3022,15 @@
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="40"/>
-      <c r="I43" s="73">
+      <c r="I43" s="107">
         <f>J40/3</f>
         <v>27.283333333333331</v>
       </c>
-      <c r="J43" s="71"/>
-    </row>
-    <row r="44" spans="2:12" ht="27" customHeight="1">
-      <c r="B44" s="68"/>
-      <c r="C44" s="54"/>
+      <c r="J43" s="105"/>
+    </row>
+    <row r="44" spans="2:12" ht="43.5" customHeight="1">
+      <c r="B44" s="90"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
@@ -3046,18 +3046,18 @@
       <c r="H44" s="40">
         <v>0.193</v>
       </c>
-      <c r="I44" s="74"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="94" t="s">
+      <c r="I44" s="108"/>
+      <c r="J44" s="105"/>
+      <c r="K44" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="L44" s="94" t="s">
+      <c r="L44" s="49" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="68"/>
-      <c r="C45" s="54"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="58"/>
       <c r="D45" s="2" t="s">
         <v>45</v>
       </c>
@@ -3065,12 +3065,12 @@
       <c r="F45" s="22"/>
       <c r="G45" s="15"/>
       <c r="H45" s="40"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="71"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="105"/>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="68"/>
-      <c r="C46" s="54">
+      <c r="B46" s="90"/>
+      <c r="C46" s="58">
         <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -3084,15 +3084,15 @@
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="40"/>
-      <c r="I46" s="74">
+      <c r="I46" s="108">
         <f>J40/4</f>
         <v>20.462499999999999</v>
       </c>
-      <c r="J46" s="71"/>
+      <c r="J46" s="105"/>
     </row>
     <row r="47" spans="2:12" ht="42.75">
-      <c r="B47" s="68"/>
-      <c r="C47" s="54"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="58"/>
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
@@ -3108,12 +3108,12 @@
       <c r="H47" s="40">
         <v>0.1767</v>
       </c>
-      <c r="I47" s="74"/>
-      <c r="J47" s="71"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="105"/>
     </row>
     <row r="48" spans="2:12" ht="14.25" customHeight="1">
-      <c r="B48" s="68"/>
-      <c r="C48" s="54"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="58"/>
       <c r="D48" s="2" t="s">
         <v>45</v>
       </c>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="40"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="71"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="105"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="68"/>
-      <c r="C49" s="54">
+      <c r="B49" s="90"/>
+      <c r="C49" s="58">
         <v>5</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -3144,15 +3144,15 @@
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="40"/>
-      <c r="I49" s="74">
+      <c r="I49" s="108">
         <f>J40/5</f>
         <v>16.369999999999997</v>
       </c>
-      <c r="J49" s="71"/>
+      <c r="J49" s="105"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="68"/>
-      <c r="C50" s="54"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
@@ -3164,12 +3164,12 @@
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="40"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="71"/>
+      <c r="I50" s="108"/>
+      <c r="J50" s="105"/>
     </row>
     <row r="51" spans="2:10" ht="15" thickBot="1">
-      <c r="B51" s="69"/>
-      <c r="C51" s="77"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="89"/>
       <c r="D51" s="26" t="s">
         <v>45</v>
       </c>
@@ -3181,34 +3181,34 @@
       </c>
       <c r="G51" s="39"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="72"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="106"/>
     </row>
     <row r="52" spans="2:10" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="53" spans="2:10">
-      <c r="B53" s="84" t="s">
+      <c r="B53" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="86" t="s">
+      <c r="C53" s="78" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="24"/>
-      <c r="E53" s="81" t="s">
+      <c r="E53" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81" t="s">
+      <c r="F53" s="79"/>
+      <c r="G53" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81" t="s">
+      <c r="H53" s="79"/>
+      <c r="I53" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="J53" s="82"/>
+      <c r="J53" s="80"/>
     </row>
     <row r="54" spans="2:10" ht="15" thickBot="1">
-      <c r="B54" s="85"/>
-      <c r="C54" s="58"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="66"/>
       <c r="D54" s="1" t="s">
         <v>43</v>
       </c>
@@ -3232,10 +3232,10 @@
       </c>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="67" t="s">
+      <c r="B55" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="78">
+      <c r="C55" s="94">
         <v>2</v>
       </c>
       <c r="D55" s="28" t="s">
@@ -3249,8 +3249,8 @@
       <c r="J55" s="38"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="68"/>
-      <c r="C56" s="54"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="58"/>
       <c r="D56" s="2" t="s">
         <v>6</v>
       </c>
@@ -3262,8 +3262,8 @@
       <c r="J56" s="32"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="68"/>
-      <c r="C57" s="54"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="58"/>
       <c r="D57" s="2" t="s">
         <v>45</v>
       </c>
@@ -3275,8 +3275,8 @@
       <c r="J57" s="32"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="68"/>
-      <c r="C58" s="54">
+      <c r="B58" s="90"/>
+      <c r="C58" s="58">
         <v>3</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -3290,8 +3290,8 @@
       <c r="J58" s="32"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="68"/>
-      <c r="C59" s="54"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="58"/>
       <c r="D59" s="2" t="s">
         <v>6</v>
       </c>
@@ -3303,8 +3303,8 @@
       <c r="J59" s="32"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="68"/>
-      <c r="C60" s="54"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="58"/>
       <c r="D60" s="2" t="s">
         <v>45</v>
       </c>
@@ -3316,8 +3316,8 @@
       <c r="J60" s="32"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="68"/>
-      <c r="C61" s="54">
+      <c r="B61" s="90"/>
+      <c r="C61" s="58">
         <v>4</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -3331,8 +3331,8 @@
       <c r="J61" s="32"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="68"/>
-      <c r="C62" s="54"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="58"/>
       <c r="D62" s="2" t="s">
         <v>6</v>
       </c>
@@ -3344,8 +3344,8 @@
       <c r="J62" s="32"/>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="68"/>
-      <c r="C63" s="54"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="58"/>
       <c r="D63" s="2" t="s">
         <v>45</v>
       </c>
@@ -3357,8 +3357,8 @@
       <c r="J63" s="32"/>
     </row>
     <row r="64" spans="2:10" ht="42.75" customHeight="1">
-      <c r="B64" s="68"/>
-      <c r="C64" s="54">
+      <c r="B64" s="90"/>
+      <c r="C64" s="58">
         <v>5</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -3372,8 +3372,8 @@
       <c r="J64" s="32"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="68"/>
-      <c r="C65" s="54"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="58"/>
       <c r="D65" s="2" t="s">
         <v>6</v>
       </c>
@@ -3385,8 +3385,8 @@
       <c r="J65" s="32"/>
     </row>
     <row r="66" spans="2:12" ht="15" thickBot="1">
-      <c r="B66" s="69"/>
-      <c r="C66" s="77"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="89"/>
       <c r="D66" s="26" t="s">
         <v>45</v>
       </c>
@@ -3408,29 +3408,29 @@
       </c>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="84" t="s">
+      <c r="B70" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="86" t="s">
+      <c r="C70" s="78" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="24"/>
-      <c r="E70" s="81" t="s">
+      <c r="E70" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="F70" s="81"/>
-      <c r="G70" s="81" t="s">
+      <c r="F70" s="79"/>
+      <c r="G70" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="H70" s="81"/>
-      <c r="I70" s="81" t="s">
+      <c r="H70" s="79"/>
+      <c r="I70" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="82"/>
+      <c r="J70" s="80"/>
     </row>
     <row r="71" spans="2:12" ht="15" thickBot="1">
-      <c r="B71" s="85"/>
-      <c r="C71" s="58"/>
+      <c r="B71" s="77"/>
+      <c r="C71" s="66"/>
       <c r="D71" s="1" t="s">
         <v>43</v>
       </c>
@@ -3454,25 +3454,25 @@
       </c>
     </row>
     <row r="72" spans="2:12">
-      <c r="B72" s="67" t="s">
+      <c r="B72" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="C72" s="78">
+      <c r="C72" s="94">
         <v>2</v>
       </c>
       <c r="D72" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E72" s="28"/>
-      <c r="F72" s="108"/>
+      <c r="F72" s="55"/>
       <c r="G72" s="28"/>
-      <c r="H72" s="109"/>
-      <c r="I72" s="103"/>
-      <c r="J72" s="100"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="99"/>
+      <c r="J72" s="96"/>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="68"/>
-      <c r="C73" s="54"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="58"/>
       <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
@@ -3480,12 +3480,12 @@
       <c r="F73" s="21"/>
       <c r="G73" s="2"/>
       <c r="H73" s="40"/>
-      <c r="I73" s="104"/>
-      <c r="J73" s="101"/>
+      <c r="I73" s="100"/>
+      <c r="J73" s="97"/>
     </row>
     <row r="74" spans="2:12">
-      <c r="B74" s="68"/>
-      <c r="C74" s="54"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="58"/>
       <c r="D74" s="2" t="s">
         <v>45</v>
       </c>
@@ -3493,12 +3493,12 @@
       <c r="F74" s="21"/>
       <c r="G74" s="2"/>
       <c r="H74" s="40"/>
-      <c r="I74" s="105"/>
-      <c r="J74" s="101"/>
+      <c r="I74" s="101"/>
+      <c r="J74" s="97"/>
     </row>
     <row r="75" spans="2:12">
-      <c r="B75" s="68"/>
-      <c r="C75" s="54">
+      <c r="B75" s="90"/>
+      <c r="C75" s="58">
         <v>3</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -3508,12 +3508,12 @@
       <c r="F75" s="21"/>
       <c r="G75" s="2"/>
       <c r="H75" s="40"/>
-      <c r="I75" s="106"/>
-      <c r="J75" s="101"/>
+      <c r="I75" s="102"/>
+      <c r="J75" s="97"/>
     </row>
     <row r="76" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B76" s="68"/>
-      <c r="C76" s="54"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="58"/>
       <c r="D76" s="2" t="s">
         <v>6</v>
       </c>
@@ -3521,12 +3521,12 @@
       <c r="F76" s="21"/>
       <c r="G76" s="2"/>
       <c r="H76" s="40"/>
-      <c r="I76" s="104"/>
-      <c r="J76" s="101"/>
+      <c r="I76" s="100"/>
+      <c r="J76" s="97"/>
     </row>
     <row r="77" spans="2:12">
-      <c r="B77" s="68"/>
-      <c r="C77" s="54"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="58"/>
       <c r="D77" s="2" t="s">
         <v>45</v>
       </c>
@@ -3534,12 +3534,12 @@
       <c r="F77" s="21"/>
       <c r="G77" s="2"/>
       <c r="H77" s="40"/>
-      <c r="I77" s="105"/>
-      <c r="J77" s="101"/>
+      <c r="I77" s="101"/>
+      <c r="J77" s="97"/>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="68"/>
-      <c r="C78" s="54">
+      <c r="B78" s="90"/>
+      <c r="C78" s="58">
         <v>4</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -3549,8 +3549,8 @@
       <c r="F78" s="21"/>
       <c r="G78" s="2"/>
       <c r="H78" s="40"/>
-      <c r="I78" s="106"/>
-      <c r="J78" s="101"/>
+      <c r="I78" s="102"/>
+      <c r="J78" s="97"/>
       <c r="K78" t="s">
         <v>58</v>
       </c>
@@ -3559,8 +3559,8 @@
       </c>
     </row>
     <row r="79" spans="2:12">
-      <c r="B79" s="68"/>
-      <c r="C79" s="54"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="58"/>
       <c r="D79" s="2" t="s">
         <v>6</v>
       </c>
@@ -3572,8 +3572,8 @@
       <c r="H79" s="40">
         <v>16.09</v>
       </c>
-      <c r="I79" s="104"/>
-      <c r="J79" s="101"/>
+      <c r="I79" s="100"/>
+      <c r="J79" s="97"/>
       <c r="K79" t="s">
         <v>57</v>
       </c>
@@ -3582,8 +3582,8 @@
       </c>
     </row>
     <row r="80" spans="2:12">
-      <c r="B80" s="68"/>
-      <c r="C80" s="54"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="58"/>
       <c r="D80" s="2" t="s">
         <v>45</v>
       </c>
@@ -3591,12 +3591,12 @@
       <c r="F80" s="21"/>
       <c r="G80" s="2"/>
       <c r="H80" s="40"/>
-      <c r="I80" s="105"/>
-      <c r="J80" s="101"/>
+      <c r="I80" s="101"/>
+      <c r="J80" s="97"/>
     </row>
     <row r="81" spans="2:10">
-      <c r="B81" s="68"/>
-      <c r="C81" s="54">
+      <c r="B81" s="90"/>
+      <c r="C81" s="58">
         <v>5</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -3606,12 +3606,12 @@
       <c r="F81" s="21"/>
       <c r="G81" s="2"/>
       <c r="H81" s="40"/>
-      <c r="I81" s="106"/>
-      <c r="J81" s="101"/>
+      <c r="I81" s="102"/>
+      <c r="J81" s="97"/>
     </row>
     <row r="82" spans="2:10">
-      <c r="B82" s="68"/>
-      <c r="C82" s="54"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="58"/>
       <c r="D82" s="2" t="s">
         <v>6</v>
       </c>
@@ -3619,74 +3619,38 @@
       <c r="F82" s="21"/>
       <c r="G82" s="2"/>
       <c r="H82" s="40"/>
-      <c r="I82" s="104"/>
-      <c r="J82" s="101"/>
+      <c r="I82" s="100"/>
+      <c r="J82" s="97"/>
     </row>
     <row r="83" spans="2:10" ht="15" thickBot="1">
-      <c r="B83" s="69"/>
-      <c r="C83" s="77"/>
+      <c r="B83" s="91"/>
+      <c r="C83" s="89"/>
       <c r="D83" s="26" t="s">
         <v>45</v>
       </c>
       <c r="E83" s="26"/>
-      <c r="F83" s="110"/>
+      <c r="F83" s="57"/>
       <c r="G83" s="26"/>
       <c r="H83" s="41"/>
-      <c r="I83" s="107"/>
-      <c r="J83" s="102"/>
+      <c r="I83" s="103"/>
+      <c r="J83" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="J17:J20"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B51"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="B55:B66"/>
+    <mergeCell ref="J40:J51"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="I49:I51"/>
     <mergeCell ref="C78:C80"/>
     <mergeCell ref="J24:J27"/>
     <mergeCell ref="C24:C26"/>
@@ -3703,21 +3667,57 @@
     <mergeCell ref="I78:I80"/>
     <mergeCell ref="I81:I83"/>
     <mergeCell ref="B72:B83"/>
-    <mergeCell ref="B55:B66"/>
-    <mergeCell ref="J40:J51"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/master_research/test_result.xlsx
+++ b/master_research/test_result.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univtokyo-my.sharepoint.com/personal/8252598822_utac_u-tokyo_ac_jp/Documents/research/master_research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="738" documentId="11_AD4D066CA252ABDACC1048B789D1F66E72EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD4C71AD-D179-41C5-9ADD-CF73530DE064}"/>
+  <xr:revisionPtr revIDLastSave="1004" documentId="11_AD4D066CA252ABDACC1048B789D1F66E72EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A297B317-5CA3-4D5E-8C7E-720AD8A122E1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="map_experiment" sheetId="2" r:id="rId2"/>
+    <sheet name="experiment_v3v4" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="51">
   <si>
     <t>LOS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,23 +158,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>metric:minmax
-test time:100
-random_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-agent path_len</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>avg_paths_len</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21*21
-obstacles:196
-obstacle_rate:0.44</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,38 +172,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1test with w=10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">30*31
-obstacles:612
-0_lak101d
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53.55(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62.6(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80.6(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my research (var）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>my research(new)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18.2(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -243,30 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23.39
-(condition2=1.33)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30.58
-(condition2=1.4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30.52(1.5)
-30.4（2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1998
-0.2445</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38.16（2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>21*21
 obstacles:196
 obstacle_rate:0.44
@@ -274,27 +208,140 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>use f_weight=10 to test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>my research (old）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>old=no prune</t>
+    <t>my research (v2）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20.8(2)</t>
+    <t>my research(v3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20.8(1.5)</t>
+    <t>NOTE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20.8(1.333)</t>
+    <t xml:space="preserve">parameter:
+test time:1
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">parameter:
+test time:100
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: epsilon:1.5
+,f_weight:1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>test time:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">100
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: epsilon:1
+,f_weight:10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>test time:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10
+but reference use f_weight=1
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficiency up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my research (v3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my research(v4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my research(v3.1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +354,7 @@
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,8 +400,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,8 +426,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -547,6 +606,49 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -554,6 +656,43 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -563,80 +702,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -646,54 +716,80 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -756,16 +852,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -777,23 +867,14 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -806,7 +887,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -814,19 +895,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -835,9 +916,68 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -892,6 +1032,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -901,10 +1053,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -914,9 +1075,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -931,71 +1089,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1304,21 +1447,21 @@
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71" t="s">
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
@@ -1353,7 +1496,7 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="79" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1385,7 +1528,7 @@
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="58"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1419,7 +1562,7 @@
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="58"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1453,7 +1596,7 @@
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="72" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1473,7 +1616,7 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="58"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1491,7 +1634,7 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="58"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1509,7 +1652,7 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="72" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1529,7 +1672,7 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="58"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1547,7 +1690,7 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="58"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1568,12 +1711,12 @@
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="1"/>
@@ -1585,7 +1728,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="65"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1594,7 +1737,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="58"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1603,7 +1746,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="58"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1612,7 +1755,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="58"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1621,7 +1764,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="58"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1630,7 +1773,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="58"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1639,7 +1782,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="58"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1648,7 +1791,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="58"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1657,7 +1800,7 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="58"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1671,31 +1814,31 @@
       </c>
     </row>
     <row r="34" spans="2:23">
-      <c r="M34" s="66" t="s">
+      <c r="M34" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="N34" s="67" t="s">
+      <c r="N34" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="O34" s="69" t="s">
+      <c r="O34" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="71" t="s">
+      <c r="P34" s="84"/>
+      <c r="Q34" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="69" t="s">
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="U34" s="72"/>
-      <c r="V34" s="70"/>
+      <c r="U34" s="86"/>
+      <c r="V34" s="84"/>
       <c r="W34" s="8"/>
     </row>
     <row r="35" spans="2:23">
-      <c r="M35" s="66"/>
-      <c r="N35" s="68"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="82"/>
       <c r="O35" s="1" t="s">
         <v>20</v>
       </c>
@@ -1705,10 +1848,10 @@
       <c r="Q35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R35" s="73" t="s">
+      <c r="R35" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="S35" s="74"/>
+      <c r="S35" s="88"/>
       <c r="T35" s="1" t="s">
         <v>20</v>
       </c>
@@ -1721,7 +1864,7 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="2:23">
-      <c r="M36" s="65">
+      <c r="M36" s="79">
         <v>2</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -1736,10 +1879,10 @@
       <c r="Q36" s="2">
         <v>44.41</v>
       </c>
-      <c r="R36" s="59">
+      <c r="R36" s="73">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="S36" s="60"/>
+      <c r="S36" s="74"/>
       <c r="T36" s="2">
         <v>30.1</v>
       </c>
@@ -1752,22 +1895,22 @@
       <c r="W36" s="10"/>
     </row>
     <row r="37" spans="2:23">
-      <c r="M37" s="65"/>
+      <c r="M37" s="79"/>
       <c r="N37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="64"/>
+      <c r="R37" s="77"/>
+      <c r="S37" s="78"/>
       <c r="T37" s="2"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="10"/>
     </row>
     <row r="38" spans="2:23">
-      <c r="M38" s="58">
+      <c r="M38" s="72">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -1782,10 +1925,10 @@
       <c r="Q38" s="2">
         <v>34.130000000000003</v>
       </c>
-      <c r="R38" s="59">
+      <c r="R38" s="73">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="S38" s="60"/>
+      <c r="S38" s="74"/>
       <c r="T38" s="2">
         <v>19.100000000000001</v>
       </c>
@@ -1798,22 +1941,22 @@
       <c r="W38" s="10"/>
     </row>
     <row r="39" spans="2:23">
-      <c r="M39" s="58"/>
+      <c r="M39" s="72"/>
       <c r="N39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="64"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="78"/>
       <c r="T39" s="2"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="10"/>
     </row>
     <row r="40" spans="2:23">
-      <c r="M40" s="58">
+      <c r="M40" s="72">
         <v>4</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -1828,10 +1971,10 @@
       <c r="Q40" s="2">
         <v>27.2</v>
       </c>
-      <c r="R40" s="59">
+      <c r="R40" s="73">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="S40" s="60"/>
+      <c r="S40" s="74"/>
       <c r="T40" s="2">
         <v>14.9</v>
       </c>
@@ -1844,22 +1987,22 @@
       <c r="W40" s="10"/>
     </row>
     <row r="41" spans="2:23">
-      <c r="M41" s="58"/>
+      <c r="M41" s="72"/>
       <c r="N41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="64"/>
+      <c r="R41" s="77"/>
+      <c r="S41" s="78"/>
       <c r="T41" s="2"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="10"/>
     </row>
     <row r="42" spans="2:23">
-      <c r="M42" s="58">
+      <c r="M42" s="72">
         <v>5</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -1874,10 +2017,10 @@
       <c r="Q42" s="2">
         <v>22.62</v>
       </c>
-      <c r="R42" s="59">
+      <c r="R42" s="73">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="S42" s="60"/>
+      <c r="S42" s="74"/>
       <c r="T42" s="2">
         <v>12.2</v>
       </c>
@@ -1890,22 +2033,22 @@
       <c r="W42" s="10"/>
     </row>
     <row r="43" spans="2:23">
-      <c r="M43" s="58"/>
+      <c r="M43" s="72"/>
       <c r="N43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="61"/>
-      <c r="S43" s="62"/>
+      <c r="R43" s="75"/>
+      <c r="S43" s="76"/>
       <c r="T43" s="2"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
       <c r="W43" s="10"/>
     </row>
     <row r="44" spans="2:23">
-      <c r="M44" s="58">
+      <c r="M44" s="72">
         <v>6</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -1920,10 +2063,10 @@
       <c r="Q44" s="2">
         <v>19.21</v>
       </c>
-      <c r="R44" s="59">
+      <c r="R44" s="73">
         <v>7.8E-2</v>
       </c>
-      <c r="S44" s="60"/>
+      <c r="S44" s="74"/>
       <c r="T44" s="2">
         <v>10.1</v>
       </c>
@@ -1936,52 +2079,52 @@
       <c r="W44" s="10"/>
     </row>
     <row r="45" spans="2:23">
-      <c r="M45" s="58"/>
+      <c r="M45" s="72"/>
       <c r="N45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
-      <c r="R45" s="61"/>
-      <c r="S45" s="62"/>
+      <c r="R45" s="75"/>
+      <c r="S45" s="76"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
     <row r="46" spans="2:23">
-      <c r="B46" s="75"/>
+      <c r="B46" s="89"/>
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="2:23">
-      <c r="B47" s="75"/>
+      <c r="B47" s="89"/>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="2:23">
-      <c r="M48" s="66" t="s">
+      <c r="M48" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="67" t="s">
+      <c r="N48" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="O48" s="69" t="s">
+      <c r="O48" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="P48" s="70"/>
-      <c r="Q48" s="71" t="s">
+      <c r="P48" s="84"/>
+      <c r="Q48" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="R48" s="71"/>
-      <c r="S48" s="71"/>
-      <c r="T48" s="69" t="s">
+      <c r="R48" s="85"/>
+      <c r="S48" s="85"/>
+      <c r="T48" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="U48" s="72"/>
-      <c r="V48" s="70"/>
+      <c r="U48" s="86"/>
+      <c r="V48" s="84"/>
     </row>
     <row r="49" spans="13:22">
-      <c r="M49" s="66"/>
-      <c r="N49" s="68"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="82"/>
       <c r="O49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1991,10 +2134,10 @@
       <c r="Q49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R49" s="73" t="s">
+      <c r="R49" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="74"/>
+      <c r="S49" s="88"/>
       <c r="T49" s="1" t="s">
         <v>20</v>
       </c>
@@ -2006,7 +2149,7 @@
       </c>
     </row>
     <row r="50" spans="13:22">
-      <c r="M50" s="65">
+      <c r="M50" s="79">
         <v>2</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -2021,10 +2164,10 @@
       <c r="Q50" s="2">
         <v>41.9</v>
       </c>
-      <c r="R50" s="59">
+      <c r="R50" s="73">
         <v>0.83599999999999997</v>
       </c>
-      <c r="S50" s="60"/>
+      <c r="S50" s="74"/>
       <c r="T50" s="2">
         <v>30.1</v>
       </c>
@@ -2036,21 +2179,21 @@
       </c>
     </row>
     <row r="51" spans="13:22">
-      <c r="M51" s="65"/>
+      <c r="M51" s="79"/>
       <c r="N51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="63"/>
-      <c r="S51" s="64"/>
+      <c r="R51" s="77"/>
+      <c r="S51" s="78"/>
       <c r="T51" s="2"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
     </row>
     <row r="52" spans="13:22">
-      <c r="M52" s="58">
+      <c r="M52" s="72">
         <v>3</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -2065,10 +2208,10 @@
       <c r="Q52" s="2">
         <v>29.04</v>
       </c>
-      <c r="R52" s="59">
+      <c r="R52" s="73">
         <v>0.42599999999999999</v>
       </c>
-      <c r="S52" s="60"/>
+      <c r="S52" s="74"/>
       <c r="T52" s="2">
         <v>19.100000000000001</v>
       </c>
@@ -2080,21 +2223,21 @@
       </c>
     </row>
     <row r="53" spans="13:22">
-      <c r="M53" s="58"/>
+      <c r="M53" s="72"/>
       <c r="N53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="63"/>
-      <c r="S53" s="64"/>
+      <c r="R53" s="77"/>
+      <c r="S53" s="78"/>
       <c r="T53" s="2"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
     </row>
     <row r="54" spans="13:22">
-      <c r="M54" s="58">
+      <c r="M54" s="72">
         <v>4</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -2109,10 +2252,10 @@
       <c r="Q54" s="2">
         <v>21.59</v>
       </c>
-      <c r="R54" s="59">
+      <c r="R54" s="73">
         <v>0.255</v>
       </c>
-      <c r="S54" s="60"/>
+      <c r="S54" s="74"/>
       <c r="T54" s="2">
         <v>14.9</v>
       </c>
@@ -2124,21 +2267,21 @@
       </c>
     </row>
     <row r="55" spans="13:22">
-      <c r="M55" s="58"/>
+      <c r="M55" s="72"/>
       <c r="N55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-      <c r="R55" s="63"/>
-      <c r="S55" s="64"/>
+      <c r="R55" s="77"/>
+      <c r="S55" s="78"/>
       <c r="T55" s="2"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
     </row>
     <row r="56" spans="13:22">
-      <c r="M56" s="58">
+      <c r="M56" s="72">
         <v>5</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -2151,8 +2294,8 @@
         <v>6.83E-2</v>
       </c>
       <c r="Q56" s="2"/>
-      <c r="R56" s="59"/>
-      <c r="S56" s="60"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="74"/>
       <c r="T56" s="2">
         <v>12.2</v>
       </c>
@@ -2164,21 +2307,21 @@
       </c>
     </row>
     <row r="57" spans="13:22">
-      <c r="M57" s="58"/>
+      <c r="M57" s="72"/>
       <c r="N57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="61"/>
-      <c r="S57" s="62"/>
+      <c r="R57" s="75"/>
+      <c r="S57" s="76"/>
       <c r="T57" s="2"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
     </row>
     <row r="58" spans="13:22">
-      <c r="M58" s="58">
+      <c r="M58" s="72">
         <v>6</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -2191,8 +2334,8 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="Q58" s="2"/>
-      <c r="R58" s="59"/>
-      <c r="S58" s="60"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="74"/>
       <c r="T58" s="2">
         <v>10.1</v>
       </c>
@@ -2204,15 +2347,15 @@
       </c>
     </row>
     <row r="59" spans="13:22">
-      <c r="M59" s="58"/>
+      <c r="M59" s="72"/>
       <c r="N59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
-      <c r="R59" s="61"/>
-      <c r="S59" s="62"/>
+      <c r="R59" s="75"/>
+      <c r="S59" s="76"/>
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
@@ -2282,10 +2425,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D0097C-6E56-442D-B4E2-B0B31B73614F}">
-  <dimension ref="B2:L83"/>
+  <dimension ref="B2:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2295,15 +2438,15 @@
     <col min="5" max="5" width="18.375" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="13.375" customWidth="1"/>
     <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="46.5" customHeight="1">
-      <c r="B2" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="B2" s="13"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2314,398 +2457,246 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="84"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>38.93</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.51</v>
-      </c>
+      <c r="B5" s="79"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="16">
-        <f>J5/2</f>
-        <v>40.924999999999997</v>
-      </c>
-      <c r="J5" s="81">
-        <v>81.849999999999994</v>
-      </c>
+      <c r="G5" s="105"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="102"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="65"/>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>31.35</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.32</v>
-      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="16">
-        <f>J5/3</f>
-        <v>27.283333333333331</v>
-      </c>
-      <c r="J6" s="82"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="103"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="65"/>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>24.42</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.23</v>
-      </c>
+      <c r="B7" s="79"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="16">
-        <f>J5/4</f>
-        <v>20.462499999999999</v>
-      </c>
-      <c r="J7" s="82"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="103"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="65"/>
-      <c r="C8" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2">
-        <v>19.32</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.19</v>
-      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="16">
-        <f>J5/5</f>
-        <v>16.369999999999997</v>
-      </c>
-      <c r="J8" s="83"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="104"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
+      <c r="B9" s="79"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="14"/>
       <c r="E9" s="2"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="16">
-        <f>J9/2</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="81"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="102"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="58"/>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2">
-        <v>116.05</v>
-      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="16">
-        <f>J9/3</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="82"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="103"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="58"/>
-      <c r="C11" s="2">
-        <v>4</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2">
-        <v>14.95</v>
-      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="16">
-        <f>J9/4</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="82"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="103"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="58"/>
-      <c r="C12" s="2">
-        <v>5</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="2">
-        <v>9.1</v>
-      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="16">
-        <f>J9/5</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="83"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="104"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="16">
-        <f>J13/2</f>
-        <v>26.38</v>
-      </c>
-      <c r="J13" s="81">
-        <v>52.76</v>
-      </c>
-      <c r="K13">
-        <f>85.191/30</f>
-        <v>2.8397000000000001</v>
-      </c>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="58"/>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="16">
-        <f>J13/3</f>
-        <v>17.586666666666666</v>
-      </c>
-      <c r="J14" s="82"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="103"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="58"/>
-      <c r="C15" s="2">
-        <v>4</v>
-      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="16">
-        <f>J13/4</f>
-        <v>13.19</v>
-      </c>
-      <c r="J15" s="82"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="103"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="58"/>
-      <c r="C16" s="2">
-        <v>5</v>
-      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="85">
-        <v>25.9</v>
-      </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="16">
-        <f>J13/5</f>
-        <v>10.552</v>
-      </c>
-      <c r="J16" s="83"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="104"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
+      <c r="B17" s="79"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="16">
-        <f>J17/2</f>
-        <v>69</v>
-      </c>
-      <c r="J17" s="88">
-        <v>138</v>
-      </c>
-      <c r="K17" t="s">
-        <v>34</v>
-      </c>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="108"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="58"/>
-      <c r="C18" s="2">
-        <v>3</v>
-      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="16">
-        <f>J17/3</f>
-        <v>46</v>
-      </c>
-      <c r="J18" s="82"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="103"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="58"/>
-      <c r="C19" s="2">
-        <v>4</v>
-      </c>
+      <c r="B19" s="72"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="16">
-        <f>J17/4</f>
-        <v>34.5</v>
-      </c>
-      <c r="J19" s="82"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="103"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="58"/>
-      <c r="C20" s="2">
-        <v>5</v>
-      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="16">
-        <f>J17/5</f>
-        <v>27.6</v>
-      </c>
-      <c r="J20" s="83"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="104"/>
     </row>
     <row r="21" spans="2:11" ht="15" thickBot="1">
-      <c r="B21" s="50"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
       <c r="I21" s="20"/>
-      <c r="J21" s="54"/>
+      <c r="J21" s="47"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79" t="s">
+      <c r="D22" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79" t="s">
+      <c r="F22" s="92"/>
+      <c r="G22" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="80"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="120" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="2:11" ht="15" thickBot="1">
-      <c r="B23" s="77"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="B23" s="95"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="116"/>
       <c r="E23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2719,499 +2710,675 @@
         <v>8</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="25" t="s">
         <v>30</v>
       </c>
+      <c r="J23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="121"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="94">
+      <c r="B24" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="97">
         <v>2</v>
       </c>
-      <c r="D24" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="92"/>
+      <c r="D24" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="117" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="90"/>
-      <c r="C25" s="58"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="22"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="43"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="93"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="118"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="90"/>
-      <c r="C26" s="58"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="22"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="43"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="93"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="118"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="90"/>
-      <c r="C27" s="58">
+      <c r="B27" s="99"/>
+      <c r="C27" s="72">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="22"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="93"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="118"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="90"/>
-      <c r="C28" s="58"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="23"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="32"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="118"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="90"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="23"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="32"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="118"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="90"/>
-      <c r="C30" s="58">
+      <c r="B30" s="99"/>
+      <c r="C30" s="72">
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="23"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="32"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="118"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="90"/>
-      <c r="C31" s="58"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="23"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="32"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="118"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="90"/>
-      <c r="C32" s="58"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="23"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="32"/>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="90"/>
-      <c r="C33" s="58">
+      <c r="H32" s="37"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="118"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="99"/>
+      <c r="C33" s="72">
         <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="23"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="2:12">
-      <c r="B34" s="90"/>
-      <c r="C34" s="58"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="118"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="99"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="23"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" spans="2:12" ht="15" thickBot="1">
-      <c r="B35" s="91"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="2:12">
+      <c r="H34" s="37"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="118"/>
+    </row>
+    <row r="35" spans="2:13" ht="15" thickBot="1">
+      <c r="B35" s="100"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="119"/>
+    </row>
+    <row r="36" spans="2:13">
       <c r="B36" s="14"/>
       <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="2:12" ht="15" thickBot="1"/>
-    <row r="38" spans="2:12">
-      <c r="B38" s="76" t="s">
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+    </row>
+    <row r="37" spans="2:13" ht="15" thickBot="1">
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79" t="s">
+      <c r="D38" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79" t="s">
+      <c r="F38" s="92"/>
+      <c r="G38" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="80"/>
-    </row>
-    <row r="39" spans="2:12">
-      <c r="B39" s="77"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="J38" s="92"/>
+      <c r="K38" s="120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="15" thickBot="1">
+      <c r="B39" s="95"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J39" s="25" t="s">
+      <c r="I39" s="59" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" ht="22.5" customHeight="1">
-      <c r="B40" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="58">
+      <c r="J39" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="121"/>
+      <c r="M39" s="70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B40" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="109">
         <v>2</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="2">
-        <v>37.93</v>
-      </c>
-      <c r="F40" s="21">
-        <v>0.56440000000000001</v>
-      </c>
-      <c r="G40" s="15">
-        <v>38.159999999999997</v>
-      </c>
-      <c r="H40" s="40">
-        <v>0.14369999999999999</v>
-      </c>
-      <c r="I40" s="107">
+      <c r="D40" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="26">
+        <v>39.14</v>
+      </c>
+      <c r="F40" s="49">
+        <v>0.16697999999999999</v>
+      </c>
+      <c r="G40" s="62">
+        <v>39.14</v>
+      </c>
+      <c r="H40" s="49">
+        <v>0.1021</v>
+      </c>
+      <c r="I40" s="63">
         <f>J40/2</f>
-        <v>40.924999999999997</v>
-      </c>
-      <c r="J40" s="104">
-        <v>81.849999999999994</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12">
-      <c r="B41" s="90"/>
-      <c r="C41" s="58"/>
+        <v>41.104999999999997</v>
+      </c>
+      <c r="J40" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="K40" s="123" t="s">
+        <v>45</v>
+      </c>
+      <c r="M40" s="71">
+        <f>(F40-H40)/F40</f>
+        <v>0.38854952688944783</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="112"/>
+      <c r="C41" s="110"/>
       <c r="D41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="2">
-        <v>37.93</v>
-      </c>
-      <c r="F41" s="21">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H41" s="40">
-        <v>0.27279999999999999</v>
-      </c>
-      <c r="I41" s="108"/>
-      <c r="J41" s="105"/>
-    </row>
-    <row r="42" spans="2:12">
-      <c r="B42" s="90"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="105"/>
-    </row>
-    <row r="43" spans="2:12">
-      <c r="B43" s="90"/>
-      <c r="C43" s="58">
+        <v>39.14</v>
+      </c>
+      <c r="F41" s="33">
+        <v>0.28289999999999998</v>
+      </c>
+      <c r="G41" s="15">
+        <v>39.14</v>
+      </c>
+      <c r="H41" s="33">
+        <v>0.13239999999999999</v>
+      </c>
+      <c r="I41" s="16">
+        <f>J41/2</f>
+        <v>41.104999999999997</v>
+      </c>
+      <c r="J41" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="K41" s="124"/>
+      <c r="M41" s="71">
+        <f t="shared" ref="M41:M51" si="0">(F41-H41)/F41</f>
+        <v>0.53199010250972079</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="15" thickBot="1">
+      <c r="B42" s="112"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="25">
+        <v>39.14</v>
+      </c>
+      <c r="F42" s="66">
+        <v>0.36208899999999999</v>
+      </c>
+      <c r="G42" s="25">
+        <v>39.14</v>
+      </c>
+      <c r="H42" s="50">
+        <v>0.14347280000000001</v>
+      </c>
+      <c r="I42" s="54">
+        <f>J42/2</f>
+        <v>41.104999999999997</v>
+      </c>
+      <c r="J42" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="K42" s="124"/>
+      <c r="M42" s="71">
+        <f t="shared" si="0"/>
+        <v>0.6037637155505966</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="112"/>
+      <c r="C43" s="109">
         <v>3</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="2">
-        <v>30.4</v>
-      </c>
-      <c r="F43" s="21">
-        <v>0.31480000000000002</v>
-      </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="107">
-        <f>J40/3</f>
-        <v>27.283333333333331</v>
-      </c>
-      <c r="J43" s="105"/>
-    </row>
-    <row r="44" spans="2:12" ht="43.5" customHeight="1">
-      <c r="B44" s="90"/>
-      <c r="C44" s="58"/>
+      <c r="D43" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="26">
+        <v>30.64</v>
+      </c>
+      <c r="F43" s="49">
+        <v>0.16298000000000001</v>
+      </c>
+      <c r="G43" s="62">
+        <v>30.64</v>
+      </c>
+      <c r="H43" s="49">
+        <v>0.14235999999999999</v>
+      </c>
+      <c r="I43" s="63">
+        <f>J43/3</f>
+        <v>27.403333333333332</v>
+      </c>
+      <c r="J43" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="K43" s="124"/>
+      <c r="M43" s="71">
+        <f t="shared" si="0"/>
+        <v>0.1265185912381889</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="16.5" customHeight="1">
+      <c r="B44" s="112"/>
+      <c r="C44" s="110"/>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="2">
-        <v>30.4</v>
-      </c>
-      <c r="F44" s="22">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="G44" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" s="40">
-        <v>0.193</v>
-      </c>
-      <c r="I44" s="108"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="L44" s="49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12">
-      <c r="B45" s="90"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="105"/>
-    </row>
-    <row r="46" spans="2:12">
-      <c r="B46" s="90"/>
-      <c r="C46" s="58">
+        <v>30.84</v>
+      </c>
+      <c r="F44" s="60">
+        <v>0.25425999999999999</v>
+      </c>
+      <c r="G44" s="41">
+        <v>30.84</v>
+      </c>
+      <c r="H44" s="33">
+        <v>0.16520000000000001</v>
+      </c>
+      <c r="I44" s="16">
+        <f>J44/3</f>
+        <v>27.403333333333332</v>
+      </c>
+      <c r="J44" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="K44" s="124"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="71">
+        <f t="shared" si="0"/>
+        <v>0.35027137575709894</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="15" thickBot="1">
+      <c r="B45" s="112"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="25">
+        <v>31.27</v>
+      </c>
+      <c r="F45" s="61">
+        <v>0.38421699999999998</v>
+      </c>
+      <c r="G45" s="68">
+        <v>31.27</v>
+      </c>
+      <c r="H45" s="34">
+        <v>0.15559999999999999</v>
+      </c>
+      <c r="I45" s="54">
+        <f>J45/3</f>
+        <v>27.403333333333332</v>
+      </c>
+      <c r="J45" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="K45" s="124"/>
+      <c r="M45" s="71">
+        <f t="shared" si="0"/>
+        <v>0.59502052225695379</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="112"/>
+      <c r="C46" s="109">
         <v>4</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="2">
-        <v>23.46</v>
-      </c>
-      <c r="F46" s="22">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="G46" s="15"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="108">
-        <f>J40/4</f>
-        <v>20.462499999999999</v>
-      </c>
-      <c r="J46" s="105"/>
-    </row>
-    <row r="47" spans="2:12" ht="42.75">
-      <c r="B47" s="90"/>
-      <c r="C47" s="58"/>
+      <c r="D46" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="26">
+        <v>21.69</v>
+      </c>
+      <c r="F46" s="69">
+        <v>0.28399000000000002</v>
+      </c>
+      <c r="G46" s="62">
+        <v>21.69</v>
+      </c>
+      <c r="H46" s="49">
+        <v>0.21604209999999999</v>
+      </c>
+      <c r="I46" s="63">
+        <f>J46/4</f>
+        <v>20.552499999999998</v>
+      </c>
+      <c r="J46" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="K46" s="124"/>
+      <c r="M46" s="71">
+        <f t="shared" si="0"/>
+        <v>0.23926159371808878</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="112"/>
+      <c r="C47" s="110"/>
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="2">
-        <v>23.42</v>
-      </c>
-      <c r="F47" s="22">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="G47" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="H47" s="40">
-        <v>0.1767</v>
-      </c>
-      <c r="I47" s="108"/>
-      <c r="J47" s="105"/>
-    </row>
-    <row r="48" spans="2:12" ht="14.25" customHeight="1">
-      <c r="B48" s="90"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="2">
-        <v>23.49</v>
-      </c>
-      <c r="F48" s="22">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="G48" s="15"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="109"/>
-      <c r="J48" s="105"/>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="90"/>
-      <c r="C49" s="58">
+        <v>22.38</v>
+      </c>
+      <c r="F47" s="60">
+        <v>0.31716</v>
+      </c>
+      <c r="G47" s="41">
+        <v>22.38</v>
+      </c>
+      <c r="H47" s="33">
+        <v>0.19409999999999999</v>
+      </c>
+      <c r="I47" s="16">
+        <f>J47/4</f>
+        <v>20.552499999999998</v>
+      </c>
+      <c r="J47" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="K47" s="124"/>
+      <c r="M47" s="71">
+        <f t="shared" si="0"/>
+        <v>0.38800605372682556</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B48" s="112"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="25">
+        <v>21.87</v>
+      </c>
+      <c r="F48" s="61">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="G48" s="68">
+        <v>21.87</v>
+      </c>
+      <c r="H48" s="34">
+        <v>0.23827000000000001</v>
+      </c>
+      <c r="I48" s="54">
+        <f>J48/4</f>
+        <v>20.552499999999998</v>
+      </c>
+      <c r="J48" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="K48" s="124"/>
+      <c r="M48" s="71">
+        <f t="shared" si="0"/>
+        <v>0.40728855721393037</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="112"/>
+      <c r="C49" s="109">
         <v>5</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="2">
-        <v>18.559999999999999</v>
-      </c>
-      <c r="F49" s="22">
-        <v>0.17849999999999999</v>
-      </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="108">
-        <f>J40/5</f>
-        <v>16.369999999999997</v>
-      </c>
-      <c r="J49" s="105"/>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="90"/>
-      <c r="C50" s="58"/>
+      <c r="D49" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="26">
+        <v>18.68</v>
+      </c>
+      <c r="F49" s="69">
+        <v>0.54559999999999997</v>
+      </c>
+      <c r="G49" s="26">
+        <v>18.68</v>
+      </c>
+      <c r="H49" s="49">
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="I49" s="63">
+        <f>J49/5</f>
+        <v>16.442</v>
+      </c>
+      <c r="J49" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="K49" s="124"/>
+      <c r="M49" s="71">
+        <f t="shared" si="0"/>
+        <v>0.40854105571847504</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="112"/>
+      <c r="C50" s="110"/>
       <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="2">
-        <v>18.3</v>
-      </c>
-      <c r="F50" s="22">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="108"/>
-      <c r="J50" s="105"/>
-    </row>
-    <row r="51" spans="2:10" ht="15" thickBot="1">
-      <c r="B51" s="91"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="26">
-        <v>18.29</v>
-      </c>
-      <c r="F51" s="27">
-        <v>0.34</v>
-      </c>
-      <c r="G51" s="39"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="106"/>
-    </row>
-    <row r="52" spans="2:10" ht="14.25" customHeight="1" thickBot="1"/>
-    <row r="53" spans="2:10">
-      <c r="B53" s="76" t="s">
+        <v>18.16</v>
+      </c>
+      <c r="F50" s="60">
+        <v>0.43830000000000002</v>
+      </c>
+      <c r="G50" s="2">
+        <v>18.16</v>
+      </c>
+      <c r="H50" s="33">
+        <v>0.26106000000000001</v>
+      </c>
+      <c r="I50" s="16">
+        <f>J50/5</f>
+        <v>16.442</v>
+      </c>
+      <c r="J50" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="K50" s="124"/>
+      <c r="M50" s="71">
+        <f t="shared" si="0"/>
+        <v>0.40438056125941135</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="15" thickBot="1">
+      <c r="B51" s="113"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="25">
+        <v>17.97</v>
+      </c>
+      <c r="F51" s="61">
+        <v>0.38040000000000002</v>
+      </c>
+      <c r="G51" s="25">
+        <v>17.97</v>
+      </c>
+      <c r="H51" s="34">
+        <v>0.25568000000000002</v>
+      </c>
+      <c r="I51" s="54">
+        <f>J51/5</f>
+        <v>16.442</v>
+      </c>
+      <c r="J51" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="K51" s="125"/>
+      <c r="M51" s="71">
+        <f t="shared" si="0"/>
+        <v>0.32786540483701365</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="14.25" customHeight="1" thickBot="1">
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="78" t="s">
+      <c r="C53" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="24"/>
-      <c r="E53" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79" t="s">
+      <c r="D53" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79" t="s">
+      <c r="F53" s="92"/>
+      <c r="G53" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" s="92"/>
+      <c r="I53" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="J53" s="80"/>
-    </row>
-    <row r="54" spans="2:10" ht="15" thickBot="1">
-      <c r="B54" s="77"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="J53" s="93"/>
+      <c r="K53" s="120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="15" thickBot="1">
+      <c r="B54" s="95"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="116"/>
       <c r="E54" s="1" t="s">
         <v>20</v>
       </c>
@@ -3225,215 +3392,235 @@
         <v>8</v>
       </c>
       <c r="I54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" s="121"/>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="J54" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="94">
+      <c r="C55" s="97">
         <v>2</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="31"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="38"/>
-    </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="90"/>
-      <c r="C56" s="58"/>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="99"/>
+      <c r="C56" s="72"/>
       <c r="D56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="23"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="32"/>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="90"/>
-      <c r="C57" s="58"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="118"/>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="99"/>
+      <c r="C57" s="72"/>
       <c r="D57" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="23"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="32"/>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="B58" s="90"/>
-      <c r="C58" s="58">
+      <c r="H57" s="37"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="118"/>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="99"/>
+      <c r="C58" s="72">
         <v>3</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="23"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="32"/>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="90"/>
-      <c r="C59" s="58"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="118"/>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" s="99"/>
+      <c r="C59" s="72"/>
       <c r="D59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="23"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="32"/>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="90"/>
-      <c r="C60" s="58"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="118"/>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="99"/>
+      <c r="C60" s="72"/>
       <c r="D60" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="23"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="32"/>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="90"/>
-      <c r="C61" s="58">
+      <c r="H60" s="37"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="118"/>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="99"/>
+      <c r="C61" s="72">
         <v>4</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="23"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="32"/>
-    </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="90"/>
-      <c r="C62" s="58"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="118"/>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="99"/>
+      <c r="C62" s="72"/>
       <c r="D62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="23"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="32"/>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" s="90"/>
-      <c r="C63" s="58"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="118"/>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="99"/>
+      <c r="C63" s="72"/>
       <c r="D63" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="23"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="32"/>
-    </row>
-    <row r="64" spans="2:10" ht="42.75" customHeight="1">
-      <c r="B64" s="90"/>
-      <c r="C64" s="58">
+      <c r="H63" s="37"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="118"/>
+    </row>
+    <row r="64" spans="2:13" ht="20.25" customHeight="1">
+      <c r="B64" s="99"/>
+      <c r="C64" s="72">
         <v>5</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="23"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="32"/>
-    </row>
-    <row r="65" spans="2:12">
-      <c r="B65" s="90"/>
-      <c r="C65" s="58"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="118"/>
+    </row>
+    <row r="65" spans="2:13">
+      <c r="B65" s="99"/>
+      <c r="C65" s="72"/>
       <c r="D65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="23"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="32"/>
-    </row>
-    <row r="66" spans="2:12" ht="15" thickBot="1">
-      <c r="B66" s="91"/>
-      <c r="C66" s="89"/>
-      <c r="D66" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E66" s="33"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="35"/>
-    </row>
-    <row r="68" spans="2:12">
-      <c r="B68" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" ht="15" thickBot="1">
-      <c r="B69" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12">
-      <c r="B70" s="76" t="s">
+      <c r="H65" s="37"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="118"/>
+    </row>
+    <row r="66" spans="2:13" ht="15" thickBot="1">
+      <c r="B66" s="100"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="29"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="119"/>
+    </row>
+    <row r="67" spans="2:13">
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+    </row>
+    <row r="68" spans="2:13">
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+    </row>
+    <row r="69" spans="2:13" ht="15" thickBot="1">
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+    </row>
+    <row r="70" spans="2:13">
+      <c r="B70" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="78" t="s">
+      <c r="C70" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="24"/>
-      <c r="E70" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79" t="s">
+      <c r="D70" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70" s="91"/>
+      <c r="G70" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70" s="91"/>
+      <c r="I70" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="80"/>
-    </row>
-    <row r="71" spans="2:12" ht="15" thickBot="1">
-      <c r="B71" s="77"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="J70" s="93"/>
+      <c r="K70" s="120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" ht="15" thickBot="1">
+      <c r="B71" s="95"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="116"/>
       <c r="E71" s="1" t="s">
         <v>20</v>
       </c>
@@ -3447,236 +3634,310 @@
         <v>8</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J71" s="25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="72" spans="2:12">
-      <c r="B72" s="95" t="s">
+      <c r="J71" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" s="121"/>
+      <c r="M71" s="70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B72" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="97">
+        <v>2</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="26">
+        <v>31.6</v>
+      </c>
+      <c r="F72" s="48">
+        <v>16.219000000000001</v>
+      </c>
+      <c r="G72" s="26">
+        <v>31.6</v>
+      </c>
+      <c r="H72" s="49">
+        <v>7.8965899999999998</v>
+      </c>
+      <c r="I72" s="16">
+        <f>J72/2</f>
+        <v>25.4</v>
+      </c>
+      <c r="J72" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="K72" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C72" s="94">
-        <v>2</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E72" s="28"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="99"/>
-      <c r="J72" s="96"/>
-    </row>
-    <row r="73" spans="2:12">
-      <c r="B73" s="90"/>
-      <c r="C73" s="58"/>
+      <c r="M72" s="71">
+        <f>(F72-H72)/F72</f>
+        <v>0.51312719649793459</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13">
+      <c r="B73" s="99"/>
+      <c r="C73" s="72"/>
       <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="21"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="40"/>
-      <c r="I73" s="100"/>
-      <c r="J73" s="97"/>
-    </row>
-    <row r="74" spans="2:12">
-      <c r="B74" s="90"/>
-      <c r="C74" s="58"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="118"/>
+      <c r="M73" s="71"/>
+    </row>
+    <row r="74" spans="2:13">
+      <c r="B74" s="99"/>
+      <c r="C74" s="72"/>
       <c r="D74" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="21"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="101"/>
-      <c r="J74" s="97"/>
-    </row>
-    <row r="75" spans="2:12">
-      <c r="B75" s="90"/>
-      <c r="C75" s="58">
+      <c r="H74" s="33"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="118"/>
+      <c r="M74" s="71"/>
+    </row>
+    <row r="75" spans="2:13">
+      <c r="B75" s="99"/>
+      <c r="C75" s="72">
         <v>3</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="102"/>
-      <c r="J75" s="97"/>
-    </row>
-    <row r="76" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B76" s="90"/>
-      <c r="C76" s="58"/>
+        <v>35</v>
+      </c>
+      <c r="E75" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="F75" s="21">
+        <v>45.548000000000002</v>
+      </c>
+      <c r="G75" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="H75" s="21">
+        <v>11.558999999999999</v>
+      </c>
+      <c r="I75" s="16">
+        <f>J75/3</f>
+        <v>16.933333333333334</v>
+      </c>
+      <c r="J75" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="K75" s="118"/>
+      <c r="M75" s="71">
+        <f t="shared" ref="M75:M81" si="1">(F75-H75)/F75</f>
+        <v>0.74622376394133672</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" ht="12.75" customHeight="1">
+      <c r="B76" s="99"/>
+      <c r="C76" s="72"/>
       <c r="D76" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="21"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="100"/>
-      <c r="J76" s="97"/>
-    </row>
-    <row r="77" spans="2:12">
-      <c r="B77" s="90"/>
-      <c r="C77" s="58"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="118"/>
+      <c r="M76" s="71"/>
+    </row>
+    <row r="77" spans="2:13">
+      <c r="B77" s="99"/>
+      <c r="C77" s="72"/>
       <c r="D77" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="21"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="101"/>
-      <c r="J77" s="97"/>
-    </row>
-    <row r="78" spans="2:12">
-      <c r="B78" s="90"/>
-      <c r="C78" s="58">
+      <c r="H77" s="33"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="118"/>
+      <c r="M77" s="71"/>
+    </row>
+    <row r="78" spans="2:13">
+      <c r="B78" s="99"/>
+      <c r="C78" s="72">
         <v>4</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="102"/>
-      <c r="J78" s="97"/>
-      <c r="K78" t="s">
-        <v>58</v>
-      </c>
-      <c r="L78">
-        <v>12.3934</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12">
-      <c r="B79" s="90"/>
-      <c r="C79" s="58"/>
+        <v>35</v>
+      </c>
+      <c r="E78" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F78" s="21">
+        <v>20.935600000000001</v>
+      </c>
+      <c r="G78" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H78" s="33">
+        <v>6.5335999999999999</v>
+      </c>
+      <c r="I78" s="16">
+        <f>J78/4</f>
+        <v>12.7</v>
+      </c>
+      <c r="J78" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="K78" s="118"/>
+      <c r="M78" s="71">
+        <f t="shared" si="1"/>
+        <v>0.68791914251323105</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13">
+      <c r="B79" s="99"/>
+      <c r="C79" s="72"/>
       <c r="D79" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H79" s="40">
-        <v>16.09</v>
-      </c>
-      <c r="I79" s="100"/>
-      <c r="J79" s="97"/>
-      <c r="K79" t="s">
-        <v>57</v>
-      </c>
-      <c r="L79">
-        <v>12.316000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12">
-      <c r="B80" s="90"/>
-      <c r="C80" s="58"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="118"/>
+      <c r="M79" s="71"/>
+    </row>
+    <row r="80" spans="2:13">
+      <c r="B80" s="99"/>
+      <c r="C80" s="72"/>
       <c r="D80" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="21"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="101"/>
-      <c r="J80" s="97"/>
-    </row>
-    <row r="81" spans="2:10">
-      <c r="B81" s="90"/>
-      <c r="C81" s="58">
+      <c r="H80" s="33"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="118"/>
+      <c r="M80" s="71"/>
+    </row>
+    <row r="81" spans="2:13">
+      <c r="B81" s="99"/>
+      <c r="C81" s="72">
         <v>5</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="102"/>
-      <c r="J81" s="97"/>
-    </row>
-    <row r="82" spans="2:10">
-      <c r="B82" s="90"/>
-      <c r="C82" s="58"/>
+        <v>35</v>
+      </c>
+      <c r="E81" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F81" s="21">
+        <v>13.64</v>
+      </c>
+      <c r="G81" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H81" s="33">
+        <v>4.4413999999999998</v>
+      </c>
+      <c r="I81" s="16">
+        <f>J81/5</f>
+        <v>10.16</v>
+      </c>
+      <c r="J81" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="K81" s="118"/>
+      <c r="M81" s="71">
+        <f t="shared" si="1"/>
+        <v>0.67438416422287395</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13">
+      <c r="B82" s="99"/>
+      <c r="C82" s="72"/>
       <c r="D82" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="21"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="40"/>
-      <c r="I82" s="100"/>
-      <c r="J82" s="97"/>
-    </row>
-    <row r="83" spans="2:10" ht="15" thickBot="1">
-      <c r="B83" s="91"/>
-      <c r="C83" s="89"/>
-      <c r="D83" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E83" s="26"/>
-      <c r="F83" s="57"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="103"/>
-      <c r="J83" s="98"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="118"/>
+      <c r="M82" s="71"/>
+    </row>
+    <row r="83" spans="2:13" ht="15" thickBot="1">
+      <c r="B83" s="100"/>
+      <c r="C83" s="114"/>
+      <c r="D83" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="25"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="119"/>
+      <c r="M83" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
+  <mergeCells count="82">
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K35"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K55:K66"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K72:K83"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K51"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C58:C60"/>
     <mergeCell ref="C61:C63"/>
     <mergeCell ref="C64:C66"/>
-    <mergeCell ref="B55:B66"/>
-    <mergeCell ref="J40:J51"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="J72:J83"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="I81:I83"/>
     <mergeCell ref="B72:B83"/>
     <mergeCell ref="C46:C48"/>
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="B40:B51"/>
     <mergeCell ref="C43:C45"/>
-    <mergeCell ref="I38:J38"/>
     <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B55:B66"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C58:C60"/>
     <mergeCell ref="J17:J20"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B13:B16"/>
@@ -3690,7 +3951,6 @@
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C30:C32"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
@@ -3708,8 +3968,6 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
     <mergeCell ref="E70:F70"/>
     <mergeCell ref="G70:H70"/>
     <mergeCell ref="I70:J70"/>
@@ -3718,9 +3976,1406 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="M40:M51">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{86A9077F-4D13-4629-8E7A-FB975A56E464}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M72:M81">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B132576F-20AF-44A8-BA37-16B035BFD53B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{86A9077F-4D13-4629-8E7A-FB975A56E464}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M40:M51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B132576F-20AF-44A8-BA37-16B035BFD53B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M72:M81</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0395F63A-6BCF-4282-87EC-FB7E8E535592}">
+  <dimension ref="A1:L62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="93"/>
+      <c r="J1" s="120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1">
+      <c r="A2" s="95"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="121"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="97">
+        <v>2</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="117" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="99"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="118"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="99"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="118"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="99"/>
+      <c r="B6" s="72">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="118"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="99"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="118"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="99"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="118"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="99"/>
+      <c r="B9" s="72">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="118"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="99"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="118"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="99"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="118"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="99"/>
+      <c r="B12" s="72">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="118"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="99"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="118"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1">
+      <c r="A14" s="100"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="119"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="14"/>
+      <c r="B15" s="2"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1">
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="92"/>
+      <c r="J17" s="120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1">
+      <c r="A18" s="95"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="121"/>
+      <c r="L18" s="70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="109">
+        <v>2</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="62">
+        <v>39.14</v>
+      </c>
+      <c r="E19" s="49">
+        <v>0.1021</v>
+      </c>
+      <c r="F19" s="62">
+        <v>39.11</v>
+      </c>
+      <c r="G19" s="49">
+        <v>0.14685000000000001</v>
+      </c>
+      <c r="H19" s="63">
+        <f>I19/2</f>
+        <v>41.104999999999997</v>
+      </c>
+      <c r="I19" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="J19" s="123" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="71">
+        <f>(E19-G19)/E19</f>
+        <v>-0.43829578844270334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="112"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="15">
+        <v>39.14</v>
+      </c>
+      <c r="E20" s="33">
+        <v>0.13239999999999999</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="16">
+        <f>I20/2</f>
+        <v>41.104999999999997</v>
+      </c>
+      <c r="I20" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="J20" s="124"/>
+      <c r="L20" s="71">
+        <f t="shared" ref="L20:L30" si="0">(E20-G20)/E20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" thickBot="1">
+      <c r="A21" s="112"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="25">
+        <v>39.14</v>
+      </c>
+      <c r="E21" s="50">
+        <v>0.14347280000000001</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="54">
+        <f>I21/2</f>
+        <v>41.104999999999997</v>
+      </c>
+      <c r="I21" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="J21" s="124"/>
+      <c r="L21" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="112"/>
+      <c r="B22" s="109">
+        <v>3</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="62">
+        <v>30.64</v>
+      </c>
+      <c r="E22" s="49">
+        <v>0.14235999999999999</v>
+      </c>
+      <c r="F22" s="62">
+        <v>30</v>
+      </c>
+      <c r="G22" s="49">
+        <v>0.121</v>
+      </c>
+      <c r="H22" s="63">
+        <f>I22/3</f>
+        <v>27.403333333333332</v>
+      </c>
+      <c r="I22" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="J22" s="124"/>
+      <c r="L22" s="71">
+        <f t="shared" si="0"/>
+        <v>0.15004214667041299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="112"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="41">
+        <v>30.84</v>
+      </c>
+      <c r="E23" s="33">
+        <v>0.16520000000000001</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="16">
+        <f>I23/3</f>
+        <v>27.403333333333332</v>
+      </c>
+      <c r="I23" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="J23" s="124"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1">
+      <c r="A24" s="112"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="68">
+        <v>31.27</v>
+      </c>
+      <c r="E24" s="34">
+        <v>0.15559999999999999</v>
+      </c>
+      <c r="F24" s="68"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="54">
+        <f>I24/3</f>
+        <v>27.403333333333332</v>
+      </c>
+      <c r="I24" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="J24" s="124"/>
+      <c r="L24" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="112"/>
+      <c r="B25" s="109">
+        <v>4</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="62">
+        <v>21.69</v>
+      </c>
+      <c r="E25" s="49">
+        <v>0.21604209999999999</v>
+      </c>
+      <c r="F25" s="62">
+        <v>21.33</v>
+      </c>
+      <c r="G25" s="49">
+        <v>0.187</v>
+      </c>
+      <c r="H25" s="63">
+        <f>I25/4</f>
+        <v>20.552499999999998</v>
+      </c>
+      <c r="I25" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="J25" s="124"/>
+      <c r="L25" s="71">
+        <f t="shared" si="0"/>
+        <v>0.13442796566039669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="112"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="41">
+        <v>22.38</v>
+      </c>
+      <c r="E26" s="33">
+        <v>0.19409999999999999</v>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="16">
+        <f>I26/4</f>
+        <v>20.552499999999998</v>
+      </c>
+      <c r="I26" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="J26" s="124"/>
+      <c r="L26" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" thickBot="1">
+      <c r="A27" s="112"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="68">
+        <v>21.87</v>
+      </c>
+      <c r="E27" s="34">
+        <v>0.23827000000000001</v>
+      </c>
+      <c r="F27" s="68"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="54">
+        <f>I27/4</f>
+        <v>20.552499999999998</v>
+      </c>
+      <c r="I27" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="J27" s="124"/>
+      <c r="L27" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="112"/>
+      <c r="B28" s="109">
+        <v>5</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="26">
+        <v>18.68</v>
+      </c>
+      <c r="E28" s="49">
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="F28" s="26">
+        <v>17.59</v>
+      </c>
+      <c r="G28" s="49">
+        <v>0.33579999999999999</v>
+      </c>
+      <c r="H28" s="63">
+        <f>I28/5</f>
+        <v>16.442</v>
+      </c>
+      <c r="I28" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="J28" s="124"/>
+      <c r="L28" s="71">
+        <f t="shared" si="0"/>
+        <v>-4.0594979857452744E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="112"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>18.16</v>
+      </c>
+      <c r="E29" s="33">
+        <v>0.26106000000000001</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="16">
+        <f>I29/5</f>
+        <v>16.442</v>
+      </c>
+      <c r="I29" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="J29" s="124"/>
+      <c r="L29" s="71">
+        <f>(E29-G29)/E29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1">
+      <c r="A30" s="113"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="25">
+        <v>17.97</v>
+      </c>
+      <c r="E30" s="34">
+        <v>0.25568000000000002</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="54">
+        <f>I30/5</f>
+        <v>16.442</v>
+      </c>
+      <c r="I30" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="J30" s="125"/>
+      <c r="L30" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" thickBot="1">
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="93"/>
+      <c r="J32" s="120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" thickBot="1">
+      <c r="A33" s="95"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="121"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="97">
+        <v>2</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="117" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="99"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="118"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="99"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="118"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="99"/>
+      <c r="B37" s="72">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="118"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="99"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="118"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="99"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="118"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="99"/>
+      <c r="B40" s="72">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="118"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="99"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="118"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="99"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="118"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="99"/>
+      <c r="B43" s="72">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="118"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="99"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="118"/>
+    </row>
+    <row r="45" spans="1:10" ht="15" thickBot="1">
+      <c r="A45" s="100"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="119"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" thickBot="1">
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="93"/>
+      <c r="J49" s="120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15" thickBot="1">
+      <c r="A50" s="95"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="121"/>
+      <c r="L50" s="70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="97">
+        <v>2</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="26">
+        <v>31.6</v>
+      </c>
+      <c r="E51" s="49">
+        <v>7.8965899999999998</v>
+      </c>
+      <c r="F51" s="26">
+        <v>30.1</v>
+      </c>
+      <c r="G51" s="49">
+        <v>11.67</v>
+      </c>
+      <c r="H51" s="16">
+        <f>I51/2</f>
+        <v>25.4</v>
+      </c>
+      <c r="I51" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="J51" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="L51" s="71">
+        <f>(E51-G51)/E51</f>
+        <v>-0.47785309861598491</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="99"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="118"/>
+      <c r="L52" s="71"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="99"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="118"/>
+      <c r="L53" s="71"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="99"/>
+      <c r="B54" s="72">
+        <v>3</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="E54" s="21">
+        <v>11.558999999999999</v>
+      </c>
+      <c r="F54" s="2">
+        <v>25.9</v>
+      </c>
+      <c r="G54" s="21">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="H54" s="16">
+        <f>I54/3</f>
+        <v>16.933333333333334</v>
+      </c>
+      <c r="I54" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="J54" s="118"/>
+      <c r="L54" s="71">
+        <f t="shared" ref="L54:L60" si="1">(E54-G54)/E54</f>
+        <v>0.13141275196816335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="99"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="118"/>
+      <c r="L55" s="71"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="99"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="118"/>
+      <c r="L56" s="71"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="99"/>
+      <c r="B57" s="72">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E57" s="33">
+        <v>6.5335999999999999</v>
+      </c>
+      <c r="F57" s="2">
+        <v>19.7</v>
+      </c>
+      <c r="G57" s="33">
+        <v>6.5220000000000002</v>
+      </c>
+      <c r="H57" s="16">
+        <f>I57/4</f>
+        <v>12.7</v>
+      </c>
+      <c r="I57" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="J57" s="118"/>
+      <c r="L57" s="71">
+        <f t="shared" si="1"/>
+        <v>1.7754377372351552E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="99"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="118"/>
+      <c r="L58" s="71"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="99"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="118"/>
+      <c r="L59" s="71"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="99"/>
+      <c r="B60" s="72">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E60" s="33">
+        <v>4.4413999999999998</v>
+      </c>
+      <c r="F60" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="G60" s="33">
+        <v>4.1360000000000001</v>
+      </c>
+      <c r="H60" s="16">
+        <f>I60/5</f>
+        <v>10.16</v>
+      </c>
+      <c r="I60" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="J60" s="118"/>
+      <c r="L60" s="71">
+        <f t="shared" si="1"/>
+        <v>6.8762102039897258E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="99"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="118"/>
+      <c r="L61" s="71"/>
+    </row>
+    <row r="62" spans="1:12" ht="15" thickBot="1">
+      <c r="A62" s="100"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="119"/>
+      <c r="L62" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="J51:J62"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="J34:J45"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A19:A30"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="J19:J30"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="J3:J14"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="L19:L30">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7816F13F-6B14-47CC-ABC3-F85617C04654}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51:L60">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{054597DE-D315-4EE7-8FD0-CC48DAFBA67A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7816F13F-6B14-47CC-ABC3-F85617C04654}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L19:L30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{054597DE-D315-4EE7-8FD0-CC48DAFBA67A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L51:L60</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/master_research/test_result.xlsx
+++ b/master_research/test_result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univtokyo-my.sharepoint.com/personal/8252598822_utac_u-tokyo_ac_jp/Documents/research/master_research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1004" documentId="11_AD4D066CA252ABDACC1048B789D1F66E72EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A297B317-5CA3-4D5E-8C7E-720AD8A122E1}"/>
+  <xr:revisionPtr revIDLastSave="1084" documentId="11_AD4D066CA252ABDACC1048B789D1F66E72EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A216ECCE-42CF-47CA-918E-BBE19E2FC670}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="map_experiment" sheetId="2" r:id="rId2"/>
     <sheet name="experiment_v3v4" sheetId="3" r:id="rId3"/>
+    <sheet name="experiment_v3v4_2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="51">
   <si>
     <t>LOS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,7 +342,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>my research(v3.1)</t>
+    <t>新增另一个判断连通性的条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,6 +1156,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2427,7 +2432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D0097C-6E56-442D-B4E2-B0B31B73614F}">
   <dimension ref="B2:M83"/>
   <sheetViews>
-    <sheetView topLeftCell="B32" workbookViewId="0">
+    <sheetView topLeftCell="B69" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -4049,17 +4054,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0395F63A-6BCF-4282-87EC-FB7E8E535592}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="7" max="7" width="10.75" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4317,7 +4323,7 @@
       </c>
       <c r="E17" s="92"/>
       <c r="F17" s="92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" s="92"/>
       <c r="H17" s="92" t="s">
@@ -4372,10 +4378,10 @@
         <v>0.1021</v>
       </c>
       <c r="F19" s="62">
-        <v>39.11</v>
+        <v>38.049999999999997</v>
       </c>
       <c r="G19" s="49">
-        <v>0.14685000000000001</v>
+        <v>0.16650000000000001</v>
       </c>
       <c r="H19" s="63">
         <f>I19/2</f>
@@ -4389,7 +4395,7 @@
       </c>
       <c r="L19" s="71">
         <f>(E19-G19)/E19</f>
-        <v>-0.43829578844270334</v>
+        <v>-0.6307541625857005</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -4461,10 +4467,10 @@
         <v>0.14235999999999999</v>
       </c>
       <c r="F22" s="62">
-        <v>30</v>
+        <v>29.71</v>
       </c>
       <c r="G22" s="49">
-        <v>0.121</v>
+        <v>0.26669999999999999</v>
       </c>
       <c r="H22" s="63">
         <f>I22/3</f>
@@ -4476,7 +4482,7 @@
       <c r="J22" s="124"/>
       <c r="L22" s="71">
         <f t="shared" si="0"/>
-        <v>0.15004214667041299</v>
+        <v>-0.87341949985951117</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -4549,10 +4555,10 @@
         <v>0.21604209999999999</v>
       </c>
       <c r="F25" s="62">
-        <v>21.33</v>
+        <v>23.62</v>
       </c>
       <c r="G25" s="49">
-        <v>0.187</v>
+        <v>0.3669</v>
       </c>
       <c r="H25" s="63">
         <f>I25/4</f>
@@ -4564,7 +4570,7 @@
       <c r="J25" s="124"/>
       <c r="L25" s="71">
         <f t="shared" si="0"/>
-        <v>0.13442796566039669</v>
+        <v>-0.69828010373903993</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -4630,13 +4636,13 @@
         <v>35</v>
       </c>
       <c r="D28" s="26">
-        <v>18.68</v>
+        <v>17.59</v>
       </c>
       <c r="E28" s="49">
         <v>0.32269999999999999</v>
       </c>
       <c r="F28" s="26">
-        <v>17.59</v>
+        <v>18.86</v>
       </c>
       <c r="G28" s="49">
         <v>0.33579999999999999</v>
@@ -5263,8 +5269,302 @@
       <c r="J62" s="119"/>
       <c r="L62" s="71"/>
     </row>
+    <row r="66" spans="1:12" ht="15" thickBot="1"/>
+    <row r="67" spans="1:12">
+      <c r="A67" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="92"/>
+      <c r="H67" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" s="93"/>
+      <c r="J67" s="120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15" thickBot="1">
+      <c r="A68" s="95"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="116"/>
+      <c r="D68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" s="121"/>
+      <c r="L68" s="70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="97">
+        <v>2</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="26"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="16">
+        <f>I69/2</f>
+        <v>26.855</v>
+      </c>
+      <c r="I69" s="2">
+        <v>53.71</v>
+      </c>
+      <c r="J69" s="122" t="s">
+        <v>45</v>
+      </c>
+      <c r="L69" s="71" t="e">
+        <f>(E69-G69)/E69</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="99"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="118"/>
+      <c r="L70" s="71"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="99"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="118"/>
+      <c r="L71" s="71"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="99"/>
+      <c r="B72" s="72">
+        <v>3</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="16">
+        <f>I72/3</f>
+        <v>17.903333333333332</v>
+      </c>
+      <c r="I72" s="2">
+        <v>53.71</v>
+      </c>
+      <c r="J72" s="118"/>
+      <c r="L72" s="71" t="e">
+        <f t="shared" ref="L72" si="2">(E72-G72)/E72</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="99"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="118"/>
+      <c r="L73" s="71"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="99"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="118"/>
+      <c r="L74" s="71"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="99"/>
+      <c r="B75" s="72">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="2">
+        <v>18.91</v>
+      </c>
+      <c r="E75" s="33">
+        <v>21.947700000000001</v>
+      </c>
+      <c r="F75" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G75" s="33">
+        <v>64.584999999999994</v>
+      </c>
+      <c r="H75" s="16">
+        <f>I75/4</f>
+        <v>13.4275</v>
+      </c>
+      <c r="I75" s="2">
+        <v>53.71</v>
+      </c>
+      <c r="J75" s="118"/>
+      <c r="L75" s="71">
+        <f t="shared" ref="L75" si="3">(E75-G75)/E75</f>
+        <v>-1.9426773648263824</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="99"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="118"/>
+      <c r="L76" s="71"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="99"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="118"/>
+      <c r="L77" s="71"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="99"/>
+      <c r="B78" s="72">
+        <v>5</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="2">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="E78" s="33">
+        <v>18.835000000000001</v>
+      </c>
+      <c r="F78" s="2">
+        <v>15.74</v>
+      </c>
+      <c r="G78" s="33">
+        <v>52.3536</v>
+      </c>
+      <c r="H78" s="16">
+        <f>I78/5</f>
+        <v>10.742000000000001</v>
+      </c>
+      <c r="I78" s="2">
+        <v>53.71</v>
+      </c>
+      <c r="J78" s="118"/>
+      <c r="L78" s="71">
+        <f t="shared" ref="L78" si="4">(E78-G78)/E78</f>
+        <v>-1.7795911866206529</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="99"/>
+      <c r="B79" s="72"/>
+      <c r="C79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="118"/>
+      <c r="L79" s="71"/>
+    </row>
+    <row r="80" spans="1:12" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A80" s="100"/>
+      <c r="B80" s="114"/>
+      <c r="C80" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="25"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="119"/>
+      <c r="L80" s="71"/>
+    </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="65">
     <mergeCell ref="J49:J50"/>
     <mergeCell ref="A51:A62"/>
     <mergeCell ref="B51:B53"/>
@@ -5304,6 +5604,9 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="A69:A80"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="B3:B5"/>
@@ -5317,10 +5620,20 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="J69:J80"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L19:L30">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5334,6 +5647,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51:L60">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{054597DE-D315-4EE7-8FD0-CC48DAFBA67A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L69:L78">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -5342,7 +5669,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{054597DE-D315-4EE7-8FD0-CC48DAFBA67A}</x14:id>
+          <x14:id>{2DC0B158-AAF9-491A-8426-1742D09636BB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5374,8 +5701,382 @@
           </x14:cfRule>
           <xm:sqref>L51:L60</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2DC0B158-AAF9-491A-8426-1742D09636BB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L69:L78</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881F5FB0-D732-49A9-B3C6-1FF18F52D4DF}">
+  <dimension ref="A3:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1"/>
+    <row r="5" spans="1:10">
+      <c r="A5" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="92"/>
+      <c r="J5" s="120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1">
+      <c r="A6" s="95"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="121"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="109">
+        <v>2</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="62">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="E7" s="49">
+        <v>0.16650000000000001</v>
+      </c>
+      <c r="F7" s="62">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="G7" s="49">
+        <v>0.19389999999999999</v>
+      </c>
+      <c r="H7" s="63">
+        <f>I7/2</f>
+        <v>41.104999999999997</v>
+      </c>
+      <c r="I7" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="J7" s="123" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="112"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="16">
+        <f>I8/2</f>
+        <v>41.104999999999997</v>
+      </c>
+      <c r="I8" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="J8" s="124"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1">
+      <c r="A9" s="112"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="54">
+        <f>I9/2</f>
+        <v>41.104999999999997</v>
+      </c>
+      <c r="I9" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="J9" s="124"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="112"/>
+      <c r="B10" s="109">
+        <v>3</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="62">
+        <v>29.71</v>
+      </c>
+      <c r="E10" s="49">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="F10" s="62">
+        <v>29.77</v>
+      </c>
+      <c r="G10" s="49">
+        <v>0.29189999999999999</v>
+      </c>
+      <c r="H10" s="63">
+        <f>I10/3</f>
+        <v>27.403333333333332</v>
+      </c>
+      <c r="I10" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="J10" s="124"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="112"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="16">
+        <f>I11/3</f>
+        <v>27.403333333333332</v>
+      </c>
+      <c r="I11" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="J11" s="124"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1">
+      <c r="A12" s="112"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="68"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="54">
+        <f>I12/3</f>
+        <v>27.403333333333332</v>
+      </c>
+      <c r="I12" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="J12" s="124"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="112"/>
+      <c r="B13" s="109">
+        <v>4</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="62">
+        <v>23.62</v>
+      </c>
+      <c r="E13" s="49">
+        <v>0.3669</v>
+      </c>
+      <c r="F13" s="62">
+        <v>23.53</v>
+      </c>
+      <c r="G13" s="49">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="H13" s="63">
+        <f>I13/4</f>
+        <v>20.552499999999998</v>
+      </c>
+      <c r="I13" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="J13" s="124"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="112"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="16">
+        <f>I14/4</f>
+        <v>20.552499999999998</v>
+      </c>
+      <c r="I14" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="J14" s="124"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1">
+      <c r="A15" s="112"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="68"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="54">
+        <f>I15/4</f>
+        <v>20.552499999999998</v>
+      </c>
+      <c r="I15" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="J15" s="124"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="112"/>
+      <c r="B16" s="109">
+        <v>5</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="26">
+        <v>18.86</v>
+      </c>
+      <c r="E16" s="49">
+        <v>0.33579999999999999</v>
+      </c>
+      <c r="F16" s="26">
+        <v>18.62</v>
+      </c>
+      <c r="G16" s="49">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="H16" s="63">
+        <f>I16/5</f>
+        <v>16.442</v>
+      </c>
+      <c r="I16" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="J16" s="124"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="112"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="16">
+        <f>I17/5</f>
+        <v>16.442</v>
+      </c>
+      <c r="I17" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="J17" s="124"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1">
+      <c r="A18" s="113"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="54">
+        <f>I18/5</f>
+        <v>16.442</v>
+      </c>
+      <c r="I18" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="J18" s="125"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A7:A18"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="J7:J18"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/master_research/test_result.xlsx
+++ b/master_research/test_result.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univtokyo-my.sharepoint.com/personal/8252598822_utac_u-tokyo_ac_jp/Documents/research/master_research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1084" documentId="11_AD4D066CA252ABDACC1048B789D1F66E72EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A216ECCE-42CF-47CA-918E-BBE19E2FC670}"/>
+  <xr:revisionPtr revIDLastSave="1371" documentId="11_AD4D066CA252ABDACC1048B789D1F66E72EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B753F283-0003-48CA-A7EA-C7155473960C}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="map_experiment" sheetId="2" r:id="rId2"/>
     <sheet name="experiment_v3v4" sheetId="3" r:id="rId3"/>
-    <sheet name="experiment_v3v4_2" sheetId="4" r:id="rId4"/>
+    <sheet name="experiment_v4_1v4_2" sheetId="4" r:id="rId4"/>
+    <sheet name="hyper-parameter choice" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="86">
   <si>
     <t>LOS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,7 +343,495 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增另一个判断连通性的条件</t>
+    <r>
+      <t>my research (v</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4.1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>my research(v4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4.2:新增另一个判断连通性的条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4.3:python version up to 3.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paths_len:avg+std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: epsilon:1.5
+,f_weight:10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>test time:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">100
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.77±7.394</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.53±7.785</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.95±5.854</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.62±6.66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>my research (v</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>my research(v4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4.4:profiling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>my research (v</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>my research(v4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: epsilon:1.5
+,f_weight:1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reference test time:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">100
+test time:10
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.5+4.98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: epsilon:1.5
+,f_weight:10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>test time:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: epsilon:1.5
+,f_weight:1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>test time:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expansions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78.2+6.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78.5+5.73</t>
+  </si>
+  <si>
+    <t>61.2+6.43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.2+3.84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60.11+8.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.0+6.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21*21
+2_maze_21d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paths_len_std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_max_paths+std</t>
+  </si>
+  <si>
+    <t>expands</t>
+  </si>
+  <si>
+    <t>total_time</t>
+  </si>
+  <si>
+    <t>n_agent</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>IW</t>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_weight:1, 
+map: 11*11
+test_time:33
+heuristic:agg_h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +844,7 @@
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +896,47 @@
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -434,7 +964,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -786,11 +1316,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -979,6 +1635,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1140,6 +1826,142 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1427,7 +2249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:W59"/>
   <sheetViews>
-    <sheetView topLeftCell="H28" workbookViewId="0">
+    <sheetView topLeftCell="H35" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
@@ -1452,21 +2274,21 @@
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85" t="s">
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85" t="s">
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
@@ -1501,7 +2323,7 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="91" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1533,7 +2355,7 @@
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="72"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1567,7 +2389,7 @@
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="72"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1601,7 +2423,7 @@
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="84" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1621,7 +2443,7 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="72"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1639,7 +2461,7 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="72"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1657,7 +2479,7 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="84" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1677,7 +2499,7 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="72"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1695,7 +2517,7 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="72"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1716,12 +2538,12 @@
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="1"/>
@@ -1733,7 +2555,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="79"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1742,7 +2564,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="72"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1751,7 +2573,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="72"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1760,7 +2582,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="72"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1769,7 +2591,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="72"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1778,7 +2600,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="72"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1787,7 +2609,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="72"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1796,7 +2618,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="72"/>
+      <c r="B27" s="84"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1805,7 +2627,7 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="72"/>
+      <c r="B28" s="84"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1819,31 +2641,31 @@
       </c>
     </row>
     <row r="34" spans="2:23">
-      <c r="M34" s="80" t="s">
+      <c r="M34" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="N34" s="81" t="s">
+      <c r="N34" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="O34" s="83" t="s">
+      <c r="O34" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="85" t="s">
+      <c r="P34" s="96"/>
+      <c r="Q34" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="R34" s="85"/>
-      <c r="S34" s="85"/>
-      <c r="T34" s="83" t="s">
+      <c r="R34" s="97"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="U34" s="86"/>
-      <c r="V34" s="84"/>
+      <c r="U34" s="98"/>
+      <c r="V34" s="96"/>
       <c r="W34" s="8"/>
     </row>
     <row r="35" spans="2:23">
-      <c r="M35" s="80"/>
-      <c r="N35" s="82"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="94"/>
       <c r="O35" s="1" t="s">
         <v>20</v>
       </c>
@@ -1853,10 +2675,10 @@
       <c r="Q35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R35" s="87" t="s">
+      <c r="R35" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="S35" s="88"/>
+      <c r="S35" s="100"/>
       <c r="T35" s="1" t="s">
         <v>20</v>
       </c>
@@ -1869,7 +2691,7 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="2:23">
-      <c r="M36" s="79">
+      <c r="M36" s="91">
         <v>2</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -1884,10 +2706,10 @@
       <c r="Q36" s="2">
         <v>44.41</v>
       </c>
-      <c r="R36" s="73">
+      <c r="R36" s="85">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="S36" s="74"/>
+      <c r="S36" s="86"/>
       <c r="T36" s="2">
         <v>30.1</v>
       </c>
@@ -1900,22 +2722,22 @@
       <c r="W36" s="10"/>
     </row>
     <row r="37" spans="2:23">
-      <c r="M37" s="79"/>
+      <c r="M37" s="91"/>
       <c r="N37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="77"/>
-      <c r="S37" s="78"/>
+      <c r="R37" s="89"/>
+      <c r="S37" s="90"/>
       <c r="T37" s="2"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="10"/>
     </row>
     <row r="38" spans="2:23">
-      <c r="M38" s="72">
+      <c r="M38" s="84">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -1930,10 +2752,10 @@
       <c r="Q38" s="2">
         <v>34.130000000000003</v>
       </c>
-      <c r="R38" s="73">
+      <c r="R38" s="85">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="S38" s="74"/>
+      <c r="S38" s="86"/>
       <c r="T38" s="2">
         <v>19.100000000000001</v>
       </c>
@@ -1946,22 +2768,22 @@
       <c r="W38" s="10"/>
     </row>
     <row r="39" spans="2:23">
-      <c r="M39" s="72"/>
+      <c r="M39" s="84"/>
       <c r="N39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="77"/>
-      <c r="S39" s="78"/>
+      <c r="R39" s="89"/>
+      <c r="S39" s="90"/>
       <c r="T39" s="2"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="10"/>
     </row>
     <row r="40" spans="2:23">
-      <c r="M40" s="72">
+      <c r="M40" s="84">
         <v>4</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -1976,10 +2798,10 @@
       <c r="Q40" s="2">
         <v>27.2</v>
       </c>
-      <c r="R40" s="73">
+      <c r="R40" s="85">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="S40" s="74"/>
+      <c r="S40" s="86"/>
       <c r="T40" s="2">
         <v>14.9</v>
       </c>
@@ -1992,22 +2814,22 @@
       <c r="W40" s="10"/>
     </row>
     <row r="41" spans="2:23">
-      <c r="M41" s="72"/>
+      <c r="M41" s="84"/>
       <c r="N41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="77"/>
-      <c r="S41" s="78"/>
+      <c r="R41" s="89"/>
+      <c r="S41" s="90"/>
       <c r="T41" s="2"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="10"/>
     </row>
     <row r="42" spans="2:23">
-      <c r="M42" s="72">
+      <c r="M42" s="84">
         <v>5</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -2022,10 +2844,10 @@
       <c r="Q42" s="2">
         <v>22.62</v>
       </c>
-      <c r="R42" s="73">
+      <c r="R42" s="85">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="S42" s="74"/>
+      <c r="S42" s="86"/>
       <c r="T42" s="2">
         <v>12.2</v>
       </c>
@@ -2038,22 +2860,22 @@
       <c r="W42" s="10"/>
     </row>
     <row r="43" spans="2:23">
-      <c r="M43" s="72"/>
+      <c r="M43" s="84"/>
       <c r="N43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="75"/>
-      <c r="S43" s="76"/>
+      <c r="R43" s="87"/>
+      <c r="S43" s="88"/>
       <c r="T43" s="2"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
       <c r="W43" s="10"/>
     </row>
     <row r="44" spans="2:23">
-      <c r="M44" s="72">
+      <c r="M44" s="84">
         <v>6</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -2068,10 +2890,10 @@
       <c r="Q44" s="2">
         <v>19.21</v>
       </c>
-      <c r="R44" s="73">
+      <c r="R44" s="85">
         <v>7.8E-2</v>
       </c>
-      <c r="S44" s="74"/>
+      <c r="S44" s="86"/>
       <c r="T44" s="2">
         <v>10.1</v>
       </c>
@@ -2084,52 +2906,52 @@
       <c r="W44" s="10"/>
     </row>
     <row r="45" spans="2:23">
-      <c r="M45" s="72"/>
+      <c r="M45" s="84"/>
       <c r="N45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
-      <c r="R45" s="75"/>
-      <c r="S45" s="76"/>
+      <c r="R45" s="87"/>
+      <c r="S45" s="88"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
     <row r="46" spans="2:23">
-      <c r="B46" s="89"/>
+      <c r="B46" s="101"/>
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="2:23">
-      <c r="B47" s="89"/>
+      <c r="B47" s="101"/>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="2:23">
-      <c r="M48" s="80" t="s">
+      <c r="M48" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="81" t="s">
+      <c r="N48" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="O48" s="83" t="s">
+      <c r="O48" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="P48" s="84"/>
-      <c r="Q48" s="85" t="s">
+      <c r="P48" s="96"/>
+      <c r="Q48" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="R48" s="85"/>
-      <c r="S48" s="85"/>
-      <c r="T48" s="83" t="s">
+      <c r="R48" s="97"/>
+      <c r="S48" s="97"/>
+      <c r="T48" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="U48" s="86"/>
-      <c r="V48" s="84"/>
+      <c r="U48" s="98"/>
+      <c r="V48" s="96"/>
     </row>
     <row r="49" spans="13:22">
-      <c r="M49" s="80"/>
-      <c r="N49" s="82"/>
+      <c r="M49" s="92"/>
+      <c r="N49" s="94"/>
       <c r="O49" s="1" t="s">
         <v>20</v>
       </c>
@@ -2139,10 +2961,10 @@
       <c r="Q49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R49" s="87" t="s">
+      <c r="R49" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="88"/>
+      <c r="S49" s="100"/>
       <c r="T49" s="1" t="s">
         <v>20</v>
       </c>
@@ -2154,7 +2976,7 @@
       </c>
     </row>
     <row r="50" spans="13:22">
-      <c r="M50" s="79">
+      <c r="M50" s="91">
         <v>2</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -2169,10 +2991,10 @@
       <c r="Q50" s="2">
         <v>41.9</v>
       </c>
-      <c r="R50" s="73">
+      <c r="R50" s="85">
         <v>0.83599999999999997</v>
       </c>
-      <c r="S50" s="74"/>
+      <c r="S50" s="86"/>
       <c r="T50" s="2">
         <v>30.1</v>
       </c>
@@ -2184,21 +3006,21 @@
       </c>
     </row>
     <row r="51" spans="13:22">
-      <c r="M51" s="79"/>
+      <c r="M51" s="91"/>
       <c r="N51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="77"/>
-      <c r="S51" s="78"/>
+      <c r="R51" s="89"/>
+      <c r="S51" s="90"/>
       <c r="T51" s="2"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
     </row>
     <row r="52" spans="13:22">
-      <c r="M52" s="72">
+      <c r="M52" s="84">
         <v>3</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -2213,10 +3035,10 @@
       <c r="Q52" s="2">
         <v>29.04</v>
       </c>
-      <c r="R52" s="73">
+      <c r="R52" s="85">
         <v>0.42599999999999999</v>
       </c>
-      <c r="S52" s="74"/>
+      <c r="S52" s="86"/>
       <c r="T52" s="2">
         <v>19.100000000000001</v>
       </c>
@@ -2228,21 +3050,21 @@
       </c>
     </row>
     <row r="53" spans="13:22">
-      <c r="M53" s="72"/>
+      <c r="M53" s="84"/>
       <c r="N53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="77"/>
-      <c r="S53" s="78"/>
+      <c r="R53" s="89"/>
+      <c r="S53" s="90"/>
       <c r="T53" s="2"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
     </row>
     <row r="54" spans="13:22">
-      <c r="M54" s="72">
+      <c r="M54" s="84">
         <v>4</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -2257,10 +3079,10 @@
       <c r="Q54" s="2">
         <v>21.59</v>
       </c>
-      <c r="R54" s="73">
+      <c r="R54" s="85">
         <v>0.255</v>
       </c>
-      <c r="S54" s="74"/>
+      <c r="S54" s="86"/>
       <c r="T54" s="2">
         <v>14.9</v>
       </c>
@@ -2272,21 +3094,21 @@
       </c>
     </row>
     <row r="55" spans="13:22">
-      <c r="M55" s="72"/>
+      <c r="M55" s="84"/>
       <c r="N55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-      <c r="R55" s="77"/>
-      <c r="S55" s="78"/>
+      <c r="R55" s="89"/>
+      <c r="S55" s="90"/>
       <c r="T55" s="2"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
     </row>
     <row r="56" spans="13:22">
-      <c r="M56" s="72">
+      <c r="M56" s="84">
         <v>5</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -2299,8 +3121,8 @@
         <v>6.83E-2</v>
       </c>
       <c r="Q56" s="2"/>
-      <c r="R56" s="73"/>
-      <c r="S56" s="74"/>
+      <c r="R56" s="85"/>
+      <c r="S56" s="86"/>
       <c r="T56" s="2">
         <v>12.2</v>
       </c>
@@ -2312,21 +3134,21 @@
       </c>
     </row>
     <row r="57" spans="13:22">
-      <c r="M57" s="72"/>
+      <c r="M57" s="84"/>
       <c r="N57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="75"/>
-      <c r="S57" s="76"/>
+      <c r="R57" s="87"/>
+      <c r="S57" s="88"/>
       <c r="T57" s="2"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
     </row>
     <row r="58" spans="13:22">
-      <c r="M58" s="72">
+      <c r="M58" s="84">
         <v>6</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -2339,8 +3161,8 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="Q58" s="2"/>
-      <c r="R58" s="73"/>
-      <c r="S58" s="74"/>
+      <c r="R58" s="85"/>
+      <c r="S58" s="86"/>
       <c r="T58" s="2">
         <v>10.1</v>
       </c>
@@ -2352,15 +3174,15 @@
       </c>
     </row>
     <row r="59" spans="13:22">
-      <c r="M59" s="72"/>
+      <c r="M59" s="84"/>
       <c r="N59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
-      <c r="R59" s="75"/>
-      <c r="S59" s="76"/>
+      <c r="R59" s="87"/>
+      <c r="S59" s="88"/>
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
@@ -2432,8 +3254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D0097C-6E56-442D-B4E2-B0B31B73614F}">
   <dimension ref="B2:M83"/>
   <sheetViews>
-    <sheetView topLeftCell="B69" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="B72" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2462,204 +3284,204 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="79"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="106"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="118"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="102"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="79"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="106"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="118"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="103"/>
+      <c r="J6" s="115"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="79"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="106"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="118"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="103"/>
+      <c r="J7" s="115"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="79"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="106"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="118"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="104"/>
+      <c r="J8" s="116"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="79"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="2"/>
       <c r="D9" s="14"/>
       <c r="E9" s="2"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="106"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="118"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="102"/>
+      <c r="J9" s="114"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="72"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="2"/>
       <c r="D10" s="14"/>
       <c r="E10" s="2"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="106"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="118"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="103"/>
+      <c r="J10" s="115"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="72"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="2"/>
       <c r="D11" s="14"/>
       <c r="E11" s="2"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="106"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="118"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="103"/>
+      <c r="J11" s="115"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="72"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="2"/>
       <c r="D12" s="14"/>
       <c r="E12" s="2"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="106"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="118"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="104"/>
+      <c r="J12" s="116"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="79"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="102"/>
+      <c r="J13" s="114"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="72"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="103"/>
+      <c r="J14" s="115"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="72"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="106"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="118"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="103"/>
+      <c r="J15" s="115"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="72"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="106"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="118"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="104"/>
+      <c r="J16" s="116"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="79"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="106"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="108"/>
+      <c r="J17" s="120"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="72"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="106"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="103"/>
+      <c r="J18" s="115"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="72"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="106"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="103"/>
+      <c r="J19" s="115"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="72"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="106"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="104"/>
+      <c r="J20" s="116"/>
     </row>
     <row r="21" spans="2:11" ht="15" thickBot="1">
       <c r="B21" s="43"/>
@@ -2673,35 +3495,35 @@
       <c r="J21" s="47"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="92" t="s">
+      <c r="E22" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92" t="s">
+      <c r="F22" s="104"/>
+      <c r="G22" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92" t="s">
+      <c r="H22" s="104"/>
+      <c r="I22" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="93"/>
-      <c r="K22" s="120" t="s">
+      <c r="J22" s="105"/>
+      <c r="K22" s="132" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="15" thickBot="1">
-      <c r="B23" s="95"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="116"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="128"/>
       <c r="E23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2720,13 +3542,13 @@
       <c r="J23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K23" s="121"/>
+      <c r="K23" s="133"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="97">
+      <c r="C24" s="109">
         <v>2</v>
       </c>
       <c r="D24" s="26" t="s">
@@ -2738,13 +3560,13 @@
       <c r="H24" s="35"/>
       <c r="I24" s="51"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="117" t="s">
+      <c r="K24" s="129" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="99"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2754,11 +3576,11 @@
       <c r="H25" s="36"/>
       <c r="I25" s="16"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="118"/>
+      <c r="K25" s="130"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="99"/>
-      <c r="C26" s="72"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="2" t="s">
         <v>36</v>
       </c>
@@ -2768,11 +3590,11 @@
       <c r="H26" s="36"/>
       <c r="I26" s="16"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="118"/>
+      <c r="K26" s="130"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="99"/>
-      <c r="C27" s="72">
+      <c r="B27" s="111"/>
+      <c r="C27" s="84">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2784,11 +3606,11 @@
       <c r="H27" s="36"/>
       <c r="I27" s="51"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="118"/>
+      <c r="K27" s="130"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="99"/>
-      <c r="C28" s="72"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="84"/>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
@@ -2798,11 +3620,11 @@
       <c r="H28" s="37"/>
       <c r="I28" s="16"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="118"/>
+      <c r="K28" s="130"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="99"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="2" t="s">
         <v>36</v>
       </c>
@@ -2812,11 +3634,11 @@
       <c r="H29" s="37"/>
       <c r="I29" s="16"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="118"/>
+      <c r="K29" s="130"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="99"/>
-      <c r="C30" s="72">
+      <c r="B30" s="111"/>
+      <c r="C30" s="84">
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2828,11 +3650,11 @@
       <c r="H30" s="37"/>
       <c r="I30" s="51"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="118"/>
+      <c r="K30" s="130"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="99"/>
-      <c r="C31" s="72"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
@@ -2842,11 +3664,11 @@
       <c r="H31" s="38"/>
       <c r="I31" s="16"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="118"/>
+      <c r="K31" s="130"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="99"/>
-      <c r="C32" s="72"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="84"/>
       <c r="D32" s="2" t="s">
         <v>36</v>
       </c>
@@ -2856,11 +3678,11 @@
       <c r="H32" s="37"/>
       <c r="I32" s="16"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="118"/>
+      <c r="K32" s="130"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="99"/>
-      <c r="C33" s="72">
+      <c r="B33" s="111"/>
+      <c r="C33" s="84">
         <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -2872,11 +3694,11 @@
       <c r="H33" s="37"/>
       <c r="I33" s="51"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="118"/>
+      <c r="K33" s="130"/>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="99"/>
-      <c r="C34" s="72"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="84"/>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
@@ -2886,11 +3708,11 @@
       <c r="H34" s="37"/>
       <c r="I34" s="16"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="118"/>
+      <c r="K34" s="130"/>
     </row>
     <row r="35" spans="2:13" ht="15" thickBot="1">
-      <c r="B35" s="100"/>
-      <c r="C35" s="114"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="126"/>
       <c r="D35" s="25" t="s">
         <v>36</v>
       </c>
@@ -2900,7 +3722,7 @@
       <c r="H35" s="39"/>
       <c r="I35" s="54"/>
       <c r="J35" s="25"/>
-      <c r="K35" s="119"/>
+      <c r="K35" s="131"/>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="14"/>
@@ -2913,35 +3735,35 @@
       <c r="J37" s="51"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="94" t="s">
+      <c r="B38" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="96" t="s">
+      <c r="C38" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="96" t="s">
+      <c r="D38" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="92" t="s">
+      <c r="E38" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92" t="s">
+      <c r="F38" s="104"/>
+      <c r="G38" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92" t="s">
+      <c r="H38" s="104"/>
+      <c r="I38" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="92"/>
-      <c r="K38" s="120" t="s">
+      <c r="J38" s="104"/>
+      <c r="K38" s="132" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="15" thickBot="1">
-      <c r="B39" s="95"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
       <c r="E39" s="59" t="s">
         <v>20</v>
       </c>
@@ -2960,16 +3782,16 @@
       <c r="J39" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="K39" s="121"/>
+      <c r="K39" s="133"/>
       <c r="M39" s="70" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B40" s="112" t="s">
+      <c r="B40" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="109">
+      <c r="C40" s="121">
         <v>2</v>
       </c>
       <c r="D40" s="26" t="s">
@@ -2994,7 +3816,7 @@
       <c r="J40" s="64">
         <v>82.21</v>
       </c>
-      <c r="K40" s="123" t="s">
+      <c r="K40" s="135" t="s">
         <v>45</v>
       </c>
       <c r="M40" s="71">
@@ -3003,8 +3825,8 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="112"/>
-      <c r="C41" s="110"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="122"/>
       <c r="D41" s="2" t="s">
         <v>6</v>
       </c>
@@ -3027,15 +3849,15 @@
       <c r="J41" s="65">
         <v>82.21</v>
       </c>
-      <c r="K41" s="124"/>
+      <c r="K41" s="136"/>
       <c r="M41" s="71">
         <f t="shared" ref="M41:M51" si="0">(F41-H41)/F41</f>
         <v>0.53199010250972079</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="15" thickBot="1">
-      <c r="B42" s="112"/>
-      <c r="C42" s="111"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="123"/>
       <c r="D42" s="25" t="s">
         <v>36</v>
       </c>
@@ -3058,15 +3880,15 @@
       <c r="J42" s="67">
         <v>82.21</v>
       </c>
-      <c r="K42" s="124"/>
+      <c r="K42" s="136"/>
       <c r="M42" s="71">
         <f t="shared" si="0"/>
         <v>0.6037637155505966</v>
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="112"/>
-      <c r="C43" s="109">
+      <c r="B43" s="124"/>
+      <c r="C43" s="121">
         <v>3</v>
       </c>
       <c r="D43" s="26" t="s">
@@ -3091,15 +3913,15 @@
       <c r="J43" s="64">
         <v>82.21</v>
       </c>
-      <c r="K43" s="124"/>
+      <c r="K43" s="136"/>
       <c r="M43" s="71">
         <f t="shared" si="0"/>
         <v>0.1265185912381889</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B44" s="112"/>
-      <c r="C44" s="110"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="122"/>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
@@ -3122,7 +3944,7 @@
       <c r="J44" s="65">
         <v>82.21</v>
       </c>
-      <c r="K44" s="124"/>
+      <c r="K44" s="136"/>
       <c r="L44" s="42"/>
       <c r="M44" s="71">
         <f t="shared" si="0"/>
@@ -3130,8 +3952,8 @@
       </c>
     </row>
     <row r="45" spans="2:13" ht="15" thickBot="1">
-      <c r="B45" s="112"/>
-      <c r="C45" s="111"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="123"/>
       <c r="D45" s="25" t="s">
         <v>36</v>
       </c>
@@ -3154,15 +3976,15 @@
       <c r="J45" s="67">
         <v>82.21</v>
       </c>
-      <c r="K45" s="124"/>
+      <c r="K45" s="136"/>
       <c r="M45" s="71">
         <f t="shared" si="0"/>
         <v>0.59502052225695379</v>
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="112"/>
-      <c r="C46" s="109">
+      <c r="B46" s="124"/>
+      <c r="C46" s="121">
         <v>4</v>
       </c>
       <c r="D46" s="26" t="s">
@@ -3187,15 +4009,15 @@
       <c r="J46" s="64">
         <v>82.21</v>
       </c>
-      <c r="K46" s="124"/>
+      <c r="K46" s="136"/>
       <c r="M46" s="71">
         <f t="shared" si="0"/>
         <v>0.23926159371808878</v>
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="112"/>
-      <c r="C47" s="110"/>
+      <c r="B47" s="124"/>
+      <c r="C47" s="122"/>
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
@@ -3218,15 +4040,15 @@
       <c r="J47" s="65">
         <v>82.21</v>
       </c>
-      <c r="K47" s="124"/>
+      <c r="K47" s="136"/>
       <c r="M47" s="71">
         <f t="shared" si="0"/>
         <v>0.38800605372682556</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B48" s="112"/>
-      <c r="C48" s="111"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="123"/>
       <c r="D48" s="25" t="s">
         <v>36</v>
       </c>
@@ -3249,15 +4071,15 @@
       <c r="J48" s="67">
         <v>82.21</v>
       </c>
-      <c r="K48" s="124"/>
+      <c r="K48" s="136"/>
       <c r="M48" s="71">
         <f t="shared" si="0"/>
         <v>0.40728855721393037</v>
       </c>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="112"/>
-      <c r="C49" s="109">
+      <c r="B49" s="124"/>
+      <c r="C49" s="121">
         <v>5</v>
       </c>
       <c r="D49" s="26" t="s">
@@ -3282,15 +4104,15 @@
       <c r="J49" s="64">
         <v>82.21</v>
       </c>
-      <c r="K49" s="124"/>
+      <c r="K49" s="136"/>
       <c r="M49" s="71">
         <f t="shared" si="0"/>
         <v>0.40854105571847504</v>
       </c>
     </row>
     <row r="50" spans="2:13">
-      <c r="B50" s="112"/>
-      <c r="C50" s="110"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="122"/>
       <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
@@ -3313,15 +4135,15 @@
       <c r="J50" s="65">
         <v>82.21</v>
       </c>
-      <c r="K50" s="124"/>
+      <c r="K50" s="136"/>
       <c r="M50" s="71">
         <f t="shared" si="0"/>
         <v>0.40438056125941135</v>
       </c>
     </row>
     <row r="51" spans="2:13" ht="15" thickBot="1">
-      <c r="B51" s="113"/>
-      <c r="C51" s="111"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="123"/>
       <c r="D51" s="25" t="s">
         <v>36</v>
       </c>
@@ -3344,7 +4166,7 @@
       <c r="J51" s="67">
         <v>82.21</v>
       </c>
-      <c r="K51" s="125"/>
+      <c r="K51" s="137"/>
       <c r="M51" s="71">
         <f t="shared" si="0"/>
         <v>0.32786540483701365</v>
@@ -3355,35 +4177,35 @@
       <c r="J52" s="51"/>
     </row>
     <row r="53" spans="2:13">
-      <c r="B53" s="94" t="s">
+      <c r="B53" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="96" t="s">
+      <c r="C53" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="115" t="s">
+      <c r="D53" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="92" t="s">
+      <c r="E53" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92" t="s">
+      <c r="F53" s="104"/>
+      <c r="G53" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92" t="s">
+      <c r="H53" s="104"/>
+      <c r="I53" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="J53" s="93"/>
-      <c r="K53" s="120" t="s">
+      <c r="J53" s="105"/>
+      <c r="K53" s="132" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="15" thickBot="1">
-      <c r="B54" s="95"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="116"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="128"/>
       <c r="E54" s="1" t="s">
         <v>20</v>
       </c>
@@ -3402,13 +4224,13 @@
       <c r="J54" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K54" s="121"/>
+      <c r="K54" s="133"/>
     </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="98" t="s">
+      <c r="B55" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="97">
+      <c r="C55" s="109">
         <v>2</v>
       </c>
       <c r="D55" s="26" t="s">
@@ -3420,13 +4242,13 @@
       <c r="H55" s="40"/>
       <c r="I55" s="57"/>
       <c r="J55" s="58"/>
-      <c r="K55" s="117" t="s">
+      <c r="K55" s="129" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:13">
-      <c r="B56" s="99"/>
-      <c r="C56" s="72"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="84"/>
       <c r="D56" s="2" t="s">
         <v>6</v>
       </c>
@@ -3436,11 +4258,11 @@
       <c r="H56" s="37"/>
       <c r="I56" s="55"/>
       <c r="J56" s="52"/>
-      <c r="K56" s="118"/>
+      <c r="K56" s="130"/>
     </row>
     <row r="57" spans="2:13">
-      <c r="B57" s="99"/>
-      <c r="C57" s="72"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="84"/>
       <c r="D57" s="2" t="s">
         <v>36</v>
       </c>
@@ -3450,11 +4272,11 @@
       <c r="H57" s="37"/>
       <c r="I57" s="55"/>
       <c r="J57" s="52"/>
-      <c r="K57" s="118"/>
+      <c r="K57" s="130"/>
     </row>
     <row r="58" spans="2:13">
-      <c r="B58" s="99"/>
-      <c r="C58" s="72">
+      <c r="B58" s="111"/>
+      <c r="C58" s="84">
         <v>3</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -3466,11 +4288,11 @@
       <c r="H58" s="37"/>
       <c r="I58" s="55"/>
       <c r="J58" s="52"/>
-      <c r="K58" s="118"/>
+      <c r="K58" s="130"/>
     </row>
     <row r="59" spans="2:13">
-      <c r="B59" s="99"/>
-      <c r="C59" s="72"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="84"/>
       <c r="D59" s="2" t="s">
         <v>6</v>
       </c>
@@ -3480,11 +4302,11 @@
       <c r="H59" s="37"/>
       <c r="I59" s="55"/>
       <c r="J59" s="52"/>
-      <c r="K59" s="118"/>
+      <c r="K59" s="130"/>
     </row>
     <row r="60" spans="2:13">
-      <c r="B60" s="99"/>
-      <c r="C60" s="72"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="84"/>
       <c r="D60" s="2" t="s">
         <v>36</v>
       </c>
@@ -3494,11 +4316,11 @@
       <c r="H60" s="37"/>
       <c r="I60" s="55"/>
       <c r="J60" s="52"/>
-      <c r="K60" s="118"/>
+      <c r="K60" s="130"/>
     </row>
     <row r="61" spans="2:13">
-      <c r="B61" s="99"/>
-      <c r="C61" s="72">
+      <c r="B61" s="111"/>
+      <c r="C61" s="84">
         <v>4</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -3510,11 +4332,11 @@
       <c r="H61" s="37"/>
       <c r="I61" s="55"/>
       <c r="J61" s="52"/>
-      <c r="K61" s="118"/>
+      <c r="K61" s="130"/>
     </row>
     <row r="62" spans="2:13">
-      <c r="B62" s="99"/>
-      <c r="C62" s="72"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="84"/>
       <c r="D62" s="2" t="s">
         <v>6</v>
       </c>
@@ -3524,11 +4346,11 @@
       <c r="H62" s="37"/>
       <c r="I62" s="55"/>
       <c r="J62" s="52"/>
-      <c r="K62" s="118"/>
+      <c r="K62" s="130"/>
     </row>
     <row r="63" spans="2:13">
-      <c r="B63" s="99"/>
-      <c r="C63" s="72"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="84"/>
       <c r="D63" s="2" t="s">
         <v>36</v>
       </c>
@@ -3538,11 +4360,11 @@
       <c r="H63" s="37"/>
       <c r="I63" s="55"/>
       <c r="J63" s="52"/>
-      <c r="K63" s="118"/>
+      <c r="K63" s="130"/>
     </row>
     <row r="64" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B64" s="99"/>
-      <c r="C64" s="72">
+      <c r="B64" s="111"/>
+      <c r="C64" s="84">
         <v>5</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -3554,11 +4376,11 @@
       <c r="H64" s="37"/>
       <c r="I64" s="55"/>
       <c r="J64" s="52"/>
-      <c r="K64" s="118"/>
+      <c r="K64" s="130"/>
     </row>
     <row r="65" spans="2:13">
-      <c r="B65" s="99"/>
-      <c r="C65" s="72"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="84"/>
       <c r="D65" s="2" t="s">
         <v>6</v>
       </c>
@@ -3568,11 +4390,11 @@
       <c r="H65" s="37"/>
       <c r="I65" s="55"/>
       <c r="J65" s="52"/>
-      <c r="K65" s="118"/>
+      <c r="K65" s="130"/>
     </row>
     <row r="66" spans="2:13" ht="15" thickBot="1">
-      <c r="B66" s="100"/>
-      <c r="C66" s="114"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="126"/>
       <c r="D66" s="25" t="s">
         <v>36</v>
       </c>
@@ -3582,7 +4404,7 @@
       <c r="H66" s="39"/>
       <c r="I66" s="56"/>
       <c r="J66" s="53"/>
-      <c r="K66" s="119"/>
+      <c r="K66" s="131"/>
     </row>
     <row r="67" spans="2:13">
       <c r="I67" s="51"/>
@@ -3597,35 +4419,35 @@
       <c r="J69" s="51"/>
     </row>
     <row r="70" spans="2:13">
-      <c r="B70" s="94" t="s">
+      <c r="B70" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="96" t="s">
+      <c r="C70" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="115" t="s">
+      <c r="D70" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="90" t="s">
+      <c r="E70" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F70" s="91"/>
-      <c r="G70" s="90" t="s">
+      <c r="F70" s="103"/>
+      <c r="G70" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="H70" s="91"/>
-      <c r="I70" s="92" t="s">
+      <c r="H70" s="103"/>
+      <c r="I70" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="93"/>
-      <c r="K70" s="120" t="s">
+      <c r="J70" s="105"/>
+      <c r="K70" s="132" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="71" spans="2:13" ht="15" thickBot="1">
-      <c r="B71" s="95"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="116"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="128"/>
       <c r="E71" s="1" t="s">
         <v>20</v>
       </c>
@@ -3644,16 +4466,16 @@
       <c r="J71" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K71" s="121"/>
+      <c r="K71" s="133"/>
       <c r="M71" s="70" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B72" s="98" t="s">
+      <c r="B72" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="C72" s="97">
+      <c r="C72" s="109">
         <v>2</v>
       </c>
       <c r="D72" s="26" t="s">
@@ -3678,7 +4500,7 @@
       <c r="J72" s="2">
         <v>50.8</v>
       </c>
-      <c r="K72" s="122" t="s">
+      <c r="K72" s="134" t="s">
         <v>46</v>
       </c>
       <c r="M72" s="71">
@@ -3687,8 +4509,8 @@
       </c>
     </row>
     <row r="73" spans="2:13">
-      <c r="B73" s="99"/>
-      <c r="C73" s="72"/>
+      <c r="B73" s="111"/>
+      <c r="C73" s="84"/>
       <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
@@ -3698,12 +4520,12 @@
       <c r="H73" s="33"/>
       <c r="I73" s="16"/>
       <c r="J73" s="2"/>
-      <c r="K73" s="118"/>
+      <c r="K73" s="130"/>
       <c r="M73" s="71"/>
     </row>
     <row r="74" spans="2:13">
-      <c r="B74" s="99"/>
-      <c r="C74" s="72"/>
+      <c r="B74" s="111"/>
+      <c r="C74" s="84"/>
       <c r="D74" s="2" t="s">
         <v>36</v>
       </c>
@@ -3713,12 +4535,12 @@
       <c r="H74" s="33"/>
       <c r="I74" s="16"/>
       <c r="J74" s="2"/>
-      <c r="K74" s="118"/>
+      <c r="K74" s="130"/>
       <c r="M74" s="71"/>
     </row>
     <row r="75" spans="2:13">
-      <c r="B75" s="99"/>
-      <c r="C75" s="72">
+      <c r="B75" s="111"/>
+      <c r="C75" s="84">
         <v>3</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -3743,15 +4565,15 @@
       <c r="J75" s="2">
         <v>50.8</v>
       </c>
-      <c r="K75" s="118"/>
+      <c r="K75" s="130"/>
       <c r="M75" s="71">
         <f t="shared" ref="M75:M81" si="1">(F75-H75)/F75</f>
         <v>0.74622376394133672</v>
       </c>
     </row>
     <row r="76" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B76" s="99"/>
-      <c r="C76" s="72"/>
+      <c r="B76" s="111"/>
+      <c r="C76" s="84"/>
       <c r="D76" s="2" t="s">
         <v>6</v>
       </c>
@@ -3761,12 +4583,12 @@
       <c r="H76" s="33"/>
       <c r="I76" s="16"/>
       <c r="J76" s="2"/>
-      <c r="K76" s="118"/>
+      <c r="K76" s="130"/>
       <c r="M76" s="71"/>
     </row>
     <row r="77" spans="2:13">
-      <c r="B77" s="99"/>
-      <c r="C77" s="72"/>
+      <c r="B77" s="111"/>
+      <c r="C77" s="84"/>
       <c r="D77" s="2" t="s">
         <v>36</v>
       </c>
@@ -3776,12 +4598,12 @@
       <c r="H77" s="33"/>
       <c r="I77" s="16"/>
       <c r="J77" s="2"/>
-      <c r="K77" s="118"/>
+      <c r="K77" s="130"/>
       <c r="M77" s="71"/>
     </row>
     <row r="78" spans="2:13">
-      <c r="B78" s="99"/>
-      <c r="C78" s="72">
+      <c r="B78" s="111"/>
+      <c r="C78" s="84">
         <v>4</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -3806,15 +4628,15 @@
       <c r="J78" s="2">
         <v>50.8</v>
       </c>
-      <c r="K78" s="118"/>
+      <c r="K78" s="130"/>
       <c r="M78" s="71">
         <f t="shared" si="1"/>
         <v>0.68791914251323105</v>
       </c>
     </row>
     <row r="79" spans="2:13">
-      <c r="B79" s="99"/>
-      <c r="C79" s="72"/>
+      <c r="B79" s="111"/>
+      <c r="C79" s="84"/>
       <c r="D79" s="2" t="s">
         <v>6</v>
       </c>
@@ -3824,12 +4646,12 @@
       <c r="H79" s="33"/>
       <c r="I79" s="16"/>
       <c r="J79" s="2"/>
-      <c r="K79" s="118"/>
+      <c r="K79" s="130"/>
       <c r="M79" s="71"/>
     </row>
     <row r="80" spans="2:13">
-      <c r="B80" s="99"/>
-      <c r="C80" s="72"/>
+      <c r="B80" s="111"/>
+      <c r="C80" s="84"/>
       <c r="D80" s="2" t="s">
         <v>36</v>
       </c>
@@ -3839,12 +4661,12 @@
       <c r="H80" s="33"/>
       <c r="I80" s="16"/>
       <c r="J80" s="2"/>
-      <c r="K80" s="118"/>
+      <c r="K80" s="130"/>
       <c r="M80" s="71"/>
     </row>
     <row r="81" spans="2:13">
-      <c r="B81" s="99"/>
-      <c r="C81" s="72">
+      <c r="B81" s="111"/>
+      <c r="C81" s="84">
         <v>5</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -3869,15 +4691,15 @@
       <c r="J81" s="2">
         <v>50.8</v>
       </c>
-      <c r="K81" s="118"/>
+      <c r="K81" s="130"/>
       <c r="M81" s="71">
         <f t="shared" si="1"/>
         <v>0.67438416422287395</v>
       </c>
     </row>
     <row r="82" spans="2:13">
-      <c r="B82" s="99"/>
-      <c r="C82" s="72"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="84"/>
       <c r="D82" s="2" t="s">
         <v>6</v>
       </c>
@@ -3887,12 +4709,12 @@
       <c r="H82" s="33"/>
       <c r="I82" s="16"/>
       <c r="J82" s="2"/>
-      <c r="K82" s="118"/>
+      <c r="K82" s="130"/>
       <c r="M82" s="71"/>
     </row>
     <row r="83" spans="2:13" ht="15" thickBot="1">
-      <c r="B83" s="100"/>
-      <c r="C83" s="114"/>
+      <c r="B83" s="112"/>
+      <c r="C83" s="126"/>
       <c r="D83" s="25" t="s">
         <v>36</v>
       </c>
@@ -3902,7 +4724,7 @@
       <c r="H83" s="34"/>
       <c r="I83" s="54"/>
       <c r="J83" s="25"/>
-      <c r="K83" s="119"/>
+      <c r="K83" s="131"/>
       <c r="M83" s="71"/>
     </row>
   </sheetData>
@@ -4054,10 +4876,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0395F63A-6BCF-4282-87EC-FB7E8E535592}">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4069,35 +4891,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="E1" s="104"/>
+      <c r="F1" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92" t="s">
+      <c r="G1" s="104"/>
+      <c r="H1" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="120" t="s">
+      <c r="I1" s="105"/>
+      <c r="J1" s="132" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="116"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
@@ -4116,13 +4938,13 @@
       <c r="I2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="121"/>
+      <c r="J2" s="133"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="97">
+      <c r="B3" s="109">
         <v>2</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -4134,13 +4956,13 @@
       <c r="G3" s="35"/>
       <c r="H3" s="51"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="117" t="s">
+      <c r="J3" s="129" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="99"/>
-      <c r="B4" s="72"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -4150,11 +4972,11 @@
       <c r="G4" s="36"/>
       <c r="H4" s="16"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="118"/>
+      <c r="J4" s="130"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="99"/>
-      <c r="B5" s="72"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
@@ -4164,11 +4986,11 @@
       <c r="G5" s="36"/>
       <c r="H5" s="16"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="118"/>
+      <c r="J5" s="130"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="99"/>
-      <c r="B6" s="72">
+      <c r="A6" s="111"/>
+      <c r="B6" s="84">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -4180,11 +5002,11 @@
       <c r="G6" s="36"/>
       <c r="H6" s="51"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="118"/>
+      <c r="J6" s="130"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="99"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -4194,11 +5016,11 @@
       <c r="G7" s="37"/>
       <c r="H7" s="16"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="118"/>
+      <c r="J7" s="130"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="99"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
@@ -4208,11 +5030,11 @@
       <c r="G8" s="37"/>
       <c r="H8" s="16"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="118"/>
+      <c r="J8" s="130"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="99"/>
-      <c r="B9" s="72">
+      <c r="A9" s="111"/>
+      <c r="B9" s="84">
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -4224,11 +5046,11 @@
       <c r="G9" s="37"/>
       <c r="H9" s="51"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="118"/>
+      <c r="J9" s="130"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="99"/>
-      <c r="B10" s="72"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -4238,11 +5060,11 @@
       <c r="G10" s="38"/>
       <c r="H10" s="16"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="118"/>
+      <c r="J10" s="130"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="99"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
@@ -4252,11 +5074,11 @@
       <c r="G11" s="37"/>
       <c r="H11" s="16"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="118"/>
+      <c r="J11" s="130"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="99"/>
-      <c r="B12" s="72">
+      <c r="A12" s="111"/>
+      <c r="B12" s="84">
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -4268,11 +5090,11 @@
       <c r="G12" s="37"/>
       <c r="H12" s="51"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="118"/>
+      <c r="J12" s="130"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="99"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -4282,11 +5104,11 @@
       <c r="G13" s="37"/>
       <c r="H13" s="16"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="118"/>
+      <c r="J13" s="130"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1">
-      <c r="A14" s="100"/>
-      <c r="B14" s="114"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="25" t="s">
         <v>36</v>
       </c>
@@ -4296,7 +5118,7 @@
       <c r="G14" s="39"/>
       <c r="H14" s="54"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="119"/>
+      <c r="J14" s="131"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="14"/>
@@ -4309,35 +5131,35 @@
       <c r="I16" s="51"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92" t="s">
+      <c r="E17" s="104"/>
+      <c r="F17" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92" t="s">
+      <c r="G17" s="104"/>
+      <c r="H17" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="92"/>
-      <c r="J17" s="120" t="s">
+      <c r="I17" s="104"/>
+      <c r="J17" s="132" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1">
-      <c r="A18" s="95"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="59" t="s">
         <v>20</v>
       </c>
@@ -4356,16 +5178,16 @@
       <c r="I18" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="121"/>
+      <c r="J18" s="133"/>
       <c r="L18" s="70" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="109">
+      <c r="B19" s="121">
         <v>2</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -4390,7 +5212,7 @@
       <c r="I19" s="64">
         <v>82.21</v>
       </c>
-      <c r="J19" s="123" t="s">
+      <c r="J19" s="135" t="s">
         <v>45</v>
       </c>
       <c r="L19" s="71">
@@ -4399,8 +5221,8 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="112"/>
-      <c r="B20" s="110"/>
+      <c r="A20" s="124"/>
+      <c r="B20" s="122"/>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
@@ -4419,15 +5241,15 @@
       <c r="I20" s="65">
         <v>82.21</v>
       </c>
-      <c r="J20" s="124"/>
+      <c r="J20" s="136"/>
       <c r="L20" s="71">
         <f t="shared" ref="L20:L30" si="0">(E20-G20)/E20</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1">
-      <c r="A21" s="112"/>
-      <c r="B21" s="111"/>
+      <c r="A21" s="124"/>
+      <c r="B21" s="123"/>
       <c r="C21" s="25" t="s">
         <v>36</v>
       </c>
@@ -4446,15 +5268,15 @@
       <c r="I21" s="67">
         <v>82.21</v>
       </c>
-      <c r="J21" s="124"/>
+      <c r="J21" s="136"/>
       <c r="L21" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="112"/>
-      <c r="B22" s="109">
+      <c r="A22" s="124"/>
+      <c r="B22" s="121">
         <v>3</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -4479,15 +5301,15 @@
       <c r="I22" s="64">
         <v>82.21</v>
       </c>
-      <c r="J22" s="124"/>
+      <c r="J22" s="136"/>
       <c r="L22" s="71">
         <f t="shared" si="0"/>
         <v>-0.87341949985951117</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="112"/>
-      <c r="B23" s="110"/>
+      <c r="A23" s="124"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
@@ -4506,7 +5328,7 @@
       <c r="I23" s="65">
         <v>82.21</v>
       </c>
-      <c r="J23" s="124"/>
+      <c r="J23" s="136"/>
       <c r="K23" s="42"/>
       <c r="L23" s="71">
         <f t="shared" si="0"/>
@@ -4514,8 +5336,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1">
-      <c r="A24" s="112"/>
-      <c r="B24" s="111"/>
+      <c r="A24" s="124"/>
+      <c r="B24" s="123"/>
       <c r="C24" s="25" t="s">
         <v>36</v>
       </c>
@@ -4534,15 +5356,15 @@
       <c r="I24" s="67">
         <v>82.21</v>
       </c>
-      <c r="J24" s="124"/>
+      <c r="J24" s="136"/>
       <c r="L24" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="112"/>
-      <c r="B25" s="109">
+      <c r="A25" s="124"/>
+      <c r="B25" s="121">
         <v>4</v>
       </c>
       <c r="C25" s="26" t="s">
@@ -4567,15 +5389,15 @@
       <c r="I25" s="64">
         <v>82.21</v>
       </c>
-      <c r="J25" s="124"/>
+      <c r="J25" s="136"/>
       <c r="L25" s="71">
         <f t="shared" si="0"/>
         <v>-0.69828010373903993</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="112"/>
-      <c r="B26" s="110"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
@@ -4594,15 +5416,15 @@
       <c r="I26" s="65">
         <v>82.21</v>
       </c>
-      <c r="J26" s="124"/>
+      <c r="J26" s="136"/>
       <c r="L26" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" thickBot="1">
-      <c r="A27" s="112"/>
-      <c r="B27" s="111"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="123"/>
       <c r="C27" s="25" t="s">
         <v>36</v>
       </c>
@@ -4621,15 +5443,15 @@
       <c r="I27" s="67">
         <v>82.21</v>
       </c>
-      <c r="J27" s="124"/>
+      <c r="J27" s="136"/>
       <c r="L27" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="112"/>
-      <c r="B28" s="109">
+      <c r="A28" s="124"/>
+      <c r="B28" s="121">
         <v>5</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -4654,15 +5476,15 @@
       <c r="I28" s="64">
         <v>82.21</v>
       </c>
-      <c r="J28" s="124"/>
+      <c r="J28" s="136"/>
       <c r="L28" s="71">
         <f t="shared" si="0"/>
         <v>-4.0594979857452744E-2</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="112"/>
-      <c r="B29" s="110"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="2" t="s">
         <v>6</v>
       </c>
@@ -4681,15 +5503,15 @@
       <c r="I29" s="65">
         <v>82.21</v>
       </c>
-      <c r="J29" s="124"/>
+      <c r="J29" s="136"/>
       <c r="L29" s="71">
         <f>(E29-G29)/E29</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" thickBot="1">
-      <c r="A30" s="113"/>
-      <c r="B30" s="111"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="123"/>
       <c r="C30" s="25" t="s">
         <v>36</v>
       </c>
@@ -4708,7 +5530,7 @@
       <c r="I30" s="67">
         <v>82.21</v>
       </c>
-      <c r="J30" s="125"/>
+      <c r="J30" s="137"/>
       <c r="L30" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4719,35 +5541,35 @@
       <c r="I31" s="51"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="115" t="s">
+      <c r="C32" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="92" t="s">
+      <c r="D32" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92" t="s">
+      <c r="E32" s="104"/>
+      <c r="F32" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92" t="s">
+      <c r="G32" s="104"/>
+      <c r="H32" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="93"/>
-      <c r="J32" s="120" t="s">
+      <c r="I32" s="105"/>
+      <c r="J32" s="132" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" thickBot="1">
-      <c r="A33" s="95"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="116"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="128"/>
       <c r="D33" s="1" t="s">
         <v>20</v>
       </c>
@@ -4766,13 +5588,13 @@
       <c r="I33" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="121"/>
+      <c r="J33" s="133"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="98" t="s">
+      <c r="A34" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="97">
+      <c r="B34" s="109">
         <v>2</v>
       </c>
       <c r="C34" s="26" t="s">
@@ -4784,13 +5606,13 @@
       <c r="G34" s="40"/>
       <c r="H34" s="57"/>
       <c r="I34" s="58"/>
-      <c r="J34" s="117" t="s">
+      <c r="J34" s="129" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="99"/>
-      <c r="B35" s="72"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
@@ -4800,11 +5622,11 @@
       <c r="G35" s="37"/>
       <c r="H35" s="55"/>
       <c r="I35" s="52"/>
-      <c r="J35" s="118"/>
+      <c r="J35" s="130"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="99"/>
-      <c r="B36" s="72"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="2" t="s">
         <v>36</v>
       </c>
@@ -4814,11 +5636,11 @@
       <c r="G36" s="37"/>
       <c r="H36" s="55"/>
       <c r="I36" s="52"/>
-      <c r="J36" s="118"/>
+      <c r="J36" s="130"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="99"/>
-      <c r="B37" s="72">
+      <c r="A37" s="111"/>
+      <c r="B37" s="84">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -4830,11 +5652,11 @@
       <c r="G37" s="37"/>
       <c r="H37" s="55"/>
       <c r="I37" s="52"/>
-      <c r="J37" s="118"/>
+      <c r="J37" s="130"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="99"/>
-      <c r="B38" s="72"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="2" t="s">
         <v>6</v>
       </c>
@@ -4844,11 +5666,11 @@
       <c r="G38" s="37"/>
       <c r="H38" s="55"/>
       <c r="I38" s="52"/>
-      <c r="J38" s="118"/>
+      <c r="J38" s="130"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="99"/>
-      <c r="B39" s="72"/>
+      <c r="A39" s="111"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="2" t="s">
         <v>36</v>
       </c>
@@ -4858,11 +5680,11 @@
       <c r="G39" s="37"/>
       <c r="H39" s="55"/>
       <c r="I39" s="52"/>
-      <c r="J39" s="118"/>
+      <c r="J39" s="130"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="99"/>
-      <c r="B40" s="72">
+      <c r="A40" s="111"/>
+      <c r="B40" s="84">
         <v>4</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -4874,11 +5696,11 @@
       <c r="G40" s="37"/>
       <c r="H40" s="55"/>
       <c r="I40" s="52"/>
-      <c r="J40" s="118"/>
+      <c r="J40" s="130"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="99"/>
-      <c r="B41" s="72"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="84"/>
       <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
@@ -4888,11 +5710,11 @@
       <c r="G41" s="37"/>
       <c r="H41" s="55"/>
       <c r="I41" s="52"/>
-      <c r="J41" s="118"/>
+      <c r="J41" s="130"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="99"/>
-      <c r="B42" s="72"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="84"/>
       <c r="C42" s="2" t="s">
         <v>36</v>
       </c>
@@ -4902,11 +5724,11 @@
       <c r="G42" s="37"/>
       <c r="H42" s="55"/>
       <c r="I42" s="52"/>
-      <c r="J42" s="118"/>
+      <c r="J42" s="130"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="99"/>
-      <c r="B43" s="72">
+      <c r="A43" s="111"/>
+      <c r="B43" s="84">
         <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -4918,11 +5740,11 @@
       <c r="G43" s="37"/>
       <c r="H43" s="55"/>
       <c r="I43" s="52"/>
-      <c r="J43" s="118"/>
+      <c r="J43" s="130"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="99"/>
-      <c r="B44" s="72"/>
+      <c r="A44" s="111"/>
+      <c r="B44" s="84"/>
       <c r="C44" s="2" t="s">
         <v>6</v>
       </c>
@@ -4932,11 +5754,11 @@
       <c r="G44" s="37"/>
       <c r="H44" s="55"/>
       <c r="I44" s="52"/>
-      <c r="J44" s="118"/>
+      <c r="J44" s="130"/>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1">
-      <c r="A45" s="100"/>
-      <c r="B45" s="114"/>
+      <c r="A45" s="112"/>
+      <c r="B45" s="126"/>
       <c r="C45" s="25" t="s">
         <v>36</v>
       </c>
@@ -4946,7 +5768,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="56"/>
       <c r="I45" s="53"/>
-      <c r="J45" s="119"/>
+      <c r="J45" s="131"/>
     </row>
     <row r="46" spans="1:10">
       <c r="H46" s="51"/>
@@ -4961,35 +5783,35 @@
       <c r="I48" s="51"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="94" t="s">
+      <c r="A49" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="96" t="s">
+      <c r="B49" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="115" t="s">
+      <c r="C49" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="92" t="s">
+      <c r="D49" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92" t="s">
+      <c r="E49" s="104"/>
+      <c r="F49" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92" t="s">
+      <c r="G49" s="104"/>
+      <c r="H49" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="I49" s="93"/>
-      <c r="J49" s="120" t="s">
+      <c r="I49" s="105"/>
+      <c r="J49" s="132" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15" thickBot="1">
-      <c r="A50" s="95"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="116"/>
+      <c r="A50" s="107"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="128"/>
       <c r="D50" s="1" t="s">
         <v>20</v>
       </c>
@@ -5008,16 +5830,16 @@
       <c r="I50" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J50" s="121"/>
+      <c r="J50" s="133"/>
       <c r="L50" s="70" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="98" t="s">
+      <c r="A51" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="97">
+      <c r="B51" s="109">
         <v>2</v>
       </c>
       <c r="C51" s="26" t="s">
@@ -5042,7 +5864,7 @@
       <c r="I51" s="2">
         <v>50.8</v>
       </c>
-      <c r="J51" s="122" t="s">
+      <c r="J51" s="134" t="s">
         <v>46</v>
       </c>
       <c r="L51" s="71">
@@ -5051,8 +5873,8 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="99"/>
-      <c r="B52" s="72"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="84"/>
       <c r="C52" s="2" t="s">
         <v>6</v>
       </c>
@@ -5062,12 +5884,12 @@
       <c r="G52" s="33"/>
       <c r="H52" s="16"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="118"/>
+      <c r="J52" s="130"/>
       <c r="L52" s="71"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="99"/>
-      <c r="B53" s="72"/>
+      <c r="A53" s="111"/>
+      <c r="B53" s="84"/>
       <c r="C53" s="2" t="s">
         <v>36</v>
       </c>
@@ -5077,12 +5899,12 @@
       <c r="G53" s="33"/>
       <c r="H53" s="16"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="118"/>
+      <c r="J53" s="130"/>
       <c r="L53" s="71"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="99"/>
-      <c r="B54" s="72">
+      <c r="A54" s="111"/>
+      <c r="B54" s="84">
         <v>3</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -5107,15 +5929,15 @@
       <c r="I54" s="2">
         <v>50.8</v>
       </c>
-      <c r="J54" s="118"/>
+      <c r="J54" s="130"/>
       <c r="L54" s="71">
         <f t="shared" ref="L54:L60" si="1">(E54-G54)/E54</f>
         <v>0.13141275196816335</v>
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="99"/>
-      <c r="B55" s="72"/>
+      <c r="A55" s="111"/>
+      <c r="B55" s="84"/>
       <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
@@ -5125,12 +5947,12 @@
       <c r="G55" s="33"/>
       <c r="H55" s="16"/>
       <c r="I55" s="2"/>
-      <c r="J55" s="118"/>
+      <c r="J55" s="130"/>
       <c r="L55" s="71"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="99"/>
-      <c r="B56" s="72"/>
+      <c r="A56" s="111"/>
+      <c r="B56" s="84"/>
       <c r="C56" s="2" t="s">
         <v>36</v>
       </c>
@@ -5140,12 +5962,12 @@
       <c r="G56" s="33"/>
       <c r="H56" s="16"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="118"/>
+      <c r="J56" s="130"/>
       <c r="L56" s="71"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="99"/>
-      <c r="B57" s="72">
+      <c r="A57" s="111"/>
+      <c r="B57" s="84">
         <v>4</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -5170,15 +5992,15 @@
       <c r="I57" s="2">
         <v>50.8</v>
       </c>
-      <c r="J57" s="118"/>
+      <c r="J57" s="130"/>
       <c r="L57" s="71">
         <f t="shared" si="1"/>
         <v>1.7754377372351552E-3</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="99"/>
-      <c r="B58" s="72"/>
+      <c r="A58" s="111"/>
+      <c r="B58" s="84"/>
       <c r="C58" s="2" t="s">
         <v>6</v>
       </c>
@@ -5188,12 +6010,12 @@
       <c r="G58" s="33"/>
       <c r="H58" s="16"/>
       <c r="I58" s="2"/>
-      <c r="J58" s="118"/>
+      <c r="J58" s="130"/>
       <c r="L58" s="71"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="99"/>
-      <c r="B59" s="72"/>
+      <c r="A59" s="111"/>
+      <c r="B59" s="84"/>
       <c r="C59" s="2" t="s">
         <v>36</v>
       </c>
@@ -5203,12 +6025,12 @@
       <c r="G59" s="33"/>
       <c r="H59" s="16"/>
       <c r="I59" s="2"/>
-      <c r="J59" s="118"/>
+      <c r="J59" s="130"/>
       <c r="L59" s="71"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="99"/>
-      <c r="B60" s="72">
+      <c r="A60" s="111"/>
+      <c r="B60" s="84">
         <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -5233,15 +6055,15 @@
       <c r="I60" s="2">
         <v>50.8</v>
       </c>
-      <c r="J60" s="118"/>
+      <c r="J60" s="130"/>
       <c r="L60" s="71">
         <f t="shared" si="1"/>
         <v>6.8762102039897258E-2</v>
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="99"/>
-      <c r="B61" s="72"/>
+      <c r="A61" s="111"/>
+      <c r="B61" s="84"/>
       <c r="C61" s="2" t="s">
         <v>6</v>
       </c>
@@ -5251,12 +6073,12 @@
       <c r="G61" s="33"/>
       <c r="H61" s="16"/>
       <c r="I61" s="2"/>
-      <c r="J61" s="118"/>
+      <c r="J61" s="130"/>
       <c r="L61" s="71"/>
     </row>
     <row r="62" spans="1:12" ht="15" thickBot="1">
-      <c r="A62" s="100"/>
-      <c r="B62" s="114"/>
+      <c r="A62" s="112"/>
+      <c r="B62" s="126"/>
       <c r="C62" s="25" t="s">
         <v>36</v>
       </c>
@@ -5266,40 +6088,40 @@
       <c r="G62" s="34"/>
       <c r="H62" s="54"/>
       <c r="I62" s="25"/>
-      <c r="J62" s="119"/>
+      <c r="J62" s="131"/>
       <c r="L62" s="71"/>
     </row>
     <row r="66" spans="1:12" ht="15" thickBot="1"/>
     <row r="67" spans="1:12">
-      <c r="A67" s="94" t="s">
+      <c r="A67" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="96" t="s">
+      <c r="B67" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="C67" s="115" t="s">
+      <c r="C67" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="92" t="s">
+      <c r="D67" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="E67" s="92"/>
-      <c r="F67" s="92" t="s">
+      <c r="E67" s="104"/>
+      <c r="F67" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="G67" s="92"/>
-      <c r="H67" s="92" t="s">
+      <c r="G67" s="104"/>
+      <c r="H67" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="I67" s="93"/>
-      <c r="J67" s="120" t="s">
+      <c r="I67" s="105"/>
+      <c r="J67" s="132" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15" thickBot="1">
-      <c r="A68" s="95"/>
-      <c r="B68" s="80"/>
-      <c r="C68" s="116"/>
+      <c r="A68" s="107"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="128"/>
       <c r="D68" s="1" t="s">
         <v>20</v>
       </c>
@@ -5318,16 +6140,16 @@
       <c r="I68" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J68" s="121"/>
+      <c r="J68" s="133"/>
       <c r="L68" s="70" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="98" t="s">
+      <c r="A69" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="B69" s="97">
+      <c r="B69" s="109">
         <v>2</v>
       </c>
       <c r="C69" s="26" t="s">
@@ -5344,7 +6166,7 @@
       <c r="I69" s="2">
         <v>53.71</v>
       </c>
-      <c r="J69" s="122" t="s">
+      <c r="J69" s="134" t="s">
         <v>45</v>
       </c>
       <c r="L69" s="71" t="e">
@@ -5353,8 +6175,8 @@
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="99"/>
-      <c r="B70" s="72"/>
+      <c r="A70" s="111"/>
+      <c r="B70" s="84"/>
       <c r="C70" s="2" t="s">
         <v>6</v>
       </c>
@@ -5364,12 +6186,12 @@
       <c r="G70" s="33"/>
       <c r="H70" s="16"/>
       <c r="I70" s="2"/>
-      <c r="J70" s="118"/>
+      <c r="J70" s="130"/>
       <c r="L70" s="71"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="99"/>
-      <c r="B71" s="72"/>
+      <c r="A71" s="111"/>
+      <c r="B71" s="84"/>
       <c r="C71" s="2" t="s">
         <v>36</v>
       </c>
@@ -5379,12 +6201,12 @@
       <c r="G71" s="33"/>
       <c r="H71" s="16"/>
       <c r="I71" s="2"/>
-      <c r="J71" s="118"/>
+      <c r="J71" s="130"/>
       <c r="L71" s="71"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="99"/>
-      <c r="B72" s="72">
+      <c r="A72" s="111"/>
+      <c r="B72" s="84">
         <v>3</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -5401,15 +6223,15 @@
       <c r="I72" s="2">
         <v>53.71</v>
       </c>
-      <c r="J72" s="118"/>
+      <c r="J72" s="130"/>
       <c r="L72" s="71" t="e">
         <f t="shared" ref="L72" si="2">(E72-G72)/E72</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="99"/>
-      <c r="B73" s="72"/>
+      <c r="A73" s="111"/>
+      <c r="B73" s="84"/>
       <c r="C73" s="2" t="s">
         <v>6</v>
       </c>
@@ -5419,12 +6241,12 @@
       <c r="G73" s="33"/>
       <c r="H73" s="16"/>
       <c r="I73" s="2"/>
-      <c r="J73" s="118"/>
+      <c r="J73" s="130"/>
       <c r="L73" s="71"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="99"/>
-      <c r="B74" s="72"/>
+      <c r="A74" s="111"/>
+      <c r="B74" s="84"/>
       <c r="C74" s="2" t="s">
         <v>36</v>
       </c>
@@ -5434,12 +6256,12 @@
       <c r="G74" s="33"/>
       <c r="H74" s="16"/>
       <c r="I74" s="2"/>
-      <c r="J74" s="118"/>
+      <c r="J74" s="130"/>
       <c r="L74" s="71"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="99"/>
-      <c r="B75" s="72">
+      <c r="A75" s="111"/>
+      <c r="B75" s="84">
         <v>4</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -5464,15 +6286,15 @@
       <c r="I75" s="2">
         <v>53.71</v>
       </c>
-      <c r="J75" s="118"/>
+      <c r="J75" s="130"/>
       <c r="L75" s="71">
         <f t="shared" ref="L75" si="3">(E75-G75)/E75</f>
         <v>-1.9426773648263824</v>
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="99"/>
-      <c r="B76" s="72"/>
+      <c r="A76" s="111"/>
+      <c r="B76" s="84"/>
       <c r="C76" s="2" t="s">
         <v>6</v>
       </c>
@@ -5482,12 +6304,12 @@
       <c r="G76" s="33"/>
       <c r="H76" s="16"/>
       <c r="I76" s="2"/>
-      <c r="J76" s="118"/>
+      <c r="J76" s="130"/>
       <c r="L76" s="71"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="99"/>
-      <c r="B77" s="72"/>
+      <c r="A77" s="111"/>
+      <c r="B77" s="84"/>
       <c r="C77" s="2" t="s">
         <v>36</v>
       </c>
@@ -5497,12 +6319,12 @@
       <c r="G77" s="33"/>
       <c r="H77" s="16"/>
       <c r="I77" s="2"/>
-      <c r="J77" s="118"/>
+      <c r="J77" s="130"/>
       <c r="L77" s="71"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="99"/>
-      <c r="B78" s="72">
+      <c r="A78" s="111"/>
+      <c r="B78" s="84">
         <v>5</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -5527,15 +6349,15 @@
       <c r="I78" s="2">
         <v>53.71</v>
       </c>
-      <c r="J78" s="118"/>
+      <c r="J78" s="130"/>
       <c r="L78" s="71">
         <f t="shared" ref="L78" si="4">(E78-G78)/E78</f>
         <v>-1.7795911866206529</v>
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="99"/>
-      <c r="B79" s="72"/>
+      <c r="A79" s="111"/>
+      <c r="B79" s="84"/>
       <c r="C79" s="2" t="s">
         <v>6</v>
       </c>
@@ -5545,12 +6367,12 @@
       <c r="G79" s="33"/>
       <c r="H79" s="16"/>
       <c r="I79" s="2"/>
-      <c r="J79" s="118"/>
+      <c r="J79" s="130"/>
       <c r="L79" s="71"/>
     </row>
     <row r="80" spans="1:12" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A80" s="100"/>
-      <c r="B80" s="114"/>
+      <c r="A80" s="112"/>
+      <c r="B80" s="126"/>
       <c r="C80" s="25" t="s">
         <v>36</v>
       </c>
@@ -5560,11 +6382,132 @@
       <c r="G80" s="34"/>
       <c r="H80" s="54"/>
       <c r="I80" s="25"/>
-      <c r="J80" s="119"/>
+      <c r="J80" s="131"/>
       <c r="L80" s="71"/>
     </row>
+    <row r="83" spans="1:10" ht="15" thickBot="1"/>
+    <row r="84" spans="1:10">
+      <c r="A84" s="106"/>
+      <c r="B84" s="108"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="104"/>
+      <c r="E84" s="104"/>
+      <c r="F84" s="104"/>
+      <c r="G84" s="104"/>
+      <c r="H84" s="104"/>
+      <c r="I84" s="105"/>
+      <c r="J84" s="132"/>
+    </row>
+    <row r="85" spans="1:10" ht="15" thickBot="1">
+      <c r="A85" s="107"/>
+      <c r="B85" s="92"/>
+      <c r="C85" s="128"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="133"/>
+    </row>
+    <row r="86" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A86" s="138"/>
+      <c r="B86" s="84"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="141"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="139"/>
+      <c r="B87" s="84"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="142"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="139"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="142"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="139"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="142"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="139"/>
+      <c r="B90" s="84"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="142"/>
+    </row>
+    <row r="91" spans="1:10" ht="15" thickBot="1">
+      <c r="A91" s="140"/>
+      <c r="B91" s="126"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="143"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="72"/>
+      <c r="J92" s="74"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="72"/>
+      <c r="J93" s="74"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="72"/>
+      <c r="J94" s="74"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="72"/>
+      <c r="J95" s="74"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="72"/>
+      <c r="J96" s="74"/>
+    </row>
+    <row r="97" spans="1:10" ht="15" thickBot="1">
+      <c r="A97" s="73"/>
+      <c r="J97" s="75"/>
+    </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="76">
     <mergeCell ref="J49:J50"/>
     <mergeCell ref="A51:A62"/>
     <mergeCell ref="B51:B53"/>
@@ -5630,6 +6573,17 @@
     <mergeCell ref="B72:B74"/>
     <mergeCell ref="B75:B77"/>
     <mergeCell ref="B78:B80"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="J86:J91"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L19:L30">
@@ -5720,53 +6674,61 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881F5FB0-D732-49A9-B3C6-1FF18F52D4DF}">
-  <dimension ref="A3:J18"/>
+  <dimension ref="A3:L98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
     <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1"/>
+    <row r="5" spans="1:10" ht="18">
+      <c r="A5" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="104" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1"/>
-    <row r="5" spans="1:10">
-      <c r="A5" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92" t="s">
+      <c r="E5" s="104"/>
+      <c r="F5" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="92"/>
-      <c r="J5" s="120" t="s">
+      <c r="I5" s="104"/>
+      <c r="J5" s="132" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1">
-      <c r="A6" s="95"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="59" t="s">
         <v>20</v>
       </c>
@@ -5785,13 +6747,13 @@
       <c r="I6" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="121"/>
+      <c r="J6" s="133"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="109">
+      <c r="B7" s="121">
         <v>2</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -5816,13 +6778,13 @@
       <c r="I7" s="64">
         <v>82.21</v>
       </c>
-      <c r="J7" s="123" t="s">
+      <c r="J7" s="135" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="112"/>
-      <c r="B8" s="110"/>
+      <c r="A8" s="124"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -5837,11 +6799,11 @@
       <c r="I8" s="65">
         <v>82.21</v>
       </c>
-      <c r="J8" s="124"/>
+      <c r="J8" s="136"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1">
-      <c r="A9" s="112"/>
-      <c r="B9" s="111"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="25" t="s">
         <v>36</v>
       </c>
@@ -5856,11 +6818,11 @@
       <c r="I9" s="67">
         <v>82.21</v>
       </c>
-      <c r="J9" s="124"/>
+      <c r="J9" s="136"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="112"/>
-      <c r="B10" s="109">
+      <c r="A10" s="124"/>
+      <c r="B10" s="121">
         <v>3</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -5885,11 +6847,11 @@
       <c r="I10" s="64">
         <v>82.21</v>
       </c>
-      <c r="J10" s="124"/>
+      <c r="J10" s="136"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="112"/>
-      <c r="B11" s="110"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
@@ -5904,11 +6866,11 @@
       <c r="I11" s="65">
         <v>82.21</v>
       </c>
-      <c r="J11" s="124"/>
+      <c r="J11" s="136"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1">
-      <c r="A12" s="112"/>
-      <c r="B12" s="111"/>
+      <c r="A12" s="124"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="25" t="s">
         <v>36</v>
       </c>
@@ -5923,11 +6885,11 @@
       <c r="I12" s="67">
         <v>82.21</v>
       </c>
-      <c r="J12" s="124"/>
+      <c r="J12" s="136"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="112"/>
-      <c r="B13" s="109">
+      <c r="A13" s="124"/>
+      <c r="B13" s="121">
         <v>4</v>
       </c>
       <c r="C13" s="26" t="s">
@@ -5943,7 +6905,7 @@
         <v>23.53</v>
       </c>
       <c r="G13" s="49">
-        <v>0.71199999999999997</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="H13" s="63">
         <f>I13/4</f>
@@ -5952,11 +6914,11 @@
       <c r="I13" s="64">
         <v>82.21</v>
       </c>
-      <c r="J13" s="124"/>
+      <c r="J13" s="136"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="112"/>
-      <c r="B14" s="110"/>
+      <c r="A14" s="124"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -5971,11 +6933,11 @@
       <c r="I14" s="65">
         <v>82.21</v>
       </c>
-      <c r="J14" s="124"/>
+      <c r="J14" s="136"/>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
-      <c r="A15" s="112"/>
-      <c r="B15" s="111"/>
+      <c r="A15" s="124"/>
+      <c r="B15" s="123"/>
       <c r="C15" s="25" t="s">
         <v>36</v>
       </c>
@@ -5990,11 +6952,11 @@
       <c r="I15" s="67">
         <v>82.21</v>
       </c>
-      <c r="J15" s="124"/>
+      <c r="J15" s="136"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="112"/>
-      <c r="B16" s="109">
+      <c r="A16" s="124"/>
+      <c r="B16" s="121">
         <v>5</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -6019,11 +6981,11 @@
       <c r="I16" s="64">
         <v>82.21</v>
       </c>
-      <c r="J16" s="124"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="112"/>
-      <c r="B17" s="110"/>
+      <c r="J16" s="136"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="124"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
@@ -6038,11 +7000,11 @@
       <c r="I17" s="65">
         <v>82.21</v>
       </c>
-      <c r="J17" s="124"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
-      <c r="A18" s="113"/>
-      <c r="B18" s="111"/>
+      <c r="J17" s="136"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1">
+      <c r="A18" s="125"/>
+      <c r="B18" s="123"/>
       <c r="C18" s="25" t="s">
         <v>36</v>
       </c>
@@ -6057,10 +7019,1468 @@
       <c r="I18" s="67">
         <v>82.21</v>
       </c>
-      <c r="J18" s="125"/>
+      <c r="J18" s="137"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1"/>
+    <row r="23" spans="1:12" ht="18">
+      <c r="A23" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="104"/>
+      <c r="J23" s="132" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1">
+      <c r="A24" s="107"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="133"/>
+      <c r="L24" s="70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="121">
+        <v>2</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="62">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="E25" s="49">
+        <v>0.19389999999999999</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="49">
+        <v>0.13536000000000001</v>
+      </c>
+      <c r="H25" s="63">
+        <f>I25/2</f>
+        <v>41.104999999999997</v>
+      </c>
+      <c r="I25" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="J25" s="135" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="71">
+        <f>(E25-G25)/E25</f>
+        <v>0.3019082001031459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="124"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="16">
+        <f>I26/2</f>
+        <v>41.104999999999997</v>
+      </c>
+      <c r="I26" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="J26" s="136"/>
+      <c r="L26" s="71"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" thickBot="1">
+      <c r="A27" s="124"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="54">
+        <f>I27/2</f>
+        <v>41.104999999999997</v>
+      </c>
+      <c r="I27" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="J27" s="136"/>
+      <c r="L27" s="71"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="124"/>
+      <c r="B28" s="121">
+        <v>3</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="62">
+        <v>29.77</v>
+      </c>
+      <c r="E28" s="49">
+        <v>0.29189999999999999</v>
+      </c>
+      <c r="F28" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="49">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="H28" s="63">
+        <f>I28/3</f>
+        <v>27.403333333333332</v>
+      </c>
+      <c r="I28" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="J28" s="136"/>
+      <c r="L28" s="71">
+        <f t="shared" ref="L28" si="0">(E28-G28)/E28</f>
+        <v>0.2908530318602261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="124"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="16">
+        <f>I29/3</f>
+        <v>27.403333333333332</v>
+      </c>
+      <c r="I29" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="J29" s="136"/>
+      <c r="L29" s="71"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1">
+      <c r="A30" s="124"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="68"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="54">
+        <f>I30/3</f>
+        <v>27.403333333333332</v>
+      </c>
+      <c r="I30" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="J30" s="136"/>
+      <c r="L30" s="71"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="124"/>
+      <c r="B31" s="121">
+        <v>4</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="62">
+        <v>23.53</v>
+      </c>
+      <c r="E31" s="49">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="49">
+        <v>0.48949999999999999</v>
+      </c>
+      <c r="H31" s="63">
+        <f>I31/4</f>
+        <v>20.552499999999998</v>
+      </c>
+      <c r="I31" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="J31" s="136"/>
+      <c r="L31" s="71">
+        <f t="shared" ref="L31" si="1">(E31-G31)/E31</f>
+        <v>0.20276872964169382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="124"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="H32" s="16">
+        <f>I32/4</f>
+        <v>20.552499999999998</v>
+      </c>
+      <c r="I32" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="J32" s="136"/>
+      <c r="L32" s="71"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" thickBot="1">
+      <c r="A33" s="124"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="68"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="54">
+        <f>I33/4</f>
+        <v>20.552499999999998</v>
+      </c>
+      <c r="I33" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="J33" s="136"/>
+      <c r="L33" s="71"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="124"/>
+      <c r="B34" s="121">
+        <v>5</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="49">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="49">
+        <v>0.69</v>
+      </c>
+      <c r="H34" s="63">
+        <f>I34/5</f>
+        <v>16.442</v>
+      </c>
+      <c r="I34" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="J34" s="136"/>
+      <c r="L34" s="71">
+        <f t="shared" ref="L34" si="2">(E34-G34)/E34</f>
+        <v>0.21088746569075939</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="124"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="16">
+        <f>I35/5</f>
+        <v>16.442</v>
+      </c>
+      <c r="I35" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="J35" s="136"/>
+      <c r="L35" s="71"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" thickBot="1">
+      <c r="A36" s="125"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="54">
+        <f>I36/5</f>
+        <v>16.442</v>
+      </c>
+      <c r="I36" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="J36" s="137"/>
+      <c r="L36" s="71"/>
+    </row>
+    <row r="39" spans="1:12" ht="15" thickBot="1"/>
+    <row r="40" spans="1:12">
+      <c r="A40" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="127" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="105"/>
+      <c r="J40" s="132" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15" thickBot="1">
+      <c r="A41" s="107"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="133"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="138" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="84">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="2">
+        <v>18.91</v>
+      </c>
+      <c r="E42" s="33">
+        <v>21.947700000000001</v>
+      </c>
+      <c r="F42" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G42" s="33">
+        <v>64.584999999999994</v>
+      </c>
+      <c r="H42" s="16">
+        <f>I42/4</f>
+        <v>13.4275</v>
+      </c>
+      <c r="I42" s="2">
+        <v>53.71</v>
+      </c>
+      <c r="J42" s="141" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="139"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="142"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="139"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="142"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="139"/>
+      <c r="B45" s="84">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="2">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="E45" s="33">
+        <v>18.835000000000001</v>
+      </c>
+      <c r="F45" s="2">
+        <v>15.74</v>
+      </c>
+      <c r="G45" s="33">
+        <v>52.3536</v>
+      </c>
+      <c r="H45" s="16">
+        <f>I45/5</f>
+        <v>10.742000000000001</v>
+      </c>
+      <c r="I45" s="2">
+        <v>53.71</v>
+      </c>
+      <c r="J45" s="142"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="139"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="142"/>
+    </row>
+    <row r="47" spans="1:12" ht="15" thickBot="1">
+      <c r="A47" s="140"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="143"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15" thickBot="1"/>
+    <row r="52" spans="1:12" ht="18">
+      <c r="A52" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="104"/>
+      <c r="F52" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="104"/>
+      <c r="H52" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" s="104"/>
+      <c r="J52" s="132" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15" thickBot="1">
+      <c r="A53" s="107"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="133"/>
+      <c r="L53" s="70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="121">
+        <v>2</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="49">
+        <v>0.13536000000000001</v>
+      </c>
+      <c r="F54" s="62"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="63">
+        <f>I54/2</f>
+        <v>41.104999999999997</v>
+      </c>
+      <c r="I54" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="J54" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="L54" s="71">
+        <f>(E54-G54)/E54</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="124"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="16">
+        <f>I55/2</f>
+        <v>41.104999999999997</v>
+      </c>
+      <c r="I55" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="J55" s="136"/>
+      <c r="L55" s="71"/>
+    </row>
+    <row r="56" spans="1:12" ht="15" thickBot="1">
+      <c r="A56" s="124"/>
+      <c r="B56" s="123"/>
+      <c r="C56" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="54">
+        <f>I56/2</f>
+        <v>41.104999999999997</v>
+      </c>
+      <c r="I56" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="J56" s="136"/>
+      <c r="L56" s="71"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="124"/>
+      <c r="B57" s="121">
+        <v>3</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="49">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F57" s="62"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="63">
+        <f>I57/3</f>
+        <v>27.403333333333332</v>
+      </c>
+      <c r="I57" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="J57" s="136"/>
+      <c r="L57" s="71">
+        <f t="shared" ref="L57" si="3">(E57-G57)/E57</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="124"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="41"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="16">
+        <f>I58/3</f>
+        <v>27.403333333333332</v>
+      </c>
+      <c r="I58" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="J58" s="136"/>
+      <c r="L58" s="71"/>
+    </row>
+    <row r="59" spans="1:12" ht="15" thickBot="1">
+      <c r="A59" s="124"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="68"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="54">
+        <f>I59/3</f>
+        <v>27.403333333333332</v>
+      </c>
+      <c r="I59" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="J59" s="136"/>
+      <c r="L59" s="71"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="124"/>
+      <c r="B60" s="121">
+        <v>4</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" s="49">
+        <v>0.48949999999999999</v>
+      </c>
+      <c r="F60" s="62"/>
+      <c r="G60" s="49">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="H60" s="63">
+        <f>I60/4</f>
+        <v>20.552499999999998</v>
+      </c>
+      <c r="I60" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="J60" s="136"/>
+      <c r="L60" s="71">
+        <f t="shared" ref="L60" si="4">(E60-G60)/E60</f>
+        <v>0.38304392236976509</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="124"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="H61" s="16">
+        <f>I61/4</f>
+        <v>20.552499999999998</v>
+      </c>
+      <c r="I61" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="J61" s="136"/>
+      <c r="L61" s="71"/>
+    </row>
+    <row r="62" spans="1:12" ht="15" thickBot="1">
+      <c r="A62" s="124"/>
+      <c r="B62" s="123"/>
+      <c r="C62" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="68"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="54">
+        <f>I62/4</f>
+        <v>20.552499999999998</v>
+      </c>
+      <c r="I62" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="J62" s="136"/>
+      <c r="L62" s="71"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="124"/>
+      <c r="B63" s="121">
+        <v>5</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" s="49">
+        <v>0.69</v>
+      </c>
+      <c r="F63" s="26"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="63">
+        <f>I63/5</f>
+        <v>16.442</v>
+      </c>
+      <c r="I63" s="64">
+        <v>82.21</v>
+      </c>
+      <c r="J63" s="136"/>
+      <c r="L63" s="71">
+        <f t="shared" ref="L63" si="5">(E63-G63)/E63</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="124"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="16">
+        <f>I64/5</f>
+        <v>16.442</v>
+      </c>
+      <c r="I64" s="65">
+        <v>82.21</v>
+      </c>
+      <c r="J64" s="136"/>
+      <c r="L64" s="71"/>
+    </row>
+    <row r="65" spans="1:12" ht="15" thickBot="1">
+      <c r="A65" s="125"/>
+      <c r="B65" s="123"/>
+      <c r="C65" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="25"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="54">
+        <f>I65/5</f>
+        <v>16.442</v>
+      </c>
+      <c r="I65" s="67">
+        <v>82.21</v>
+      </c>
+      <c r="J65" s="137"/>
+      <c r="L65" s="71"/>
+    </row>
+    <row r="67" spans="1:12" ht="15" thickBot="1"/>
+    <row r="68" spans="1:12">
+      <c r="A68" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="E68" s="104"/>
+      <c r="F68" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" s="104"/>
+      <c r="H68" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" s="104"/>
+      <c r="J68" s="132" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="107"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" s="133"/>
+    </row>
+    <row r="70" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A70" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="84">
+        <v>2</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="16">
+        <f>I70/4</f>
+        <v>13.4275</v>
+      </c>
+      <c r="I70" s="2">
+        <v>53.71</v>
+      </c>
+      <c r="J70" s="134" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="111"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="134"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="111"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="134"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="111"/>
+      <c r="B73" s="84">
+        <v>3</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73" s="33">
+        <v>69.08</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="16">
+        <f>I73/5</f>
+        <v>10.742000000000001</v>
+      </c>
+      <c r="I73" s="2">
+        <v>53.71</v>
+      </c>
+      <c r="J73" s="134"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="111"/>
+      <c r="B74" s="84"/>
+      <c r="C74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="134"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="111"/>
+      <c r="B75" s="84"/>
+      <c r="C75" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="134"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="111"/>
+      <c r="B76" s="84">
+        <v>4</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="2">
+        <v>18.91</v>
+      </c>
+      <c r="E76" s="33">
+        <v>21.947700000000001</v>
+      </c>
+      <c r="F76" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G76" s="33">
+        <v>64.584999999999994</v>
+      </c>
+      <c r="H76" s="16">
+        <f>I76/4</f>
+        <v>13.4275</v>
+      </c>
+      <c r="I76" s="2">
+        <v>53.71</v>
+      </c>
+      <c r="J76" s="134"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="111"/>
+      <c r="B77" s="84"/>
+      <c r="C77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="134"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="111"/>
+      <c r="B78" s="84"/>
+      <c r="C78" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="134"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="111"/>
+      <c r="B79" s="84">
+        <v>5</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="2">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="E79" s="33">
+        <v>18.835000000000001</v>
+      </c>
+      <c r="F79" s="2">
+        <v>15.74</v>
+      </c>
+      <c r="G79" s="33">
+        <v>52.3536</v>
+      </c>
+      <c r="H79" s="16">
+        <f>I79/5</f>
+        <v>10.742000000000001</v>
+      </c>
+      <c r="I79" s="2">
+        <v>53.71</v>
+      </c>
+      <c r="J79" s="134"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="111"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="134"/>
+    </row>
+    <row r="81" spans="1:12" ht="15" thickBot="1">
+      <c r="A81" s="112"/>
+      <c r="B81" s="126"/>
+      <c r="C81" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" s="25"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="148"/>
+    </row>
+    <row r="84" spans="1:12" ht="15" thickBot="1"/>
+    <row r="85" spans="1:12">
+      <c r="A85" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" s="104"/>
+      <c r="F85" s="104"/>
+      <c r="G85" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="H85" s="104"/>
+      <c r="I85" s="104"/>
+      <c r="J85" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="K85" s="104"/>
+      <c r="L85" s="132" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="147"/>
+      <c r="B86" s="92"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L86" s="133"/>
+    </row>
+    <row r="87" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A87" s="144" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="84">
+        <v>2</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="134" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="139"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="134"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="139"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="134"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="139"/>
+      <c r="B90" s="84">
+        <v>3</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E90" s="2">
+        <v>41.9</v>
+      </c>
+      <c r="F90" s="33">
+        <v>2.7290000000000001</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H90" s="2">
+        <v>317.5</v>
+      </c>
+      <c r="I90" s="33">
+        <v>12</v>
+      </c>
+      <c r="J90" s="16"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="134"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="139"/>
+      <c r="B91" s="84"/>
+      <c r="C91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="134"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="139"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="134"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="139"/>
+      <c r="B93" s="84">
+        <v>4</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E93" s="2">
+        <v>94.9</v>
+      </c>
+      <c r="F93" s="33">
+        <v>2.82</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H93" s="2">
+        <v>620.20000000000005</v>
+      </c>
+      <c r="I93" s="33">
+        <v>4.5730000000000004</v>
+      </c>
+      <c r="J93" s="16"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="134"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="139"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="134"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="139"/>
+      <c r="B95" s="84"/>
+      <c r="C95" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="134"/>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="139"/>
+      <c r="B96" s="84">
+        <v>5</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E96" s="2">
+        <v>245.6</v>
+      </c>
+      <c r="F96" s="33">
+        <v>2.56</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H96" s="2">
+        <v>1146.5</v>
+      </c>
+      <c r="I96" s="33">
+        <v>5.3940000000000001</v>
+      </c>
+      <c r="J96" s="16"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="134"/>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="139"/>
+      <c r="B97" s="84"/>
+      <c r="C97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="134"/>
+    </row>
+    <row r="98" spans="1:12" ht="15" thickBot="1">
+      <c r="A98" s="145"/>
+      <c r="B98" s="126"/>
+      <c r="C98" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="54"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="148"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="76">
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="J54:J65"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="J25:J36"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A25:A36"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A7:A18"/>
     <mergeCell ref="B7:B9"/>
@@ -6074,9 +8494,1141 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="J42:J47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="J70:J81"/>
+    <mergeCell ref="A70:A81"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="A87:A98"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="L87:L98"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="L85:L86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="L25:L34">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{81072BB6-663D-45C6-8BF5-43FC6B7B65AB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54:L63">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{535A9548-371B-40BC-B230-1D67356A4B40}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{81072BB6-663D-45C6-8BF5-43FC6B7B65AB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L25:L34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{535A9548-371B-40BC-B230-1D67356A4B40}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L54:L63</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9AC82D-CE07-4D4C-BB8B-FDF03F421D67}">
+  <dimension ref="A3:N34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="20.25" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" ht="15" thickBot="1">
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="A4" s="156" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="157" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="157" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="157" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="159" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="159" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="159" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="163"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="161"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="144" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="114">
+        <v>5</v>
+      </c>
+      <c r="C5" s="158" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="158" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="171">
+        <v>13.534421000003929</v>
+      </c>
+      <c r="F5" s="28">
+        <v>531.30303030303025</v>
+      </c>
+      <c r="G5" s="28">
+        <v>17.635999999999999</v>
+      </c>
+      <c r="H5" s="172">
+        <v>6.8170000000000002</v>
+      </c>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="161"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="154"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="158" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="158" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="173">
+        <v>15.35710109999491</v>
+      </c>
+      <c r="F6" s="18">
+        <v>629.27272727272725</v>
+      </c>
+      <c r="G6" s="18">
+        <v>16.847999999999999</v>
+      </c>
+      <c r="H6" s="174">
+        <v>5.6790000000000003</v>
+      </c>
+      <c r="J6" s="164"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="161"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="154"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="178" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="178" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="179">
+        <v>18.361361299997949</v>
+      </c>
+      <c r="F7" s="180">
+        <v>742.42424242424238</v>
+      </c>
+      <c r="G7" s="180">
+        <v>16.727</v>
+      </c>
+      <c r="H7" s="174">
+        <v>5.7590000000000003</v>
+      </c>
+      <c r="J7" s="164"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="161"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1">
+      <c r="A8" s="154"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="158" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="158" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="175">
+        <v>15.918344899997461</v>
+      </c>
+      <c r="F8" s="176">
+        <v>636.78787878787875</v>
+      </c>
+      <c r="G8" s="176">
+        <v>16.788</v>
+      </c>
+      <c r="H8" s="177">
+        <v>5.73</v>
+      </c>
+      <c r="J8" s="164"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="167"/>
+      <c r="N8" s="161"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="154"/>
+      <c r="B9" s="114">
+        <v>4</v>
+      </c>
+      <c r="C9" s="158" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="158" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="171">
+        <v>9.4834498999989592</v>
+      </c>
+      <c r="F9" s="28">
+        <v>302.39393939393938</v>
+      </c>
+      <c r="G9" s="28">
+        <v>23.091000000000001</v>
+      </c>
+      <c r="H9" s="172">
+        <v>8.5190000000000001</v>
+      </c>
+      <c r="J9" s="164"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="161"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="154"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="158" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="158" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="173">
+        <v>9.9884426999997231</v>
+      </c>
+      <c r="F10" s="18">
+        <v>294.24242424242419</v>
+      </c>
+      <c r="G10" s="18">
+        <v>21.939</v>
+      </c>
+      <c r="H10" s="174">
+        <v>7.5069999999999997</v>
+      </c>
+      <c r="J10" s="164"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="167"/>
+      <c r="N10" s="161"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="154"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="178" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="178" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="179">
+        <v>10.377834700004311</v>
+      </c>
+      <c r="F11" s="180">
+        <v>246.06060606060609</v>
+      </c>
+      <c r="G11" s="180">
+        <v>21.908999999999999</v>
+      </c>
+      <c r="H11" s="174">
+        <v>7.5330000000000004</v>
+      </c>
+      <c r="J11" s="164"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="167"/>
+      <c r="N11" s="161"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1">
+      <c r="A12" s="154"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="158" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="158" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="175">
+        <v>10.60377069999959</v>
+      </c>
+      <c r="F12" s="176">
+        <v>249.5151515151515</v>
+      </c>
+      <c r="G12" s="176">
+        <v>21.908999999999999</v>
+      </c>
+      <c r="H12" s="177">
+        <v>7.5330000000000004</v>
+      </c>
+      <c r="J12" s="164"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="167"/>
+      <c r="N12" s="161"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="154"/>
+      <c r="B13" s="114">
+        <v>3</v>
+      </c>
+      <c r="C13" s="158" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="158" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="171">
+        <v>5.4785776999997324</v>
+      </c>
+      <c r="F13" s="28">
+        <v>157.78787878787881</v>
+      </c>
+      <c r="G13" s="28">
+        <v>28.515000000000001</v>
+      </c>
+      <c r="H13" s="172">
+        <v>5.5880000000000001</v>
+      </c>
+      <c r="J13" s="164"/>
+      <c r="K13" s="165"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="167"/>
+      <c r="N13" s="161"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="154"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="178" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="178" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="179">
+        <v>6.2929675000050338</v>
+      </c>
+      <c r="F14" s="180">
+        <v>155.39393939393941</v>
+      </c>
+      <c r="G14" s="180">
+        <v>27.576000000000001</v>
+      </c>
+      <c r="H14" s="174">
+        <v>5.9550000000000001</v>
+      </c>
+      <c r="J14" s="164"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="166"/>
+      <c r="M14" s="167"/>
+      <c r="N14" s="161"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="154"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="158" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="158" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="173">
+        <v>9.5221793000018806</v>
+      </c>
+      <c r="F15" s="18">
+        <v>183.24242424242419</v>
+      </c>
+      <c r="G15" s="18">
+        <v>27.576000000000001</v>
+      </c>
+      <c r="H15" s="174">
+        <v>5.9550000000000001</v>
+      </c>
+      <c r="J15" s="164"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="167"/>
+      <c r="N15" s="161"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1">
+      <c r="A16" s="154"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="158" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="158" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="175">
+        <v>10.261714800006301</v>
+      </c>
+      <c r="F16" s="176">
+        <v>195.90909090909091</v>
+      </c>
+      <c r="G16" s="176">
+        <v>27.576000000000001</v>
+      </c>
+      <c r="H16" s="177">
+        <v>5.9550000000000001</v>
+      </c>
+      <c r="J16" s="164"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="167"/>
+      <c r="N16" s="161"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="154"/>
+      <c r="B17" s="168">
+        <v>2</v>
+      </c>
+      <c r="C17" s="158" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="158" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="171">
+        <v>2.4768581999960588</v>
+      </c>
+      <c r="F17" s="28">
+        <v>23.030303030303031</v>
+      </c>
+      <c r="G17" s="28">
+        <v>36.878999999999998</v>
+      </c>
+      <c r="H17" s="172">
+        <v>5.0019999999999998</v>
+      </c>
+      <c r="J17" s="164"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="166"/>
+      <c r="M17" s="167"/>
+      <c r="N17" s="161"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="154"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="158" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="158" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="173">
+        <v>4.5269607999944128</v>
+      </c>
+      <c r="F18" s="18">
+        <v>24.72727272727273</v>
+      </c>
+      <c r="G18" s="18">
+        <v>35.454999999999998</v>
+      </c>
+      <c r="H18" s="174">
+        <v>4.593</v>
+      </c>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="154"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="158" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="158" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="173">
+        <v>9.1129355000011856</v>
+      </c>
+      <c r="F19" s="18">
+        <v>25</v>
+      </c>
+      <c r="G19" s="18">
+        <v>35.423999999999999</v>
+      </c>
+      <c r="H19" s="174">
+        <v>4.665</v>
+      </c>
+      <c r="J19" s="163"/>
+      <c r="K19" s="162"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="161"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1">
+      <c r="A20" s="155"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="181" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="181" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="182">
+        <v>8.1799360000004526</v>
+      </c>
+      <c r="F20" s="183">
+        <v>24.151515151515149</v>
+      </c>
+      <c r="G20" s="183">
+        <v>35.363999999999997</v>
+      </c>
+      <c r="H20" s="177">
+        <v>4.657</v>
+      </c>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="161"/>
+    </row>
+    <row r="21" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A21" s="152"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="153"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="152"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="153"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="152"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="153"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="152"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="153"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="152"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="153"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="152"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="153"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="152"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="153"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="152"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="153"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="152"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="153"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="152"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="153"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="152"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="153"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="152"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="153"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="76"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="M6:M17"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="M21:M32"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="J21:J32"/>
+    <mergeCell ref="C30:C32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E5:E8">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A6E0106B-8102-471F-BACB-7C70783872D5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E12">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{414DAEAA-1D34-4AD6-97D5-B6E3EF253D33}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E16">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A9DD2F4A-E1D3-4153-85CB-01D67EF3A006}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E20">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{483710E8-24BA-4743-A76D-9E74AB75F2F8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F8">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C7B2DD52-CE27-4333-8D52-18DC7896D418}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F12">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2F033564-2FBA-4732-97B3-0FD968BF6DCB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F16">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A38C086A-05A5-4F10-97AE-006905F19F74}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F20">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{489D5907-F251-40F0-81BC-639A8948A8BF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G8">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E2BA4B7D-19E7-4EF3-BFE8-5A8B3444F2BC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G12">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{70883ADB-88D4-44D6-AE71-57D521F01225}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G16">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C19F766F-B0B4-4590-AAEF-59A0B3816CCD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G20">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CC9AFFF5-EBBA-407D-9823-14FE3F5A4999}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A6E0106B-8102-471F-BACB-7C70783872D5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E5:E8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{414DAEAA-1D34-4AD6-97D5-B6E3EF253D33}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E9:E12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A9DD2F4A-E1D3-4153-85CB-01D67EF3A006}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E13:E16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{483710E8-24BA-4743-A76D-9E74AB75F2F8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E17:E20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C7B2DD52-CE27-4333-8D52-18DC7896D418}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F5:F8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2F033564-2FBA-4732-97B3-0FD968BF6DCB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F9:F12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A38C086A-05A5-4F10-97AE-006905F19F74}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F13:F16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{489D5907-F251-40F0-81BC-639A8948A8BF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F17:F20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E2BA4B7D-19E7-4EF3-BFE8-5A8B3444F2BC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G5:G8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{70883ADB-88D4-44D6-AE71-57D521F01225}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G9:G12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C19F766F-B0B4-4590-AAEF-59A0B3816CCD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G13:G16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CC9AFFF5-EBBA-407D-9823-14FE3F5A4999}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G17:G20</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/master_research/test_result.xlsx
+++ b/master_research/test_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univtokyo-my.sharepoint.com/personal/8252598822_utac_u-tokyo_ac_jp/Documents/research/master_research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1371" documentId="11_AD4D066CA252ABDACC1048B789D1F66E72EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B753F283-0003-48CA-A7EA-C7155473960C}"/>
+  <xr:revisionPtr revIDLastSave="1375" documentId="11_AD4D066CA252ABDACC1048B789D1F66E72EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B02B8D7-4677-47D0-9D7B-A49667E5583A}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1665,9 +1665,109 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1675,49 +1775,115 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1725,108 +1891,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1845,6 +1912,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1857,7 +1927,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1866,55 +1951,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1924,44 +1960,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2274,21 +2274,21 @@
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97" t="s">
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97" t="s">
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
@@ -2323,7 +2323,7 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="111" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2355,7 +2355,7 @@
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="84"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2389,7 +2389,7 @@
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="84"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2423,7 +2423,7 @@
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="112" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2443,7 +2443,7 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="84"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2461,7 +2461,7 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="84"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2479,7 +2479,7 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="112" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2499,7 +2499,7 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="84"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2517,7 +2517,7 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="84"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2538,12 +2538,12 @@
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="1"/>
@@ -2555,7 +2555,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="91"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2564,7 +2564,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="84"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2573,7 +2573,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="84"/>
+      <c r="B22" s="112"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2582,7 +2582,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="84"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2591,7 +2591,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="84"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2600,7 +2600,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="84"/>
+      <c r="B25" s="112"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2609,7 +2609,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="84"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2618,7 +2618,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="84"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2627,7 +2627,7 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="84"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2641,31 +2641,31 @@
       </c>
     </row>
     <row r="34" spans="2:23">
-      <c r="M34" s="92" t="s">
+      <c r="M34" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="N34" s="93" t="s">
+      <c r="N34" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="O34" s="95" t="s">
+      <c r="O34" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="97" t="s">
+      <c r="P34" s="109"/>
+      <c r="Q34" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="R34" s="97"/>
-      <c r="S34" s="97"/>
-      <c r="T34" s="95" t="s">
+      <c r="R34" s="110"/>
+      <c r="S34" s="110"/>
+      <c r="T34" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="U34" s="98"/>
-      <c r="V34" s="96"/>
+      <c r="U34" s="108"/>
+      <c r="V34" s="109"/>
       <c r="W34" s="8"/>
     </row>
     <row r="35" spans="2:23">
-      <c r="M35" s="92"/>
-      <c r="N35" s="94"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="115"/>
       <c r="O35" s="1" t="s">
         <v>20</v>
       </c>
@@ -2675,10 +2675,10 @@
       <c r="Q35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R35" s="99" t="s">
+      <c r="R35" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="S35" s="100"/>
+      <c r="S35" s="118"/>
       <c r="T35" s="1" t="s">
         <v>20</v>
       </c>
@@ -2691,7 +2691,7 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="2:23">
-      <c r="M36" s="91">
+      <c r="M36" s="111">
         <v>2</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -2706,10 +2706,10 @@
       <c r="Q36" s="2">
         <v>44.41</v>
       </c>
-      <c r="R36" s="85">
+      <c r="R36" s="119">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="S36" s="86"/>
+      <c r="S36" s="120"/>
       <c r="T36" s="2">
         <v>30.1</v>
       </c>
@@ -2722,22 +2722,22 @@
       <c r="W36" s="10"/>
     </row>
     <row r="37" spans="2:23">
-      <c r="M37" s="91"/>
+      <c r="M37" s="111"/>
       <c r="N37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="89"/>
-      <c r="S37" s="90"/>
+      <c r="R37" s="121"/>
+      <c r="S37" s="122"/>
       <c r="T37" s="2"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="10"/>
     </row>
     <row r="38" spans="2:23">
-      <c r="M38" s="84">
+      <c r="M38" s="112">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -2752,10 +2752,10 @@
       <c r="Q38" s="2">
         <v>34.130000000000003</v>
       </c>
-      <c r="R38" s="85">
+      <c r="R38" s="119">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="S38" s="86"/>
+      <c r="S38" s="120"/>
       <c r="T38" s="2">
         <v>19.100000000000001</v>
       </c>
@@ -2768,22 +2768,22 @@
       <c r="W38" s="10"/>
     </row>
     <row r="39" spans="2:23">
-      <c r="M39" s="84"/>
+      <c r="M39" s="112"/>
       <c r="N39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="89"/>
-      <c r="S39" s="90"/>
+      <c r="R39" s="121"/>
+      <c r="S39" s="122"/>
       <c r="T39" s="2"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="10"/>
     </row>
     <row r="40" spans="2:23">
-      <c r="M40" s="84">
+      <c r="M40" s="112">
         <v>4</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -2798,10 +2798,10 @@
       <c r="Q40" s="2">
         <v>27.2</v>
       </c>
-      <c r="R40" s="85">
+      <c r="R40" s="119">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="S40" s="86"/>
+      <c r="S40" s="120"/>
       <c r="T40" s="2">
         <v>14.9</v>
       </c>
@@ -2814,22 +2814,22 @@
       <c r="W40" s="10"/>
     </row>
     <row r="41" spans="2:23">
-      <c r="M41" s="84"/>
+      <c r="M41" s="112"/>
       <c r="N41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="89"/>
-      <c r="S41" s="90"/>
+      <c r="R41" s="121"/>
+      <c r="S41" s="122"/>
       <c r="T41" s="2"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="10"/>
     </row>
     <row r="42" spans="2:23">
-      <c r="M42" s="84">
+      <c r="M42" s="112">
         <v>5</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -2844,10 +2844,10 @@
       <c r="Q42" s="2">
         <v>22.62</v>
       </c>
-      <c r="R42" s="85">
+      <c r="R42" s="119">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="S42" s="86"/>
+      <c r="S42" s="120"/>
       <c r="T42" s="2">
         <v>12.2</v>
       </c>
@@ -2860,22 +2860,22 @@
       <c r="W42" s="10"/>
     </row>
     <row r="43" spans="2:23">
-      <c r="M43" s="84"/>
+      <c r="M43" s="112"/>
       <c r="N43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="87"/>
-      <c r="S43" s="88"/>
+      <c r="R43" s="123"/>
+      <c r="S43" s="124"/>
       <c r="T43" s="2"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
       <c r="W43" s="10"/>
     </row>
     <row r="44" spans="2:23">
-      <c r="M44" s="84">
+      <c r="M44" s="112">
         <v>6</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -2890,10 +2890,10 @@
       <c r="Q44" s="2">
         <v>19.21</v>
       </c>
-      <c r="R44" s="85">
+      <c r="R44" s="119">
         <v>7.8E-2</v>
       </c>
-      <c r="S44" s="86"/>
+      <c r="S44" s="120"/>
       <c r="T44" s="2">
         <v>10.1</v>
       </c>
@@ -2906,52 +2906,52 @@
       <c r="W44" s="10"/>
     </row>
     <row r="45" spans="2:23">
-      <c r="M45" s="84"/>
+      <c r="M45" s="112"/>
       <c r="N45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
-      <c r="R45" s="87"/>
-      <c r="S45" s="88"/>
+      <c r="R45" s="123"/>
+      <c r="S45" s="124"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
     <row r="46" spans="2:23">
-      <c r="B46" s="101"/>
+      <c r="B46" s="113"/>
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="2:23">
-      <c r="B47" s="101"/>
+      <c r="B47" s="113"/>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="2:23">
-      <c r="M48" s="92" t="s">
+      <c r="M48" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="93" t="s">
+      <c r="N48" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="O48" s="95" t="s">
+      <c r="O48" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="P48" s="96"/>
-      <c r="Q48" s="97" t="s">
+      <c r="P48" s="109"/>
+      <c r="Q48" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="R48" s="97"/>
-      <c r="S48" s="97"/>
-      <c r="T48" s="95" t="s">
+      <c r="R48" s="110"/>
+      <c r="S48" s="110"/>
+      <c r="T48" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="U48" s="98"/>
-      <c r="V48" s="96"/>
+      <c r="U48" s="108"/>
+      <c r="V48" s="109"/>
     </row>
     <row r="49" spans="13:22">
-      <c r="M49" s="92"/>
-      <c r="N49" s="94"/>
+      <c r="M49" s="116"/>
+      <c r="N49" s="115"/>
       <c r="O49" s="1" t="s">
         <v>20</v>
       </c>
@@ -2961,10 +2961,10 @@
       <c r="Q49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R49" s="99" t="s">
+      <c r="R49" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="100"/>
+      <c r="S49" s="118"/>
       <c r="T49" s="1" t="s">
         <v>20</v>
       </c>
@@ -2976,7 +2976,7 @@
       </c>
     </row>
     <row r="50" spans="13:22">
-      <c r="M50" s="91">
+      <c r="M50" s="111">
         <v>2</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -2991,10 +2991,10 @@
       <c r="Q50" s="2">
         <v>41.9</v>
       </c>
-      <c r="R50" s="85">
+      <c r="R50" s="119">
         <v>0.83599999999999997</v>
       </c>
-      <c r="S50" s="86"/>
+      <c r="S50" s="120"/>
       <c r="T50" s="2">
         <v>30.1</v>
       </c>
@@ -3006,21 +3006,21 @@
       </c>
     </row>
     <row r="51" spans="13:22">
-      <c r="M51" s="91"/>
+      <c r="M51" s="111"/>
       <c r="N51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="89"/>
-      <c r="S51" s="90"/>
+      <c r="R51" s="121"/>
+      <c r="S51" s="122"/>
       <c r="T51" s="2"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
     </row>
     <row r="52" spans="13:22">
-      <c r="M52" s="84">
+      <c r="M52" s="112">
         <v>3</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -3035,10 +3035,10 @@
       <c r="Q52" s="2">
         <v>29.04</v>
       </c>
-      <c r="R52" s="85">
+      <c r="R52" s="119">
         <v>0.42599999999999999</v>
       </c>
-      <c r="S52" s="86"/>
+      <c r="S52" s="120"/>
       <c r="T52" s="2">
         <v>19.100000000000001</v>
       </c>
@@ -3050,21 +3050,21 @@
       </c>
     </row>
     <row r="53" spans="13:22">
-      <c r="M53" s="84"/>
+      <c r="M53" s="112"/>
       <c r="N53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="89"/>
-      <c r="S53" s="90"/>
+      <c r="R53" s="121"/>
+      <c r="S53" s="122"/>
       <c r="T53" s="2"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
     </row>
     <row r="54" spans="13:22">
-      <c r="M54" s="84">
+      <c r="M54" s="112">
         <v>4</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -3079,10 +3079,10 @@
       <c r="Q54" s="2">
         <v>21.59</v>
       </c>
-      <c r="R54" s="85">
+      <c r="R54" s="119">
         <v>0.255</v>
       </c>
-      <c r="S54" s="86"/>
+      <c r="S54" s="120"/>
       <c r="T54" s="2">
         <v>14.9</v>
       </c>
@@ -3094,21 +3094,21 @@
       </c>
     </row>
     <row r="55" spans="13:22">
-      <c r="M55" s="84"/>
+      <c r="M55" s="112"/>
       <c r="N55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-      <c r="R55" s="89"/>
-      <c r="S55" s="90"/>
+      <c r="R55" s="121"/>
+      <c r="S55" s="122"/>
       <c r="T55" s="2"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
     </row>
     <row r="56" spans="13:22">
-      <c r="M56" s="84">
+      <c r="M56" s="112">
         <v>5</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -3121,8 +3121,8 @@
         <v>6.83E-2</v>
       </c>
       <c r="Q56" s="2"/>
-      <c r="R56" s="85"/>
-      <c r="S56" s="86"/>
+      <c r="R56" s="119"/>
+      <c r="S56" s="120"/>
       <c r="T56" s="2">
         <v>12.2</v>
       </c>
@@ -3134,21 +3134,21 @@
       </c>
     </row>
     <row r="57" spans="13:22">
-      <c r="M57" s="84"/>
+      <c r="M57" s="112"/>
       <c r="N57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="87"/>
-      <c r="S57" s="88"/>
+      <c r="R57" s="123"/>
+      <c r="S57" s="124"/>
       <c r="T57" s="2"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
     </row>
     <row r="58" spans="13:22">
-      <c r="M58" s="84">
+      <c r="M58" s="112">
         <v>6</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -3161,8 +3161,8 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="Q58" s="2"/>
-      <c r="R58" s="85"/>
-      <c r="S58" s="86"/>
+      <c r="R58" s="119"/>
+      <c r="S58" s="120"/>
       <c r="T58" s="2">
         <v>10.1</v>
       </c>
@@ -3174,38 +3174,42 @@
       </c>
     </row>
     <row r="59" spans="13:22">
-      <c r="M59" s="84"/>
+      <c r="M59" s="112"/>
       <c r="N59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
-      <c r="R59" s="87"/>
-      <c r="S59" s="88"/>
+      <c r="R59" s="123"/>
+      <c r="S59" s="124"/>
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="R49:S49"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="N34:N35"/>
     <mergeCell ref="M34:M35"/>
@@ -3222,27 +3226,23 @@
     <mergeCell ref="R45:S45"/>
     <mergeCell ref="O34:P34"/>
     <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3254,8 +3254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D0097C-6E56-442D-B4E2-B0B31B73614F}">
   <dimension ref="B2:M83"/>
   <sheetViews>
-    <sheetView topLeftCell="B72" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B35"/>
+    <sheetView topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3284,204 +3284,204 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="91"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="118"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="154"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="114"/>
+      <c r="J5" s="157"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="91"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="118"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="154"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="115"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="91"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="118"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="154"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="115"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="91"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="118"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="154"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="116"/>
+      <c r="J8" s="152"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="91"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="2"/>
       <c r="D9" s="14"/>
       <c r="E9" s="2"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="118"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="154"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="114"/>
+      <c r="J9" s="157"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="84"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="2"/>
       <c r="D10" s="14"/>
       <c r="E10" s="2"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="154"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="115"/>
+      <c r="J10" s="151"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="84"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="2"/>
       <c r="D11" s="14"/>
       <c r="E11" s="2"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="154"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="115"/>
+      <c r="J11" s="151"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="84"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="2"/>
       <c r="D12" s="14"/>
       <c r="E12" s="2"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="154"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="116"/>
+      <c r="J12" s="152"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="91"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="114"/>
+      <c r="J13" s="157"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="84"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="115"/>
+      <c r="J14" s="151"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="84"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="154"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="115"/>
+      <c r="J15" s="151"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="84"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="154"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="116"/>
+      <c r="J16" s="152"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="91"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="154"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="120"/>
+      <c r="J17" s="150"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="84"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="154"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="115"/>
+      <c r="J18" s="151"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="84"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="154"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="115"/>
+      <c r="J19" s="151"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="84"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="154"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="116"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="2:11" ht="15" thickBot="1">
       <c r="B21" s="43"/>
@@ -3495,35 +3495,35 @@
       <c r="J21" s="47"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="127" t="s">
+      <c r="D22" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="104" t="s">
+      <c r="E22" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104" t="s">
+      <c r="F22" s="130"/>
+      <c r="G22" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104" t="s">
+      <c r="H22" s="130"/>
+      <c r="I22" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="105"/>
-      <c r="K22" s="132" t="s">
+      <c r="J22" s="160"/>
+      <c r="K22" s="125" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="15" thickBot="1">
-      <c r="B23" s="107"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="128"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="136"/>
       <c r="E23" s="1" t="s">
         <v>20</v>
       </c>
@@ -3542,13 +3542,13 @@
       <c r="J23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K23" s="133"/>
+      <c r="K23" s="126"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="109">
+      <c r="C24" s="149">
         <v>2</v>
       </c>
       <c r="D24" s="26" t="s">
@@ -3560,13 +3560,13 @@
       <c r="H24" s="35"/>
       <c r="I24" s="51"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="129" t="s">
+      <c r="K24" s="127" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="111"/>
-      <c r="C25" s="84"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3576,11 +3576,11 @@
       <c r="H25" s="36"/>
       <c r="I25" s="16"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="130"/>
+      <c r="K25" s="128"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="111"/>
-      <c r="C26" s="84"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="112"/>
       <c r="D26" s="2" t="s">
         <v>36</v>
       </c>
@@ -3590,11 +3590,11 @@
       <c r="H26" s="36"/>
       <c r="I26" s="16"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="130"/>
+      <c r="K26" s="128"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="111"/>
-      <c r="C27" s="84">
+      <c r="B27" s="140"/>
+      <c r="C27" s="112">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -3606,11 +3606,11 @@
       <c r="H27" s="36"/>
       <c r="I27" s="51"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="130"/>
+      <c r="K27" s="128"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="111"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="112"/>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
@@ -3620,11 +3620,11 @@
       <c r="H28" s="37"/>
       <c r="I28" s="16"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="130"/>
+      <c r="K28" s="128"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="111"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="112"/>
       <c r="D29" s="2" t="s">
         <v>36</v>
       </c>
@@ -3634,11 +3634,11 @@
       <c r="H29" s="37"/>
       <c r="I29" s="16"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="130"/>
+      <c r="K29" s="128"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="111"/>
-      <c r="C30" s="84">
+      <c r="B30" s="140"/>
+      <c r="C30" s="112">
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -3650,11 +3650,11 @@
       <c r="H30" s="37"/>
       <c r="I30" s="51"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="130"/>
+      <c r="K30" s="128"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="111"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="112"/>
       <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
@@ -3664,11 +3664,11 @@
       <c r="H31" s="38"/>
       <c r="I31" s="16"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="130"/>
+      <c r="K31" s="128"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="111"/>
-      <c r="C32" s="84"/>
+      <c r="B32" s="140"/>
+      <c r="C32" s="112"/>
       <c r="D32" s="2" t="s">
         <v>36</v>
       </c>
@@ -3678,11 +3678,11 @@
       <c r="H32" s="37"/>
       <c r="I32" s="16"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="130"/>
+      <c r="K32" s="128"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="111"/>
-      <c r="C33" s="84">
+      <c r="B33" s="140"/>
+      <c r="C33" s="112">
         <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -3694,11 +3694,11 @@
       <c r="H33" s="37"/>
       <c r="I33" s="51"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="130"/>
+      <c r="K33" s="128"/>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="111"/>
-      <c r="C34" s="84"/>
+      <c r="B34" s="140"/>
+      <c r="C34" s="112"/>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
@@ -3708,11 +3708,11 @@
       <c r="H34" s="37"/>
       <c r="I34" s="16"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="130"/>
+      <c r="K34" s="128"/>
     </row>
     <row r="35" spans="2:13" ht="15" thickBot="1">
-      <c r="B35" s="112"/>
-      <c r="C35" s="126"/>
+      <c r="B35" s="141"/>
+      <c r="C35" s="138"/>
       <c r="D35" s="25" t="s">
         <v>36</v>
       </c>
@@ -3722,7 +3722,7 @@
       <c r="H35" s="39"/>
       <c r="I35" s="54"/>
       <c r="J35" s="25"/>
-      <c r="K35" s="131"/>
+      <c r="K35" s="129"/>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="14"/>
@@ -3735,35 +3735,35 @@
       <c r="J37" s="51"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="106" t="s">
+      <c r="B38" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="108" t="s">
+      <c r="C38" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="108" t="s">
+      <c r="D38" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="104" t="s">
+      <c r="E38" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104" t="s">
+      <c r="F38" s="130"/>
+      <c r="G38" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104" t="s">
+      <c r="H38" s="130"/>
+      <c r="I38" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="104"/>
-      <c r="K38" s="132" t="s">
+      <c r="J38" s="130"/>
+      <c r="K38" s="125" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="15" thickBot="1">
-      <c r="B39" s="107"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
       <c r="E39" s="59" t="s">
         <v>20</v>
       </c>
@@ -3782,16 +3782,16 @@
       <c r="J39" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="K39" s="133"/>
+      <c r="K39" s="126"/>
       <c r="M39" s="70" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B40" s="124" t="s">
+      <c r="B40" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="121">
+      <c r="C40" s="142">
         <v>2</v>
       </c>
       <c r="D40" s="26" t="s">
@@ -3816,7 +3816,7 @@
       <c r="J40" s="64">
         <v>82.21</v>
       </c>
-      <c r="K40" s="135" t="s">
+      <c r="K40" s="132" t="s">
         <v>45</v>
       </c>
       <c r="M40" s="71">
@@ -3825,8 +3825,8 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="124"/>
-      <c r="C41" s="122"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="143"/>
       <c r="D41" s="2" t="s">
         <v>6</v>
       </c>
@@ -3849,15 +3849,15 @@
       <c r="J41" s="65">
         <v>82.21</v>
       </c>
-      <c r="K41" s="136"/>
+      <c r="K41" s="133"/>
       <c r="M41" s="71">
         <f t="shared" ref="M41:M51" si="0">(F41-H41)/F41</f>
         <v>0.53199010250972079</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="15" thickBot="1">
-      <c r="B42" s="124"/>
-      <c r="C42" s="123"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="144"/>
       <c r="D42" s="25" t="s">
         <v>36</v>
       </c>
@@ -3880,15 +3880,15 @@
       <c r="J42" s="67">
         <v>82.21</v>
       </c>
-      <c r="K42" s="136"/>
+      <c r="K42" s="133"/>
       <c r="M42" s="71">
         <f t="shared" si="0"/>
         <v>0.6037637155505966</v>
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="124"/>
-      <c r="C43" s="121">
+      <c r="B43" s="145"/>
+      <c r="C43" s="142">
         <v>3</v>
       </c>
       <c r="D43" s="26" t="s">
@@ -3913,15 +3913,15 @@
       <c r="J43" s="64">
         <v>82.21</v>
       </c>
-      <c r="K43" s="136"/>
+      <c r="K43" s="133"/>
       <c r="M43" s="71">
         <f t="shared" si="0"/>
         <v>0.1265185912381889</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B44" s="124"/>
-      <c r="C44" s="122"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="143"/>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="J44" s="65">
         <v>82.21</v>
       </c>
-      <c r="K44" s="136"/>
+      <c r="K44" s="133"/>
       <c r="L44" s="42"/>
       <c r="M44" s="71">
         <f t="shared" si="0"/>
@@ -3952,8 +3952,8 @@
       </c>
     </row>
     <row r="45" spans="2:13" ht="15" thickBot="1">
-      <c r="B45" s="124"/>
-      <c r="C45" s="123"/>
+      <c r="B45" s="145"/>
+      <c r="C45" s="144"/>
       <c r="D45" s="25" t="s">
         <v>36</v>
       </c>
@@ -3976,15 +3976,15 @@
       <c r="J45" s="67">
         <v>82.21</v>
       </c>
-      <c r="K45" s="136"/>
+      <c r="K45" s="133"/>
       <c r="M45" s="71">
         <f t="shared" si="0"/>
         <v>0.59502052225695379</v>
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="124"/>
-      <c r="C46" s="121">
+      <c r="B46" s="145"/>
+      <c r="C46" s="142">
         <v>4</v>
       </c>
       <c r="D46" s="26" t="s">
@@ -4009,15 +4009,15 @@
       <c r="J46" s="64">
         <v>82.21</v>
       </c>
-      <c r="K46" s="136"/>
+      <c r="K46" s="133"/>
       <c r="M46" s="71">
         <f t="shared" si="0"/>
         <v>0.23926159371808878</v>
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="124"/>
-      <c r="C47" s="122"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="143"/>
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
@@ -4040,15 +4040,15 @@
       <c r="J47" s="65">
         <v>82.21</v>
       </c>
-      <c r="K47" s="136"/>
+      <c r="K47" s="133"/>
       <c r="M47" s="71">
         <f t="shared" si="0"/>
         <v>0.38800605372682556</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B48" s="124"/>
-      <c r="C48" s="123"/>
+      <c r="B48" s="145"/>
+      <c r="C48" s="144"/>
       <c r="D48" s="25" t="s">
         <v>36</v>
       </c>
@@ -4071,15 +4071,15 @@
       <c r="J48" s="67">
         <v>82.21</v>
       </c>
-      <c r="K48" s="136"/>
+      <c r="K48" s="133"/>
       <c r="M48" s="71">
         <f t="shared" si="0"/>
         <v>0.40728855721393037</v>
       </c>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="124"/>
-      <c r="C49" s="121">
+      <c r="B49" s="145"/>
+      <c r="C49" s="142">
         <v>5</v>
       </c>
       <c r="D49" s="26" t="s">
@@ -4104,15 +4104,15 @@
       <c r="J49" s="64">
         <v>82.21</v>
       </c>
-      <c r="K49" s="136"/>
+      <c r="K49" s="133"/>
       <c r="M49" s="71">
         <f t="shared" si="0"/>
         <v>0.40854105571847504</v>
       </c>
     </row>
     <row r="50" spans="2:13">
-      <c r="B50" s="124"/>
-      <c r="C50" s="122"/>
+      <c r="B50" s="145"/>
+      <c r="C50" s="143"/>
       <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
@@ -4135,15 +4135,15 @@
       <c r="J50" s="65">
         <v>82.21</v>
       </c>
-      <c r="K50" s="136"/>
+      <c r="K50" s="133"/>
       <c r="M50" s="71">
         <f t="shared" si="0"/>
         <v>0.40438056125941135</v>
       </c>
     </row>
     <row r="51" spans="2:13" ht="15" thickBot="1">
-      <c r="B51" s="125"/>
-      <c r="C51" s="123"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="144"/>
       <c r="D51" s="25" t="s">
         <v>36</v>
       </c>
@@ -4166,7 +4166,7 @@
       <c r="J51" s="67">
         <v>82.21</v>
       </c>
-      <c r="K51" s="137"/>
+      <c r="K51" s="134"/>
       <c r="M51" s="71">
         <f t="shared" si="0"/>
         <v>0.32786540483701365</v>
@@ -4177,35 +4177,35 @@
       <c r="J52" s="51"/>
     </row>
     <row r="53" spans="2:13">
-      <c r="B53" s="106" t="s">
+      <c r="B53" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="108" t="s">
+      <c r="C53" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="127" t="s">
+      <c r="D53" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="104" t="s">
+      <c r="E53" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104" t="s">
+      <c r="F53" s="130"/>
+      <c r="G53" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="H53" s="104"/>
-      <c r="I53" s="104" t="s">
+      <c r="H53" s="130"/>
+      <c r="I53" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="J53" s="105"/>
-      <c r="K53" s="132" t="s">
+      <c r="J53" s="160"/>
+      <c r="K53" s="125" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="15" thickBot="1">
-      <c r="B54" s="107"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="128"/>
+      <c r="B54" s="148"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="136"/>
       <c r="E54" s="1" t="s">
         <v>20</v>
       </c>
@@ -4224,13 +4224,13 @@
       <c r="J54" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K54" s="133"/>
+      <c r="K54" s="126"/>
     </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="110" t="s">
+      <c r="B55" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="109">
+      <c r="C55" s="149">
         <v>2</v>
       </c>
       <c r="D55" s="26" t="s">
@@ -4242,13 +4242,13 @@
       <c r="H55" s="40"/>
       <c r="I55" s="57"/>
       <c r="J55" s="58"/>
-      <c r="K55" s="129" t="s">
+      <c r="K55" s="127" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:13">
-      <c r="B56" s="111"/>
-      <c r="C56" s="84"/>
+      <c r="B56" s="140"/>
+      <c r="C56" s="112"/>
       <c r="D56" s="2" t="s">
         <v>6</v>
       </c>
@@ -4258,11 +4258,11 @@
       <c r="H56" s="37"/>
       <c r="I56" s="55"/>
       <c r="J56" s="52"/>
-      <c r="K56" s="130"/>
+      <c r="K56" s="128"/>
     </row>
     <row r="57" spans="2:13">
-      <c r="B57" s="111"/>
-      <c r="C57" s="84"/>
+      <c r="B57" s="140"/>
+      <c r="C57" s="112"/>
       <c r="D57" s="2" t="s">
         <v>36</v>
       </c>
@@ -4272,11 +4272,11 @@
       <c r="H57" s="37"/>
       <c r="I57" s="55"/>
       <c r="J57" s="52"/>
-      <c r="K57" s="130"/>
+      <c r="K57" s="128"/>
     </row>
     <row r="58" spans="2:13">
-      <c r="B58" s="111"/>
-      <c r="C58" s="84">
+      <c r="B58" s="140"/>
+      <c r="C58" s="112">
         <v>3</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -4288,11 +4288,11 @@
       <c r="H58" s="37"/>
       <c r="I58" s="55"/>
       <c r="J58" s="52"/>
-      <c r="K58" s="130"/>
+      <c r="K58" s="128"/>
     </row>
     <row r="59" spans="2:13">
-      <c r="B59" s="111"/>
-      <c r="C59" s="84"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="112"/>
       <c r="D59" s="2" t="s">
         <v>6</v>
       </c>
@@ -4302,11 +4302,11 @@
       <c r="H59" s="37"/>
       <c r="I59" s="55"/>
       <c r="J59" s="52"/>
-      <c r="K59" s="130"/>
+      <c r="K59" s="128"/>
     </row>
     <row r="60" spans="2:13">
-      <c r="B60" s="111"/>
-      <c r="C60" s="84"/>
+      <c r="B60" s="140"/>
+      <c r="C60" s="112"/>
       <c r="D60" s="2" t="s">
         <v>36</v>
       </c>
@@ -4316,11 +4316,11 @@
       <c r="H60" s="37"/>
       <c r="I60" s="55"/>
       <c r="J60" s="52"/>
-      <c r="K60" s="130"/>
+      <c r="K60" s="128"/>
     </row>
     <row r="61" spans="2:13">
-      <c r="B61" s="111"/>
-      <c r="C61" s="84">
+      <c r="B61" s="140"/>
+      <c r="C61" s="112">
         <v>4</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -4332,11 +4332,11 @@
       <c r="H61" s="37"/>
       <c r="I61" s="55"/>
       <c r="J61" s="52"/>
-      <c r="K61" s="130"/>
+      <c r="K61" s="128"/>
     </row>
     <row r="62" spans="2:13">
-      <c r="B62" s="111"/>
-      <c r="C62" s="84"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="112"/>
       <c r="D62" s="2" t="s">
         <v>6</v>
       </c>
@@ -4346,11 +4346,11 @@
       <c r="H62" s="37"/>
       <c r="I62" s="55"/>
       <c r="J62" s="52"/>
-      <c r="K62" s="130"/>
+      <c r="K62" s="128"/>
     </row>
     <row r="63" spans="2:13">
-      <c r="B63" s="111"/>
-      <c r="C63" s="84"/>
+      <c r="B63" s="140"/>
+      <c r="C63" s="112"/>
       <c r="D63" s="2" t="s">
         <v>36</v>
       </c>
@@ -4360,11 +4360,11 @@
       <c r="H63" s="37"/>
       <c r="I63" s="55"/>
       <c r="J63" s="52"/>
-      <c r="K63" s="130"/>
+      <c r="K63" s="128"/>
     </row>
     <row r="64" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B64" s="111"/>
-      <c r="C64" s="84">
+      <c r="B64" s="140"/>
+      <c r="C64" s="112">
         <v>5</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -4376,11 +4376,11 @@
       <c r="H64" s="37"/>
       <c r="I64" s="55"/>
       <c r="J64" s="52"/>
-      <c r="K64" s="130"/>
+      <c r="K64" s="128"/>
     </row>
     <row r="65" spans="2:13">
-      <c r="B65" s="111"/>
-      <c r="C65" s="84"/>
+      <c r="B65" s="140"/>
+      <c r="C65" s="112"/>
       <c r="D65" s="2" t="s">
         <v>6</v>
       </c>
@@ -4390,11 +4390,11 @@
       <c r="H65" s="37"/>
       <c r="I65" s="55"/>
       <c r="J65" s="52"/>
-      <c r="K65" s="130"/>
+      <c r="K65" s="128"/>
     </row>
     <row r="66" spans="2:13" ht="15" thickBot="1">
-      <c r="B66" s="112"/>
-      <c r="C66" s="126"/>
+      <c r="B66" s="141"/>
+      <c r="C66" s="138"/>
       <c r="D66" s="25" t="s">
         <v>36</v>
       </c>
@@ -4404,7 +4404,7 @@
       <c r="H66" s="39"/>
       <c r="I66" s="56"/>
       <c r="J66" s="53"/>
-      <c r="K66" s="131"/>
+      <c r="K66" s="129"/>
     </row>
     <row r="67" spans="2:13">
       <c r="I67" s="51"/>
@@ -4419,35 +4419,35 @@
       <c r="J69" s="51"/>
     </row>
     <row r="70" spans="2:13">
-      <c r="B70" s="106" t="s">
+      <c r="B70" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="108" t="s">
+      <c r="C70" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="127" t="s">
+      <c r="D70" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="102" t="s">
+      <c r="E70" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="F70" s="103"/>
-      <c r="G70" s="102" t="s">
+      <c r="F70" s="159"/>
+      <c r="G70" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="H70" s="103"/>
-      <c r="I70" s="104" t="s">
+      <c r="H70" s="159"/>
+      <c r="I70" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="105"/>
-      <c r="K70" s="132" t="s">
+      <c r="J70" s="160"/>
+      <c r="K70" s="125" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="71" spans="2:13" ht="15" thickBot="1">
-      <c r="B71" s="107"/>
-      <c r="C71" s="92"/>
-      <c r="D71" s="128"/>
+      <c r="B71" s="148"/>
+      <c r="C71" s="116"/>
+      <c r="D71" s="136"/>
       <c r="E71" s="1" t="s">
         <v>20</v>
       </c>
@@ -4466,16 +4466,16 @@
       <c r="J71" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K71" s="133"/>
+      <c r="K71" s="126"/>
       <c r="M71" s="70" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B72" s="110" t="s">
+      <c r="B72" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="C72" s="109">
+      <c r="C72" s="149">
         <v>2</v>
       </c>
       <c r="D72" s="26" t="s">
@@ -4500,7 +4500,7 @@
       <c r="J72" s="2">
         <v>50.8</v>
       </c>
-      <c r="K72" s="134" t="s">
+      <c r="K72" s="131" t="s">
         <v>46</v>
       </c>
       <c r="M72" s="71">
@@ -4509,8 +4509,8 @@
       </c>
     </row>
     <row r="73" spans="2:13">
-      <c r="B73" s="111"/>
-      <c r="C73" s="84"/>
+      <c r="B73" s="140"/>
+      <c r="C73" s="112"/>
       <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
@@ -4520,12 +4520,12 @@
       <c r="H73" s="33"/>
       <c r="I73" s="16"/>
       <c r="J73" s="2"/>
-      <c r="K73" s="130"/>
+      <c r="K73" s="128"/>
       <c r="M73" s="71"/>
     </row>
     <row r="74" spans="2:13">
-      <c r="B74" s="111"/>
-      <c r="C74" s="84"/>
+      <c r="B74" s="140"/>
+      <c r="C74" s="112"/>
       <c r="D74" s="2" t="s">
         <v>36</v>
       </c>
@@ -4535,12 +4535,12 @@
       <c r="H74" s="33"/>
       <c r="I74" s="16"/>
       <c r="J74" s="2"/>
-      <c r="K74" s="130"/>
+      <c r="K74" s="128"/>
       <c r="M74" s="71"/>
     </row>
     <row r="75" spans="2:13">
-      <c r="B75" s="111"/>
-      <c r="C75" s="84">
+      <c r="B75" s="140"/>
+      <c r="C75" s="112">
         <v>3</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -4565,15 +4565,15 @@
       <c r="J75" s="2">
         <v>50.8</v>
       </c>
-      <c r="K75" s="130"/>
+      <c r="K75" s="128"/>
       <c r="M75" s="71">
         <f t="shared" ref="M75:M81" si="1">(F75-H75)/F75</f>
         <v>0.74622376394133672</v>
       </c>
     </row>
     <row r="76" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B76" s="111"/>
-      <c r="C76" s="84"/>
+      <c r="B76" s="140"/>
+      <c r="C76" s="112"/>
       <c r="D76" s="2" t="s">
         <v>6</v>
       </c>
@@ -4583,12 +4583,12 @@
       <c r="H76" s="33"/>
       <c r="I76" s="16"/>
       <c r="J76" s="2"/>
-      <c r="K76" s="130"/>
+      <c r="K76" s="128"/>
       <c r="M76" s="71"/>
     </row>
     <row r="77" spans="2:13">
-      <c r="B77" s="111"/>
-      <c r="C77" s="84"/>
+      <c r="B77" s="140"/>
+      <c r="C77" s="112"/>
       <c r="D77" s="2" t="s">
         <v>36</v>
       </c>
@@ -4598,12 +4598,12 @@
       <c r="H77" s="33"/>
       <c r="I77" s="16"/>
       <c r="J77" s="2"/>
-      <c r="K77" s="130"/>
+      <c r="K77" s="128"/>
       <c r="M77" s="71"/>
     </row>
     <row r="78" spans="2:13">
-      <c r="B78" s="111"/>
-      <c r="C78" s="84">
+      <c r="B78" s="140"/>
+      <c r="C78" s="112">
         <v>4</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -4628,15 +4628,15 @@
       <c r="J78" s="2">
         <v>50.8</v>
       </c>
-      <c r="K78" s="130"/>
+      <c r="K78" s="128"/>
       <c r="M78" s="71">
         <f t="shared" si="1"/>
         <v>0.68791914251323105</v>
       </c>
     </row>
     <row r="79" spans="2:13">
-      <c r="B79" s="111"/>
-      <c r="C79" s="84"/>
+      <c r="B79" s="140"/>
+      <c r="C79" s="112"/>
       <c r="D79" s="2" t="s">
         <v>6</v>
       </c>
@@ -4646,12 +4646,12 @@
       <c r="H79" s="33"/>
       <c r="I79" s="16"/>
       <c r="J79" s="2"/>
-      <c r="K79" s="130"/>
+      <c r="K79" s="128"/>
       <c r="M79" s="71"/>
     </row>
     <row r="80" spans="2:13">
-      <c r="B80" s="111"/>
-      <c r="C80" s="84"/>
+      <c r="B80" s="140"/>
+      <c r="C80" s="112"/>
       <c r="D80" s="2" t="s">
         <v>36</v>
       </c>
@@ -4661,12 +4661,12 @@
       <c r="H80" s="33"/>
       <c r="I80" s="16"/>
       <c r="J80" s="2"/>
-      <c r="K80" s="130"/>
+      <c r="K80" s="128"/>
       <c r="M80" s="71"/>
     </row>
     <row r="81" spans="2:13">
-      <c r="B81" s="111"/>
-      <c r="C81" s="84">
+      <c r="B81" s="140"/>
+      <c r="C81" s="112">
         <v>5</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -4691,15 +4691,15 @@
       <c r="J81" s="2">
         <v>50.8</v>
       </c>
-      <c r="K81" s="130"/>
+      <c r="K81" s="128"/>
       <c r="M81" s="71">
         <f t="shared" si="1"/>
         <v>0.67438416422287395</v>
       </c>
     </row>
     <row r="82" spans="2:13">
-      <c r="B82" s="111"/>
-      <c r="C82" s="84"/>
+      <c r="B82" s="140"/>
+      <c r="C82" s="112"/>
       <c r="D82" s="2" t="s">
         <v>6</v>
       </c>
@@ -4709,12 +4709,12 @@
       <c r="H82" s="33"/>
       <c r="I82" s="16"/>
       <c r="J82" s="2"/>
-      <c r="K82" s="130"/>
+      <c r="K82" s="128"/>
       <c r="M82" s="71"/>
     </row>
     <row r="83" spans="2:13" ht="15" thickBot="1">
-      <c r="B83" s="112"/>
-      <c r="C83" s="126"/>
+      <c r="B83" s="141"/>
+      <c r="C83" s="138"/>
       <c r="D83" s="25" t="s">
         <v>36</v>
       </c>
@@ -4724,31 +4724,57 @@
       <c r="H83" s="34"/>
       <c r="I83" s="54"/>
       <c r="J83" s="25"/>
-      <c r="K83" s="131"/>
+      <c r="K83" s="129"/>
       <c r="M83" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K35"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="K55:K66"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="K72:K83"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K40:K51"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="B72:B83"/>
     <mergeCell ref="C46:C48"/>
     <mergeCell ref="C49:C51"/>
@@ -4765,52 +4791,26 @@
     <mergeCell ref="C81:C83"/>
     <mergeCell ref="C55:C57"/>
     <mergeCell ref="C58:C60"/>
-    <mergeCell ref="J17:J20"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="K55:K66"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K72:K83"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K51"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K35"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M40:M51">
@@ -4878,8 +4878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0395F63A-6BCF-4282-87EC-FB7E8E535592}">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4891,35 +4891,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104" t="s">
+      <c r="E1" s="130"/>
+      <c r="F1" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104" t="s">
+      <c r="G1" s="130"/>
+      <c r="H1" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="105"/>
-      <c r="J1" s="132" t="s">
+      <c r="I1" s="160"/>
+      <c r="J1" s="125" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="128"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="136"/>
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
@@ -4938,13 +4938,13 @@
       <c r="I2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="133"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="109">
+      <c r="B3" s="149">
         <v>2</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -4956,13 +4956,13 @@
       <c r="G3" s="35"/>
       <c r="H3" s="51"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="129" t="s">
+      <c r="J3" s="127" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="111"/>
-      <c r="B4" s="84"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -4972,11 +4972,11 @@
       <c r="G4" s="36"/>
       <c r="H4" s="16"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="130"/>
+      <c r="J4" s="128"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="111"/>
-      <c r="B5" s="84"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
@@ -4986,11 +4986,11 @@
       <c r="G5" s="36"/>
       <c r="H5" s="16"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="130"/>
+      <c r="J5" s="128"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="111"/>
-      <c r="B6" s="84">
+      <c r="A6" s="140"/>
+      <c r="B6" s="112">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -5002,11 +5002,11 @@
       <c r="G6" s="36"/>
       <c r="H6" s="51"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="130"/>
+      <c r="J6" s="128"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="111"/>
-      <c r="B7" s="84"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -5016,11 +5016,11 @@
       <c r="G7" s="37"/>
       <c r="H7" s="16"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="130"/>
+      <c r="J7" s="128"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="111"/>
-      <c r="B8" s="84"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
@@ -5030,11 +5030,11 @@
       <c r="G8" s="37"/>
       <c r="H8" s="16"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="130"/>
+      <c r="J8" s="128"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="111"/>
-      <c r="B9" s="84">
+      <c r="A9" s="140"/>
+      <c r="B9" s="112">
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -5046,11 +5046,11 @@
       <c r="G9" s="37"/>
       <c r="H9" s="51"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="130"/>
+      <c r="J9" s="128"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="111"/>
-      <c r="B10" s="84"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -5060,11 +5060,11 @@
       <c r="G10" s="38"/>
       <c r="H10" s="16"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="130"/>
+      <c r="J10" s="128"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="111"/>
-      <c r="B11" s="84"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
@@ -5074,11 +5074,11 @@
       <c r="G11" s="37"/>
       <c r="H11" s="16"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="130"/>
+      <c r="J11" s="128"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="111"/>
-      <c r="B12" s="84">
+      <c r="A12" s="140"/>
+      <c r="B12" s="112">
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -5090,11 +5090,11 @@
       <c r="G12" s="37"/>
       <c r="H12" s="51"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="130"/>
+      <c r="J12" s="128"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="111"/>
-      <c r="B13" s="84"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -5104,11 +5104,11 @@
       <c r="G13" s="37"/>
       <c r="H13" s="16"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="130"/>
+      <c r="J13" s="128"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1">
-      <c r="A14" s="112"/>
-      <c r="B14" s="126"/>
+      <c r="A14" s="141"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="25" t="s">
         <v>36</v>
       </c>
@@ -5118,7 +5118,7 @@
       <c r="G14" s="39"/>
       <c r="H14" s="54"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="131"/>
+      <c r="J14" s="129"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="14"/>
@@ -5131,35 +5131,35 @@
       <c r="I16" s="51"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104" t="s">
+      <c r="E17" s="130"/>
+      <c r="F17" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104" t="s">
+      <c r="G17" s="130"/>
+      <c r="H17" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="104"/>
-      <c r="J17" s="132" t="s">
+      <c r="I17" s="130"/>
+      <c r="J17" s="125" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1">
-      <c r="A18" s="107"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
+      <c r="A18" s="148"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="59" t="s">
         <v>20</v>
       </c>
@@ -5178,16 +5178,16 @@
       <c r="I18" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="133"/>
+      <c r="J18" s="126"/>
       <c r="L18" s="70" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="121">
+      <c r="B19" s="142">
         <v>2</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -5212,7 +5212,7 @@
       <c r="I19" s="64">
         <v>82.21</v>
       </c>
-      <c r="J19" s="135" t="s">
+      <c r="J19" s="132" t="s">
         <v>45</v>
       </c>
       <c r="L19" s="71">
@@ -5221,8 +5221,8 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="124"/>
-      <c r="B20" s="122"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="143"/>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
@@ -5241,15 +5241,15 @@
       <c r="I20" s="65">
         <v>82.21</v>
       </c>
-      <c r="J20" s="136"/>
+      <c r="J20" s="133"/>
       <c r="L20" s="71">
         <f t="shared" ref="L20:L30" si="0">(E20-G20)/E20</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1">
-      <c r="A21" s="124"/>
-      <c r="B21" s="123"/>
+      <c r="A21" s="145"/>
+      <c r="B21" s="144"/>
       <c r="C21" s="25" t="s">
         <v>36</v>
       </c>
@@ -5268,15 +5268,15 @@
       <c r="I21" s="67">
         <v>82.21</v>
       </c>
-      <c r="J21" s="136"/>
+      <c r="J21" s="133"/>
       <c r="L21" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="124"/>
-      <c r="B22" s="121">
+      <c r="A22" s="145"/>
+      <c r="B22" s="142">
         <v>3</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -5301,15 +5301,15 @@
       <c r="I22" s="64">
         <v>82.21</v>
       </c>
-      <c r="J22" s="136"/>
+      <c r="J22" s="133"/>
       <c r="L22" s="71">
         <f t="shared" si="0"/>
         <v>-0.87341949985951117</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="124"/>
-      <c r="B23" s="122"/>
+      <c r="A23" s="145"/>
+      <c r="B23" s="143"/>
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
@@ -5328,7 +5328,7 @@
       <c r="I23" s="65">
         <v>82.21</v>
       </c>
-      <c r="J23" s="136"/>
+      <c r="J23" s="133"/>
       <c r="K23" s="42"/>
       <c r="L23" s="71">
         <f t="shared" si="0"/>
@@ -5336,8 +5336,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1">
-      <c r="A24" s="124"/>
-      <c r="B24" s="123"/>
+      <c r="A24" s="145"/>
+      <c r="B24" s="144"/>
       <c r="C24" s="25" t="s">
         <v>36</v>
       </c>
@@ -5356,15 +5356,15 @@
       <c r="I24" s="67">
         <v>82.21</v>
       </c>
-      <c r="J24" s="136"/>
+      <c r="J24" s="133"/>
       <c r="L24" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="124"/>
-      <c r="B25" s="121">
+      <c r="A25" s="145"/>
+      <c r="B25" s="142">
         <v>4</v>
       </c>
       <c r="C25" s="26" t="s">
@@ -5389,15 +5389,15 @@
       <c r="I25" s="64">
         <v>82.21</v>
       </c>
-      <c r="J25" s="136"/>
+      <c r="J25" s="133"/>
       <c r="L25" s="71">
         <f t="shared" si="0"/>
         <v>-0.69828010373903993</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="124"/>
-      <c r="B26" s="122"/>
+      <c r="A26" s="145"/>
+      <c r="B26" s="143"/>
       <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
@@ -5416,15 +5416,15 @@
       <c r="I26" s="65">
         <v>82.21</v>
       </c>
-      <c r="J26" s="136"/>
+      <c r="J26" s="133"/>
       <c r="L26" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" thickBot="1">
-      <c r="A27" s="124"/>
-      <c r="B27" s="123"/>
+      <c r="A27" s="145"/>
+      <c r="B27" s="144"/>
       <c r="C27" s="25" t="s">
         <v>36</v>
       </c>
@@ -5443,15 +5443,15 @@
       <c r="I27" s="67">
         <v>82.21</v>
       </c>
-      <c r="J27" s="136"/>
+      <c r="J27" s="133"/>
       <c r="L27" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="124"/>
-      <c r="B28" s="121">
+      <c r="A28" s="145"/>
+      <c r="B28" s="142">
         <v>5</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -5476,15 +5476,15 @@
       <c r="I28" s="64">
         <v>82.21</v>
       </c>
-      <c r="J28" s="136"/>
+      <c r="J28" s="133"/>
       <c r="L28" s="71">
         <f t="shared" si="0"/>
         <v>-4.0594979857452744E-2</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="124"/>
-      <c r="B29" s="122"/>
+      <c r="A29" s="145"/>
+      <c r="B29" s="143"/>
       <c r="C29" s="2" t="s">
         <v>6</v>
       </c>
@@ -5503,15 +5503,15 @@
       <c r="I29" s="65">
         <v>82.21</v>
       </c>
-      <c r="J29" s="136"/>
+      <c r="J29" s="133"/>
       <c r="L29" s="71">
         <f>(E29-G29)/E29</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" thickBot="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="123"/>
+      <c r="A30" s="146"/>
+      <c r="B30" s="144"/>
       <c r="C30" s="25" t="s">
         <v>36</v>
       </c>
@@ -5530,7 +5530,7 @@
       <c r="I30" s="67">
         <v>82.21</v>
       </c>
-      <c r="J30" s="137"/>
+      <c r="J30" s="134"/>
       <c r="L30" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5541,35 +5541,35 @@
       <c r="I31" s="51"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="108" t="s">
+      <c r="B32" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="127" t="s">
+      <c r="C32" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="104" t="s">
+      <c r="D32" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104" t="s">
+      <c r="E32" s="130"/>
+      <c r="F32" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104" t="s">
+      <c r="G32" s="130"/>
+      <c r="H32" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="105"/>
-      <c r="J32" s="132" t="s">
+      <c r="I32" s="160"/>
+      <c r="J32" s="125" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" thickBot="1">
-      <c r="A33" s="107"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="128"/>
+      <c r="A33" s="148"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="136"/>
       <c r="D33" s="1" t="s">
         <v>20</v>
       </c>
@@ -5588,13 +5588,13 @@
       <c r="I33" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="133"/>
+      <c r="J33" s="126"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="110" t="s">
+      <c r="A34" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="109">
+      <c r="B34" s="149">
         <v>2</v>
       </c>
       <c r="C34" s="26" t="s">
@@ -5606,13 +5606,13 @@
       <c r="G34" s="40"/>
       <c r="H34" s="57"/>
       <c r="I34" s="58"/>
-      <c r="J34" s="129" t="s">
+      <c r="J34" s="127" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="111"/>
-      <c r="B35" s="84"/>
+      <c r="A35" s="140"/>
+      <c r="B35" s="112"/>
       <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
@@ -5622,11 +5622,11 @@
       <c r="G35" s="37"/>
       <c r="H35" s="55"/>
       <c r="I35" s="52"/>
-      <c r="J35" s="130"/>
+      <c r="J35" s="128"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="111"/>
-      <c r="B36" s="84"/>
+      <c r="A36" s="140"/>
+      <c r="B36" s="112"/>
       <c r="C36" s="2" t="s">
         <v>36</v>
       </c>
@@ -5636,11 +5636,11 @@
       <c r="G36" s="37"/>
       <c r="H36" s="55"/>
       <c r="I36" s="52"/>
-      <c r="J36" s="130"/>
+      <c r="J36" s="128"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="111"/>
-      <c r="B37" s="84">
+      <c r="A37" s="140"/>
+      <c r="B37" s="112">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -5652,11 +5652,11 @@
       <c r="G37" s="37"/>
       <c r="H37" s="55"/>
       <c r="I37" s="52"/>
-      <c r="J37" s="130"/>
+      <c r="J37" s="128"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="111"/>
-      <c r="B38" s="84"/>
+      <c r="A38" s="140"/>
+      <c r="B38" s="112"/>
       <c r="C38" s="2" t="s">
         <v>6</v>
       </c>
@@ -5666,11 +5666,11 @@
       <c r="G38" s="37"/>
       <c r="H38" s="55"/>
       <c r="I38" s="52"/>
-      <c r="J38" s="130"/>
+      <c r="J38" s="128"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="111"/>
-      <c r="B39" s="84"/>
+      <c r="A39" s="140"/>
+      <c r="B39" s="112"/>
       <c r="C39" s="2" t="s">
         <v>36</v>
       </c>
@@ -5680,11 +5680,11 @@
       <c r="G39" s="37"/>
       <c r="H39" s="55"/>
       <c r="I39" s="52"/>
-      <c r="J39" s="130"/>
+      <c r="J39" s="128"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="111"/>
-      <c r="B40" s="84">
+      <c r="A40" s="140"/>
+      <c r="B40" s="112">
         <v>4</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -5696,11 +5696,11 @@
       <c r="G40" s="37"/>
       <c r="H40" s="55"/>
       <c r="I40" s="52"/>
-      <c r="J40" s="130"/>
+      <c r="J40" s="128"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="111"/>
-      <c r="B41" s="84"/>
+      <c r="A41" s="140"/>
+      <c r="B41" s="112"/>
       <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
@@ -5710,11 +5710,11 @@
       <c r="G41" s="37"/>
       <c r="H41" s="55"/>
       <c r="I41" s="52"/>
-      <c r="J41" s="130"/>
+      <c r="J41" s="128"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="111"/>
-      <c r="B42" s="84"/>
+      <c r="A42" s="140"/>
+      <c r="B42" s="112"/>
       <c r="C42" s="2" t="s">
         <v>36</v>
       </c>
@@ -5724,11 +5724,11 @@
       <c r="G42" s="37"/>
       <c r="H42" s="55"/>
       <c r="I42" s="52"/>
-      <c r="J42" s="130"/>
+      <c r="J42" s="128"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="111"/>
-      <c r="B43" s="84">
+      <c r="A43" s="140"/>
+      <c r="B43" s="112">
         <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -5740,11 +5740,11 @@
       <c r="G43" s="37"/>
       <c r="H43" s="55"/>
       <c r="I43" s="52"/>
-      <c r="J43" s="130"/>
+      <c r="J43" s="128"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="111"/>
-      <c r="B44" s="84"/>
+      <c r="A44" s="140"/>
+      <c r="B44" s="112"/>
       <c r="C44" s="2" t="s">
         <v>6</v>
       </c>
@@ -5754,11 +5754,11 @@
       <c r="G44" s="37"/>
       <c r="H44" s="55"/>
       <c r="I44" s="52"/>
-      <c r="J44" s="130"/>
+      <c r="J44" s="128"/>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1">
-      <c r="A45" s="112"/>
-      <c r="B45" s="126"/>
+      <c r="A45" s="141"/>
+      <c r="B45" s="138"/>
       <c r="C45" s="25" t="s">
         <v>36</v>
       </c>
@@ -5768,7 +5768,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="56"/>
       <c r="I45" s="53"/>
-      <c r="J45" s="131"/>
+      <c r="J45" s="129"/>
     </row>
     <row r="46" spans="1:10">
       <c r="H46" s="51"/>
@@ -5783,35 +5783,35 @@
       <c r="I48" s="51"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="108" t="s">
+      <c r="B49" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="127" t="s">
+      <c r="C49" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="104" t="s">
+      <c r="D49" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104" t="s">
+      <c r="E49" s="130"/>
+      <c r="F49" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="104"/>
-      <c r="H49" s="104" t="s">
+      <c r="G49" s="130"/>
+      <c r="H49" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="I49" s="105"/>
-      <c r="J49" s="132" t="s">
+      <c r="I49" s="160"/>
+      <c r="J49" s="125" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15" thickBot="1">
-      <c r="A50" s="107"/>
-      <c r="B50" s="92"/>
-      <c r="C50" s="128"/>
+      <c r="A50" s="148"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="136"/>
       <c r="D50" s="1" t="s">
         <v>20</v>
       </c>
@@ -5830,16 +5830,16 @@
       <c r="I50" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J50" s="133"/>
+      <c r="J50" s="126"/>
       <c r="L50" s="70" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="109">
+      <c r="B51" s="149">
         <v>2</v>
       </c>
       <c r="C51" s="26" t="s">
@@ -5864,7 +5864,7 @@
       <c r="I51" s="2">
         <v>50.8</v>
       </c>
-      <c r="J51" s="134" t="s">
+      <c r="J51" s="131" t="s">
         <v>46</v>
       </c>
       <c r="L51" s="71">
@@ -5873,8 +5873,8 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="111"/>
-      <c r="B52" s="84"/>
+      <c r="A52" s="140"/>
+      <c r="B52" s="112"/>
       <c r="C52" s="2" t="s">
         <v>6</v>
       </c>
@@ -5884,12 +5884,12 @@
       <c r="G52" s="33"/>
       <c r="H52" s="16"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="130"/>
+      <c r="J52" s="128"/>
       <c r="L52" s="71"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="111"/>
-      <c r="B53" s="84"/>
+      <c r="A53" s="140"/>
+      <c r="B53" s="112"/>
       <c r="C53" s="2" t="s">
         <v>36</v>
       </c>
@@ -5899,12 +5899,12 @@
       <c r="G53" s="33"/>
       <c r="H53" s="16"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="130"/>
+      <c r="J53" s="128"/>
       <c r="L53" s="71"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="111"/>
-      <c r="B54" s="84">
+      <c r="A54" s="140"/>
+      <c r="B54" s="112">
         <v>3</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -5929,15 +5929,15 @@
       <c r="I54" s="2">
         <v>50.8</v>
       </c>
-      <c r="J54" s="130"/>
+      <c r="J54" s="128"/>
       <c r="L54" s="71">
         <f t="shared" ref="L54:L60" si="1">(E54-G54)/E54</f>
         <v>0.13141275196816335</v>
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="111"/>
-      <c r="B55" s="84"/>
+      <c r="A55" s="140"/>
+      <c r="B55" s="112"/>
       <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
@@ -5947,12 +5947,12 @@
       <c r="G55" s="33"/>
       <c r="H55" s="16"/>
       <c r="I55" s="2"/>
-      <c r="J55" s="130"/>
+      <c r="J55" s="128"/>
       <c r="L55" s="71"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="111"/>
-      <c r="B56" s="84"/>
+      <c r="A56" s="140"/>
+      <c r="B56" s="112"/>
       <c r="C56" s="2" t="s">
         <v>36</v>
       </c>
@@ -5962,12 +5962,12 @@
       <c r="G56" s="33"/>
       <c r="H56" s="16"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="130"/>
+      <c r="J56" s="128"/>
       <c r="L56" s="71"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="111"/>
-      <c r="B57" s="84">
+      <c r="A57" s="140"/>
+      <c r="B57" s="112">
         <v>4</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -5992,15 +5992,15 @@
       <c r="I57" s="2">
         <v>50.8</v>
       </c>
-      <c r="J57" s="130"/>
+      <c r="J57" s="128"/>
       <c r="L57" s="71">
         <f t="shared" si="1"/>
         <v>1.7754377372351552E-3</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="111"/>
-      <c r="B58" s="84"/>
+      <c r="A58" s="140"/>
+      <c r="B58" s="112"/>
       <c r="C58" s="2" t="s">
         <v>6</v>
       </c>
@@ -6010,12 +6010,12 @@
       <c r="G58" s="33"/>
       <c r="H58" s="16"/>
       <c r="I58" s="2"/>
-      <c r="J58" s="130"/>
+      <c r="J58" s="128"/>
       <c r="L58" s="71"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="111"/>
-      <c r="B59" s="84"/>
+      <c r="A59" s="140"/>
+      <c r="B59" s="112"/>
       <c r="C59" s="2" t="s">
         <v>36</v>
       </c>
@@ -6025,12 +6025,12 @@
       <c r="G59" s="33"/>
       <c r="H59" s="16"/>
       <c r="I59" s="2"/>
-      <c r="J59" s="130"/>
+      <c r="J59" s="128"/>
       <c r="L59" s="71"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="111"/>
-      <c r="B60" s="84">
+      <c r="A60" s="140"/>
+      <c r="B60" s="112">
         <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -6055,15 +6055,15 @@
       <c r="I60" s="2">
         <v>50.8</v>
       </c>
-      <c r="J60" s="130"/>
+      <c r="J60" s="128"/>
       <c r="L60" s="71">
         <f t="shared" si="1"/>
         <v>6.8762102039897258E-2</v>
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="111"/>
-      <c r="B61" s="84"/>
+      <c r="A61" s="140"/>
+      <c r="B61" s="112"/>
       <c r="C61" s="2" t="s">
         <v>6</v>
       </c>
@@ -6073,12 +6073,12 @@
       <c r="G61" s="33"/>
       <c r="H61" s="16"/>
       <c r="I61" s="2"/>
-      <c r="J61" s="130"/>
+      <c r="J61" s="128"/>
       <c r="L61" s="71"/>
     </row>
     <row r="62" spans="1:12" ht="15" thickBot="1">
-      <c r="A62" s="112"/>
-      <c r="B62" s="126"/>
+      <c r="A62" s="141"/>
+      <c r="B62" s="138"/>
       <c r="C62" s="25" t="s">
         <v>36</v>
       </c>
@@ -6088,40 +6088,40 @@
       <c r="G62" s="34"/>
       <c r="H62" s="54"/>
       <c r="I62" s="25"/>
-      <c r="J62" s="131"/>
+      <c r="J62" s="129"/>
       <c r="L62" s="71"/>
     </row>
     <row r="66" spans="1:12" ht="15" thickBot="1"/>
     <row r="67" spans="1:12">
-      <c r="A67" s="106" t="s">
+      <c r="A67" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="108" t="s">
+      <c r="B67" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="C67" s="127" t="s">
+      <c r="C67" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="104" t="s">
+      <c r="D67" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="E67" s="104"/>
-      <c r="F67" s="104" t="s">
+      <c r="E67" s="130"/>
+      <c r="F67" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="G67" s="104"/>
-      <c r="H67" s="104" t="s">
+      <c r="G67" s="130"/>
+      <c r="H67" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="I67" s="105"/>
-      <c r="J67" s="132" t="s">
+      <c r="I67" s="160"/>
+      <c r="J67" s="125" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15" thickBot="1">
-      <c r="A68" s="107"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="128"/>
+      <c r="A68" s="148"/>
+      <c r="B68" s="116"/>
+      <c r="C68" s="136"/>
       <c r="D68" s="1" t="s">
         <v>20</v>
       </c>
@@ -6140,16 +6140,16 @@
       <c r="I68" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J68" s="133"/>
+      <c r="J68" s="126"/>
       <c r="L68" s="70" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="110" t="s">
+      <c r="A69" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="B69" s="109">
+      <c r="B69" s="149">
         <v>2</v>
       </c>
       <c r="C69" s="26" t="s">
@@ -6166,7 +6166,7 @@
       <c r="I69" s="2">
         <v>53.71</v>
       </c>
-      <c r="J69" s="134" t="s">
+      <c r="J69" s="131" t="s">
         <v>45</v>
       </c>
       <c r="L69" s="71" t="e">
@@ -6175,8 +6175,8 @@
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="111"/>
-      <c r="B70" s="84"/>
+      <c r="A70" s="140"/>
+      <c r="B70" s="112"/>
       <c r="C70" s="2" t="s">
         <v>6</v>
       </c>
@@ -6186,12 +6186,12 @@
       <c r="G70" s="33"/>
       <c r="H70" s="16"/>
       <c r="I70" s="2"/>
-      <c r="J70" s="130"/>
+      <c r="J70" s="128"/>
       <c r="L70" s="71"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="111"/>
-      <c r="B71" s="84"/>
+      <c r="A71" s="140"/>
+      <c r="B71" s="112"/>
       <c r="C71" s="2" t="s">
         <v>36</v>
       </c>
@@ -6201,12 +6201,12 @@
       <c r="G71" s="33"/>
       <c r="H71" s="16"/>
       <c r="I71" s="2"/>
-      <c r="J71" s="130"/>
+      <c r="J71" s="128"/>
       <c r="L71" s="71"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="111"/>
-      <c r="B72" s="84">
+      <c r="A72" s="140"/>
+      <c r="B72" s="112">
         <v>3</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -6223,15 +6223,15 @@
       <c r="I72" s="2">
         <v>53.71</v>
       </c>
-      <c r="J72" s="130"/>
+      <c r="J72" s="128"/>
       <c r="L72" s="71" t="e">
         <f t="shared" ref="L72" si="2">(E72-G72)/E72</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="111"/>
-      <c r="B73" s="84"/>
+      <c r="A73" s="140"/>
+      <c r="B73" s="112"/>
       <c r="C73" s="2" t="s">
         <v>6</v>
       </c>
@@ -6241,12 +6241,12 @@
       <c r="G73" s="33"/>
       <c r="H73" s="16"/>
       <c r="I73" s="2"/>
-      <c r="J73" s="130"/>
+      <c r="J73" s="128"/>
       <c r="L73" s="71"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="111"/>
-      <c r="B74" s="84"/>
+      <c r="A74" s="140"/>
+      <c r="B74" s="112"/>
       <c r="C74" s="2" t="s">
         <v>36</v>
       </c>
@@ -6256,12 +6256,12 @@
       <c r="G74" s="33"/>
       <c r="H74" s="16"/>
       <c r="I74" s="2"/>
-      <c r="J74" s="130"/>
+      <c r="J74" s="128"/>
       <c r="L74" s="71"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="111"/>
-      <c r="B75" s="84">
+      <c r="A75" s="140"/>
+      <c r="B75" s="112">
         <v>4</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -6286,15 +6286,15 @@
       <c r="I75" s="2">
         <v>53.71</v>
       </c>
-      <c r="J75" s="130"/>
+      <c r="J75" s="128"/>
       <c r="L75" s="71">
         <f t="shared" ref="L75" si="3">(E75-G75)/E75</f>
         <v>-1.9426773648263824</v>
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="111"/>
-      <c r="B76" s="84"/>
+      <c r="A76" s="140"/>
+      <c r="B76" s="112"/>
       <c r="C76" s="2" t="s">
         <v>6</v>
       </c>
@@ -6304,12 +6304,12 @@
       <c r="G76" s="33"/>
       <c r="H76" s="16"/>
       <c r="I76" s="2"/>
-      <c r="J76" s="130"/>
+      <c r="J76" s="128"/>
       <c r="L76" s="71"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="111"/>
-      <c r="B77" s="84"/>
+      <c r="A77" s="140"/>
+      <c r="B77" s="112"/>
       <c r="C77" s="2" t="s">
         <v>36</v>
       </c>
@@ -6319,12 +6319,12 @@
       <c r="G77" s="33"/>
       <c r="H77" s="16"/>
       <c r="I77" s="2"/>
-      <c r="J77" s="130"/>
+      <c r="J77" s="128"/>
       <c r="L77" s="71"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="111"/>
-      <c r="B78" s="84">
+      <c r="A78" s="140"/>
+      <c r="B78" s="112">
         <v>5</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -6349,15 +6349,15 @@
       <c r="I78" s="2">
         <v>53.71</v>
       </c>
-      <c r="J78" s="130"/>
+      <c r="J78" s="128"/>
       <c r="L78" s="71">
         <f t="shared" ref="L78" si="4">(E78-G78)/E78</f>
         <v>-1.7795911866206529</v>
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="111"/>
-      <c r="B79" s="84"/>
+      <c r="A79" s="140"/>
+      <c r="B79" s="112"/>
       <c r="C79" s="2" t="s">
         <v>6</v>
       </c>
@@ -6367,12 +6367,12 @@
       <c r="G79" s="33"/>
       <c r="H79" s="16"/>
       <c r="I79" s="2"/>
-      <c r="J79" s="130"/>
+      <c r="J79" s="128"/>
       <c r="L79" s="71"/>
     </row>
     <row r="80" spans="1:12" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A80" s="112"/>
-      <c r="B80" s="126"/>
+      <c r="A80" s="141"/>
+      <c r="B80" s="138"/>
       <c r="C80" s="25" t="s">
         <v>36</v>
       </c>
@@ -6382,37 +6382,37 @@
       <c r="G80" s="34"/>
       <c r="H80" s="54"/>
       <c r="I80" s="25"/>
-      <c r="J80" s="131"/>
+      <c r="J80" s="129"/>
       <c r="L80" s="71"/>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1"/>
     <row r="84" spans="1:10">
-      <c r="A84" s="106"/>
-      <c r="B84" s="108"/>
-      <c r="C84" s="127"/>
-      <c r="D84" s="104"/>
-      <c r="E84" s="104"/>
-      <c r="F84" s="104"/>
-      <c r="G84" s="104"/>
-      <c r="H84" s="104"/>
-      <c r="I84" s="105"/>
-      <c r="J84" s="132"/>
+      <c r="A84" s="147"/>
+      <c r="B84" s="137"/>
+      <c r="C84" s="135"/>
+      <c r="D84" s="130"/>
+      <c r="E84" s="130"/>
+      <c r="F84" s="130"/>
+      <c r="G84" s="130"/>
+      <c r="H84" s="130"/>
+      <c r="I84" s="160"/>
+      <c r="J84" s="125"/>
     </row>
     <row r="85" spans="1:10" ht="15" thickBot="1">
-      <c r="A85" s="107"/>
-      <c r="B85" s="92"/>
-      <c r="C85" s="128"/>
+      <c r="A85" s="148"/>
+      <c r="B85" s="116"/>
+      <c r="C85" s="136"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="24"/>
-      <c r="J85" s="133"/>
+      <c r="J85" s="126"/>
     </row>
     <row r="86" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A86" s="138"/>
-      <c r="B86" s="84"/>
+      <c r="A86" s="161"/>
+      <c r="B86" s="112"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="33"/>
@@ -6420,11 +6420,11 @@
       <c r="G86" s="33"/>
       <c r="H86" s="16"/>
       <c r="I86" s="2"/>
-      <c r="J86" s="141"/>
+      <c r="J86" s="164"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="139"/>
-      <c r="B87" s="84"/>
+      <c r="A87" s="162"/>
+      <c r="B87" s="112"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="33"/>
@@ -6432,11 +6432,11 @@
       <c r="G87" s="33"/>
       <c r="H87" s="16"/>
       <c r="I87" s="2"/>
-      <c r="J87" s="142"/>
+      <c r="J87" s="165"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="139"/>
-      <c r="B88" s="84"/>
+      <c r="A88" s="162"/>
+      <c r="B88" s="112"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="33"/>
@@ -6444,11 +6444,11 @@
       <c r="G88" s="33"/>
       <c r="H88" s="16"/>
       <c r="I88" s="2"/>
-      <c r="J88" s="142"/>
+      <c r="J88" s="165"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="139"/>
-      <c r="B89" s="84"/>
+      <c r="A89" s="162"/>
+      <c r="B89" s="112"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="33"/>
@@ -6456,11 +6456,11 @@
       <c r="G89" s="33"/>
       <c r="H89" s="16"/>
       <c r="I89" s="2"/>
-      <c r="J89" s="142"/>
+      <c r="J89" s="165"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="139"/>
-      <c r="B90" s="84"/>
+      <c r="A90" s="162"/>
+      <c r="B90" s="112"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="21"/>
@@ -6468,11 +6468,11 @@
       <c r="G90" s="33"/>
       <c r="H90" s="16"/>
       <c r="I90" s="2"/>
-      <c r="J90" s="142"/>
+      <c r="J90" s="165"/>
     </row>
     <row r="91" spans="1:10" ht="15" thickBot="1">
-      <c r="A91" s="140"/>
-      <c r="B91" s="126"/>
+      <c r="A91" s="163"/>
+      <c r="B91" s="138"/>
       <c r="C91" s="25"/>
       <c r="D91" s="25"/>
       <c r="E91" s="50"/>
@@ -6480,7 +6480,7 @@
       <c r="G91" s="34"/>
       <c r="H91" s="54"/>
       <c r="I91" s="25"/>
-      <c r="J91" s="143"/>
+      <c r="J91" s="166"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="72"/>
@@ -6508,45 +6508,27 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="J51:J62"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="A34:A45"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="J34:J45"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A19:A30"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="J19:J30"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="J86:J91"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="J69:J80"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
     <mergeCell ref="H67:I67"/>
     <mergeCell ref="J67:J68"/>
     <mergeCell ref="A69:A80"/>
@@ -6563,27 +6545,45 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="J69:J80"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="J86:J91"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A19:A30"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="J19:J30"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="J34:J45"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="J51:J62"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L19:L30">
@@ -6676,8 +6676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881F5FB0-D732-49A9-B3C6-1FF18F52D4DF}">
   <dimension ref="A3:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:J65"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6700,35 +6700,35 @@
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1"/>
     <row r="5" spans="1:10" ht="18">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104" t="s">
+      <c r="E5" s="130"/>
+      <c r="F5" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104" t="s">
+      <c r="G5" s="130"/>
+      <c r="H5" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="104"/>
-      <c r="J5" s="132" t="s">
+      <c r="I5" s="130"/>
+      <c r="J5" s="125" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1">
-      <c r="A6" s="107"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
+      <c r="A6" s="148"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
       <c r="D6" s="59" t="s">
         <v>20</v>
       </c>
@@ -6747,13 +6747,13 @@
       <c r="I6" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="133"/>
+      <c r="J6" s="126"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="121">
+      <c r="B7" s="142">
         <v>2</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -6778,13 +6778,13 @@
       <c r="I7" s="64">
         <v>82.21</v>
       </c>
-      <c r="J7" s="135" t="s">
+      <c r="J7" s="132" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="124"/>
-      <c r="B8" s="122"/>
+      <c r="A8" s="145"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -6799,11 +6799,11 @@
       <c r="I8" s="65">
         <v>82.21</v>
       </c>
-      <c r="J8" s="136"/>
+      <c r="J8" s="133"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1">
-      <c r="A9" s="124"/>
-      <c r="B9" s="123"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="144"/>
       <c r="C9" s="25" t="s">
         <v>36</v>
       </c>
@@ -6818,11 +6818,11 @@
       <c r="I9" s="67">
         <v>82.21</v>
       </c>
-      <c r="J9" s="136"/>
+      <c r="J9" s="133"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="124"/>
-      <c r="B10" s="121">
+      <c r="A10" s="145"/>
+      <c r="B10" s="142">
         <v>3</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -6847,11 +6847,11 @@
       <c r="I10" s="64">
         <v>82.21</v>
       </c>
-      <c r="J10" s="136"/>
+      <c r="J10" s="133"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="124"/>
-      <c r="B11" s="122"/>
+      <c r="A11" s="145"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
@@ -6866,11 +6866,11 @@
       <c r="I11" s="65">
         <v>82.21</v>
       </c>
-      <c r="J11" s="136"/>
+      <c r="J11" s="133"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1">
-      <c r="A12" s="124"/>
-      <c r="B12" s="123"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="25" t="s">
         <v>36</v>
       </c>
@@ -6885,11 +6885,11 @@
       <c r="I12" s="67">
         <v>82.21</v>
       </c>
-      <c r="J12" s="136"/>
+      <c r="J12" s="133"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="124"/>
-      <c r="B13" s="121">
+      <c r="A13" s="145"/>
+      <c r="B13" s="142">
         <v>4</v>
       </c>
       <c r="C13" s="26" t="s">
@@ -6914,11 +6914,11 @@
       <c r="I13" s="64">
         <v>82.21</v>
       </c>
-      <c r="J13" s="136"/>
+      <c r="J13" s="133"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="124"/>
-      <c r="B14" s="122"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="143"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -6933,11 +6933,11 @@
       <c r="I14" s="65">
         <v>82.21</v>
       </c>
-      <c r="J14" s="136"/>
+      <c r="J14" s="133"/>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
-      <c r="A15" s="124"/>
-      <c r="B15" s="123"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="144"/>
       <c r="C15" s="25" t="s">
         <v>36</v>
       </c>
@@ -6952,11 +6952,11 @@
       <c r="I15" s="67">
         <v>82.21</v>
       </c>
-      <c r="J15" s="136"/>
+      <c r="J15" s="133"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="124"/>
-      <c r="B16" s="121">
+      <c r="A16" s="145"/>
+      <c r="B16" s="142">
         <v>5</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -6981,11 +6981,11 @@
       <c r="I16" s="64">
         <v>82.21</v>
       </c>
-      <c r="J16" s="136"/>
+      <c r="J16" s="133"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="124"/>
-      <c r="B17" s="122"/>
+      <c r="A17" s="145"/>
+      <c r="B17" s="143"/>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
@@ -7000,11 +7000,11 @@
       <c r="I17" s="65">
         <v>82.21</v>
       </c>
-      <c r="J17" s="136"/>
+      <c r="J17" s="133"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1">
-      <c r="A18" s="125"/>
-      <c r="B18" s="123"/>
+      <c r="A18" s="146"/>
+      <c r="B18" s="144"/>
       <c r="C18" s="25" t="s">
         <v>36</v>
       </c>
@@ -7019,7 +7019,7 @@
       <c r="I18" s="67">
         <v>82.21</v>
       </c>
-      <c r="J18" s="137"/>
+      <c r="J18" s="134"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
@@ -7028,35 +7028,35 @@
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1"/>
     <row r="23" spans="1:12" ht="18">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="104" t="s">
+      <c r="D23" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104" t="s">
+      <c r="E23" s="130"/>
+      <c r="F23" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104" t="s">
+      <c r="G23" s="130"/>
+      <c r="H23" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="104"/>
-      <c r="J23" s="132" t="s">
+      <c r="I23" s="130"/>
+      <c r="J23" s="125" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1">
-      <c r="A24" s="107"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
+      <c r="A24" s="148"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
       <c r="D24" s="59" t="s">
         <v>54</v>
       </c>
@@ -7075,16 +7075,16 @@
       <c r="I24" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="133"/>
+      <c r="J24" s="126"/>
       <c r="L24" s="70" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="124" t="s">
+      <c r="A25" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="121">
+      <c r="B25" s="142">
         <v>2</v>
       </c>
       <c r="C25" s="26" t="s">
@@ -7109,7 +7109,7 @@
       <c r="I25" s="64">
         <v>82.21</v>
       </c>
-      <c r="J25" s="135" t="s">
+      <c r="J25" s="132" t="s">
         <v>45</v>
       </c>
       <c r="L25" s="71">
@@ -7118,8 +7118,8 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="124"/>
-      <c r="B26" s="122"/>
+      <c r="A26" s="145"/>
+      <c r="B26" s="143"/>
       <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
@@ -7134,12 +7134,12 @@
       <c r="I26" s="65">
         <v>82.21</v>
       </c>
-      <c r="J26" s="136"/>
+      <c r="J26" s="133"/>
       <c r="L26" s="71"/>
     </row>
     <row r="27" spans="1:12" ht="15" thickBot="1">
-      <c r="A27" s="124"/>
-      <c r="B27" s="123"/>
+      <c r="A27" s="145"/>
+      <c r="B27" s="144"/>
       <c r="C27" s="25" t="s">
         <v>36</v>
       </c>
@@ -7154,12 +7154,12 @@
       <c r="I27" s="67">
         <v>82.21</v>
       </c>
-      <c r="J27" s="136"/>
+      <c r="J27" s="133"/>
       <c r="L27" s="71"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="124"/>
-      <c r="B28" s="121">
+      <c r="A28" s="145"/>
+      <c r="B28" s="142">
         <v>3</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -7184,15 +7184,15 @@
       <c r="I28" s="64">
         <v>82.21</v>
       </c>
-      <c r="J28" s="136"/>
+      <c r="J28" s="133"/>
       <c r="L28" s="71">
         <f t="shared" ref="L28" si="0">(E28-G28)/E28</f>
         <v>0.2908530318602261</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="124"/>
-      <c r="B29" s="122"/>
+      <c r="A29" s="145"/>
+      <c r="B29" s="143"/>
       <c r="C29" s="2" t="s">
         <v>6</v>
       </c>
@@ -7207,12 +7207,12 @@
       <c r="I29" s="65">
         <v>82.21</v>
       </c>
-      <c r="J29" s="136"/>
+      <c r="J29" s="133"/>
       <c r="L29" s="71"/>
     </row>
     <row r="30" spans="1:12" ht="15" thickBot="1">
-      <c r="A30" s="124"/>
-      <c r="B30" s="123"/>
+      <c r="A30" s="145"/>
+      <c r="B30" s="144"/>
       <c r="C30" s="25" t="s">
         <v>36</v>
       </c>
@@ -7227,12 +7227,12 @@
       <c r="I30" s="67">
         <v>82.21</v>
       </c>
-      <c r="J30" s="136"/>
+      <c r="J30" s="133"/>
       <c r="L30" s="71"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="124"/>
-      <c r="B31" s="121">
+      <c r="A31" s="145"/>
+      <c r="B31" s="142">
         <v>4</v>
       </c>
       <c r="C31" s="26" t="s">
@@ -7257,15 +7257,15 @@
       <c r="I31" s="64">
         <v>82.21</v>
       </c>
-      <c r="J31" s="136"/>
+      <c r="J31" s="133"/>
       <c r="L31" s="71">
         <f t="shared" ref="L31" si="1">(E31-G31)/E31</f>
         <v>0.20276872964169382</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="124"/>
-      <c r="B32" s="122"/>
+      <c r="A32" s="145"/>
+      <c r="B32" s="143"/>
       <c r="C32" s="2" t="s">
         <v>6</v>
       </c>
@@ -7279,12 +7279,12 @@
       <c r="I32" s="65">
         <v>82.21</v>
       </c>
-      <c r="J32" s="136"/>
+      <c r="J32" s="133"/>
       <c r="L32" s="71"/>
     </row>
     <row r="33" spans="1:12" ht="15" thickBot="1">
-      <c r="A33" s="124"/>
-      <c r="B33" s="123"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="144"/>
       <c r="C33" s="25" t="s">
         <v>36</v>
       </c>
@@ -7299,12 +7299,12 @@
       <c r="I33" s="67">
         <v>82.21</v>
       </c>
-      <c r="J33" s="136"/>
+      <c r="J33" s="133"/>
       <c r="L33" s="71"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="124"/>
-      <c r="B34" s="121">
+      <c r="A34" s="145"/>
+      <c r="B34" s="142">
         <v>5</v>
       </c>
       <c r="C34" s="26" t="s">
@@ -7329,15 +7329,15 @@
       <c r="I34" s="64">
         <v>82.21</v>
       </c>
-      <c r="J34" s="136"/>
+      <c r="J34" s="133"/>
       <c r="L34" s="71">
         <f t="shared" ref="L34" si="2">(E34-G34)/E34</f>
         <v>0.21088746569075939</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="124"/>
-      <c r="B35" s="122"/>
+      <c r="A35" s="145"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
@@ -7352,12 +7352,12 @@
       <c r="I35" s="65">
         <v>82.21</v>
       </c>
-      <c r="J35" s="136"/>
+      <c r="J35" s="133"/>
       <c r="L35" s="71"/>
     </row>
     <row r="36" spans="1:12" ht="15" thickBot="1">
-      <c r="A36" s="125"/>
-      <c r="B36" s="123"/>
+      <c r="A36" s="146"/>
+      <c r="B36" s="144"/>
       <c r="C36" s="25" t="s">
         <v>36</v>
       </c>
@@ -7372,40 +7372,40 @@
       <c r="I36" s="67">
         <v>82.21</v>
       </c>
-      <c r="J36" s="137"/>
+      <c r="J36" s="134"/>
       <c r="L36" s="71"/>
     </row>
     <row r="39" spans="1:12" ht="15" thickBot="1"/>
     <row r="40" spans="1:12">
-      <c r="A40" s="106" t="s">
+      <c r="A40" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="108" t="s">
+      <c r="B40" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="127" t="s">
+      <c r="C40" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="104" t="s">
+      <c r="D40" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104" t="s">
+      <c r="E40" s="130"/>
+      <c r="F40" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104" t="s">
+      <c r="G40" s="130"/>
+      <c r="H40" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="105"/>
-      <c r="J40" s="132" t="s">
+      <c r="I40" s="160"/>
+      <c r="J40" s="125" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15" thickBot="1">
-      <c r="A41" s="107"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="128"/>
+      <c r="A41" s="148"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="136"/>
       <c r="D41" s="1" t="s">
         <v>20</v>
       </c>
@@ -7424,13 +7424,13 @@
       <c r="I41" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J41" s="133"/>
+      <c r="J41" s="126"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="138" t="s">
+      <c r="A42" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="84">
+      <c r="B42" s="112">
         <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -7455,13 +7455,13 @@
       <c r="I42" s="2">
         <v>53.71</v>
       </c>
-      <c r="J42" s="141" t="s">
+      <c r="J42" s="164" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="139"/>
-      <c r="B43" s="84"/>
+      <c r="A43" s="162"/>
+      <c r="B43" s="112"/>
       <c r="C43" s="2" t="s">
         <v>6</v>
       </c>
@@ -7471,11 +7471,11 @@
       <c r="G43" s="33"/>
       <c r="H43" s="16"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="142"/>
+      <c r="J43" s="165"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="139"/>
-      <c r="B44" s="84"/>
+      <c r="A44" s="162"/>
+      <c r="B44" s="112"/>
       <c r="C44" s="2" t="s">
         <v>36</v>
       </c>
@@ -7485,11 +7485,11 @@
       <c r="G44" s="33"/>
       <c r="H44" s="16"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="142"/>
+      <c r="J44" s="165"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="139"/>
-      <c r="B45" s="84">
+      <c r="A45" s="162"/>
+      <c r="B45" s="112">
         <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -7514,11 +7514,11 @@
       <c r="I45" s="2">
         <v>53.71</v>
       </c>
-      <c r="J45" s="142"/>
+      <c r="J45" s="165"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="139"/>
-      <c r="B46" s="84"/>
+      <c r="A46" s="162"/>
+      <c r="B46" s="112"/>
       <c r="C46" s="2" t="s">
         <v>6</v>
       </c>
@@ -7528,11 +7528,11 @@
       <c r="G46" s="33"/>
       <c r="H46" s="16"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="142"/>
+      <c r="J46" s="165"/>
     </row>
     <row r="47" spans="1:12" ht="15" thickBot="1">
-      <c r="A47" s="140"/>
-      <c r="B47" s="126"/>
+      <c r="A47" s="163"/>
+      <c r="B47" s="138"/>
       <c r="C47" s="25" t="s">
         <v>36</v>
       </c>
@@ -7542,7 +7542,7 @@
       <c r="G47" s="34"/>
       <c r="H47" s="54"/>
       <c r="I47" s="25"/>
-      <c r="J47" s="143"/>
+      <c r="J47" s="166"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
@@ -7551,35 +7551,35 @@
     </row>
     <row r="51" spans="1:12" ht="15" thickBot="1"/>
     <row r="52" spans="1:12" ht="18">
-      <c r="A52" s="106" t="s">
+      <c r="A52" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="108" t="s">
+      <c r="B52" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="108" t="s">
+      <c r="C52" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="104" t="s">
+      <c r="D52" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="104"/>
-      <c r="F52" s="104" t="s">
+      <c r="E52" s="130"/>
+      <c r="F52" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="G52" s="104"/>
-      <c r="H52" s="104" t="s">
+      <c r="G52" s="130"/>
+      <c r="H52" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="I52" s="104"/>
-      <c r="J52" s="132" t="s">
+      <c r="I52" s="130"/>
+      <c r="J52" s="125" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15" thickBot="1">
-      <c r="A53" s="107"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
+      <c r="A53" s="148"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="114"/>
       <c r="D53" s="59" t="s">
         <v>54</v>
       </c>
@@ -7598,16 +7598,16 @@
       <c r="I53" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="J53" s="133"/>
+      <c r="J53" s="126"/>
       <c r="L53" s="70" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="124" t="s">
+      <c r="A54" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="121">
+      <c r="B54" s="142">
         <v>2</v>
       </c>
       <c r="C54" s="26" t="s">
@@ -7628,7 +7628,7 @@
       <c r="I54" s="64">
         <v>82.21</v>
       </c>
-      <c r="J54" s="135" t="s">
+      <c r="J54" s="132" t="s">
         <v>65</v>
       </c>
       <c r="L54" s="71">
@@ -7637,8 +7637,8 @@
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="124"/>
-      <c r="B55" s="122"/>
+      <c r="A55" s="145"/>
+      <c r="B55" s="143"/>
       <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
@@ -7653,12 +7653,12 @@
       <c r="I55" s="65">
         <v>82.21</v>
       </c>
-      <c r="J55" s="136"/>
+      <c r="J55" s="133"/>
       <c r="L55" s="71"/>
     </row>
     <row r="56" spans="1:12" ht="15" thickBot="1">
-      <c r="A56" s="124"/>
-      <c r="B56" s="123"/>
+      <c r="A56" s="145"/>
+      <c r="B56" s="144"/>
       <c r="C56" s="25" t="s">
         <v>36</v>
       </c>
@@ -7673,12 +7673,12 @@
       <c r="I56" s="67">
         <v>82.21</v>
       </c>
-      <c r="J56" s="136"/>
+      <c r="J56" s="133"/>
       <c r="L56" s="71"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="124"/>
-      <c r="B57" s="121">
+      <c r="A57" s="145"/>
+      <c r="B57" s="142">
         <v>3</v>
       </c>
       <c r="C57" s="26" t="s">
@@ -7699,15 +7699,15 @@
       <c r="I57" s="64">
         <v>82.21</v>
       </c>
-      <c r="J57" s="136"/>
+      <c r="J57" s="133"/>
       <c r="L57" s="71">
         <f t="shared" ref="L57" si="3">(E57-G57)/E57</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="124"/>
-      <c r="B58" s="122"/>
+      <c r="A58" s="145"/>
+      <c r="B58" s="143"/>
       <c r="C58" s="2" t="s">
         <v>6</v>
       </c>
@@ -7722,12 +7722,12 @@
       <c r="I58" s="65">
         <v>82.21</v>
       </c>
-      <c r="J58" s="136"/>
+      <c r="J58" s="133"/>
       <c r="L58" s="71"/>
     </row>
     <row r="59" spans="1:12" ht="15" thickBot="1">
-      <c r="A59" s="124"/>
-      <c r="B59" s="123"/>
+      <c r="A59" s="145"/>
+      <c r="B59" s="144"/>
       <c r="C59" s="25" t="s">
         <v>36</v>
       </c>
@@ -7742,12 +7742,12 @@
       <c r="I59" s="67">
         <v>82.21</v>
       </c>
-      <c r="J59" s="136"/>
+      <c r="J59" s="133"/>
       <c r="L59" s="71"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="124"/>
-      <c r="B60" s="121">
+      <c r="A60" s="145"/>
+      <c r="B60" s="142">
         <v>4</v>
       </c>
       <c r="C60" s="26" t="s">
@@ -7770,15 +7770,15 @@
       <c r="I60" s="64">
         <v>82.21</v>
       </c>
-      <c r="J60" s="136"/>
+      <c r="J60" s="133"/>
       <c r="L60" s="71">
         <f t="shared" ref="L60" si="4">(E60-G60)/E60</f>
         <v>0.38304392236976509</v>
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="124"/>
-      <c r="B61" s="122"/>
+      <c r="A61" s="145"/>
+      <c r="B61" s="143"/>
       <c r="C61" s="2" t="s">
         <v>6</v>
       </c>
@@ -7791,12 +7791,12 @@
       <c r="I61" s="65">
         <v>82.21</v>
       </c>
-      <c r="J61" s="136"/>
+      <c r="J61" s="133"/>
       <c r="L61" s="71"/>
     </row>
     <row r="62" spans="1:12" ht="15" thickBot="1">
-      <c r="A62" s="124"/>
-      <c r="B62" s="123"/>
+      <c r="A62" s="145"/>
+      <c r="B62" s="144"/>
       <c r="C62" s="25" t="s">
         <v>36</v>
       </c>
@@ -7811,12 +7811,12 @@
       <c r="I62" s="67">
         <v>82.21</v>
       </c>
-      <c r="J62" s="136"/>
+      <c r="J62" s="133"/>
       <c r="L62" s="71"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="124"/>
-      <c r="B63" s="121">
+      <c r="A63" s="145"/>
+      <c r="B63" s="142">
         <v>5</v>
       </c>
       <c r="C63" s="26" t="s">
@@ -7837,15 +7837,15 @@
       <c r="I63" s="64">
         <v>82.21</v>
       </c>
-      <c r="J63" s="136"/>
+      <c r="J63" s="133"/>
       <c r="L63" s="71">
         <f t="shared" ref="L63" si="5">(E63-G63)/E63</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="124"/>
-      <c r="B64" s="122"/>
+      <c r="A64" s="145"/>
+      <c r="B64" s="143"/>
       <c r="C64" s="2" t="s">
         <v>6</v>
       </c>
@@ -7860,12 +7860,12 @@
       <c r="I64" s="65">
         <v>82.21</v>
       </c>
-      <c r="J64" s="136"/>
+      <c r="J64" s="133"/>
       <c r="L64" s="71"/>
     </row>
     <row r="65" spans="1:12" ht="15" thickBot="1">
-      <c r="A65" s="125"/>
-      <c r="B65" s="123"/>
+      <c r="A65" s="146"/>
+      <c r="B65" s="144"/>
       <c r="C65" s="25" t="s">
         <v>36</v>
       </c>
@@ -7880,40 +7880,40 @@
       <c r="I65" s="67">
         <v>82.21</v>
       </c>
-      <c r="J65" s="137"/>
+      <c r="J65" s="134"/>
       <c r="L65" s="71"/>
     </row>
     <row r="67" spans="1:12" ht="15" thickBot="1"/>
     <row r="68" spans="1:12">
-      <c r="A68" s="106" t="s">
+      <c r="A68" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="108" t="s">
+      <c r="B68" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="108" t="s">
+      <c r="C68" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="104" t="s">
+      <c r="D68" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="E68" s="104"/>
-      <c r="F68" s="104" t="s">
+      <c r="E68" s="130"/>
+      <c r="F68" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="G68" s="104"/>
-      <c r="H68" s="104" t="s">
+      <c r="G68" s="130"/>
+      <c r="H68" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="I68" s="104"/>
-      <c r="J68" s="132" t="s">
+      <c r="I68" s="130"/>
+      <c r="J68" s="125" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="107"/>
-      <c r="B69" s="92"/>
-      <c r="C69" s="92"/>
+      <c r="A69" s="148"/>
+      <c r="B69" s="116"/>
+      <c r="C69" s="116"/>
       <c r="D69" s="1" t="s">
         <v>20</v>
       </c>
@@ -7932,13 +7932,13 @@
       <c r="I69" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J69" s="133"/>
+      <c r="J69" s="126"/>
     </row>
     <row r="70" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A70" s="111" t="s">
+      <c r="A70" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="B70" s="84">
+      <c r="B70" s="112">
         <v>2</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -7949,19 +7949,19 @@
       <c r="F70" s="2"/>
       <c r="G70" s="33"/>
       <c r="H70" s="16">
-        <f>I70/4</f>
-        <v>13.4275</v>
+        <f>I70/2</f>
+        <v>26.855</v>
       </c>
       <c r="I70" s="2">
         <v>53.71</v>
       </c>
-      <c r="J70" s="134" t="s">
+      <c r="J70" s="131" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="111"/>
-      <c r="B71" s="84"/>
+      <c r="A71" s="140"/>
+      <c r="B71" s="112"/>
       <c r="C71" s="2" t="s">
         <v>6</v>
       </c>
@@ -7971,11 +7971,11 @@
       <c r="G71" s="33"/>
       <c r="H71" s="16"/>
       <c r="I71" s="2"/>
-      <c r="J71" s="134"/>
+      <c r="J71" s="131"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="111"/>
-      <c r="B72" s="84"/>
+      <c r="A72" s="140"/>
+      <c r="B72" s="112"/>
       <c r="C72" s="2" t="s">
         <v>36</v>
       </c>
@@ -7985,11 +7985,11 @@
       <c r="G72" s="33"/>
       <c r="H72" s="16"/>
       <c r="I72" s="2"/>
-      <c r="J72" s="134"/>
+      <c r="J72" s="131"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="111"/>
-      <c r="B73" s="84">
+      <c r="A73" s="140"/>
+      <c r="B73" s="112">
         <v>3</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -8004,17 +8004,17 @@
       <c r="F73" s="2"/>
       <c r="G73" s="33"/>
       <c r="H73" s="16">
-        <f>I73/5</f>
-        <v>10.742000000000001</v>
+        <f>I73/3</f>
+        <v>17.903333333333332</v>
       </c>
       <c r="I73" s="2">
         <v>53.71</v>
       </c>
-      <c r="J73" s="134"/>
+      <c r="J73" s="131"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="111"/>
-      <c r="B74" s="84"/>
+      <c r="A74" s="140"/>
+      <c r="B74" s="112"/>
       <c r="C74" s="2" t="s">
         <v>6</v>
       </c>
@@ -8024,11 +8024,11 @@
       <c r="G74" s="33"/>
       <c r="H74" s="16"/>
       <c r="I74" s="2"/>
-      <c r="J74" s="134"/>
+      <c r="J74" s="131"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="111"/>
-      <c r="B75" s="84"/>
+      <c r="A75" s="140"/>
+      <c r="B75" s="112"/>
       <c r="C75" s="2" t="s">
         <v>36</v>
       </c>
@@ -8038,11 +8038,11 @@
       <c r="G75" s="33"/>
       <c r="H75" s="16"/>
       <c r="I75" s="2"/>
-      <c r="J75" s="134"/>
+      <c r="J75" s="131"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="111"/>
-      <c r="B76" s="84">
+      <c r="A76" s="140"/>
+      <c r="B76" s="112">
         <v>4</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -8067,11 +8067,11 @@
       <c r="I76" s="2">
         <v>53.71</v>
       </c>
-      <c r="J76" s="134"/>
+      <c r="J76" s="131"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="111"/>
-      <c r="B77" s="84"/>
+      <c r="A77" s="140"/>
+      <c r="B77" s="112"/>
       <c r="C77" s="2" t="s">
         <v>6</v>
       </c>
@@ -8081,11 +8081,11 @@
       <c r="G77" s="33"/>
       <c r="H77" s="16"/>
       <c r="I77" s="2"/>
-      <c r="J77" s="134"/>
+      <c r="J77" s="131"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="111"/>
-      <c r="B78" s="84"/>
+      <c r="A78" s="140"/>
+      <c r="B78" s="112"/>
       <c r="C78" s="2" t="s">
         <v>36</v>
       </c>
@@ -8095,11 +8095,11 @@
       <c r="G78" s="33"/>
       <c r="H78" s="16"/>
       <c r="I78" s="2"/>
-      <c r="J78" s="134"/>
+      <c r="J78" s="131"/>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="111"/>
-      <c r="B79" s="84">
+      <c r="A79" s="140"/>
+      <c r="B79" s="112">
         <v>5</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -8124,11 +8124,11 @@
       <c r="I79" s="2">
         <v>53.71</v>
       </c>
-      <c r="J79" s="134"/>
+      <c r="J79" s="131"/>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="111"/>
-      <c r="B80" s="84"/>
+      <c r="A80" s="140"/>
+      <c r="B80" s="112"/>
       <c r="C80" s="2" t="s">
         <v>6</v>
       </c>
@@ -8138,11 +8138,11 @@
       <c r="G80" s="33"/>
       <c r="H80" s="16"/>
       <c r="I80" s="2"/>
-      <c r="J80" s="134"/>
+      <c r="J80" s="131"/>
     </row>
     <row r="81" spans="1:12" ht="15" thickBot="1">
-      <c r="A81" s="112"/>
-      <c r="B81" s="126"/>
+      <c r="A81" s="141"/>
+      <c r="B81" s="138"/>
       <c r="C81" s="25" t="s">
         <v>36</v>
       </c>
@@ -8152,41 +8152,41 @@
       <c r="G81" s="34"/>
       <c r="H81" s="54"/>
       <c r="I81" s="25"/>
-      <c r="J81" s="148"/>
+      <c r="J81" s="167"/>
     </row>
     <row r="84" spans="1:12" ht="15" thickBot="1"/>
     <row r="85" spans="1:12">
-      <c r="A85" s="146" t="s">
+      <c r="A85" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="108" t="s">
+      <c r="B85" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="C85" s="108" t="s">
+      <c r="C85" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="D85" s="104" t="s">
+      <c r="D85" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="E85" s="104"/>
-      <c r="F85" s="104"/>
-      <c r="G85" s="104" t="s">
+      <c r="E85" s="130"/>
+      <c r="F85" s="130"/>
+      <c r="G85" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="H85" s="104"/>
-      <c r="I85" s="104"/>
-      <c r="J85" s="104" t="s">
+      <c r="H85" s="130"/>
+      <c r="I85" s="130"/>
+      <c r="J85" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="K85" s="104"/>
-      <c r="L85" s="132" t="s">
+      <c r="K85" s="130"/>
+      <c r="L85" s="125" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="147"/>
-      <c r="B86" s="92"/>
-      <c r="C86" s="92"/>
+      <c r="A86" s="171"/>
+      <c r="B86" s="116"/>
+      <c r="C86" s="116"/>
       <c r="D86" s="59" t="s">
         <v>54</v>
       </c>
@@ -8211,13 +8211,13 @@
       <c r="K86" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L86" s="133"/>
+      <c r="L86" s="126"/>
     </row>
     <row r="87" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A87" s="144" t="s">
+      <c r="A87" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="B87" s="84">
+      <c r="B87" s="112">
         <v>2</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -8231,13 +8231,13 @@
       <c r="I87" s="33"/>
       <c r="J87" s="16"/>
       <c r="K87" s="2"/>
-      <c r="L87" s="134" t="s">
+      <c r="L87" s="131" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="139"/>
-      <c r="B88" s="84"/>
+      <c r="A88" s="162"/>
+      <c r="B88" s="112"/>
       <c r="C88" s="2" t="s">
         <v>6</v>
       </c>
@@ -8249,11 +8249,11 @@
       <c r="I88" s="33"/>
       <c r="J88" s="16"/>
       <c r="K88" s="2"/>
-      <c r="L88" s="134"/>
+      <c r="L88" s="131"/>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="139"/>
-      <c r="B89" s="84"/>
+      <c r="A89" s="162"/>
+      <c r="B89" s="112"/>
       <c r="C89" s="2" t="s">
         <v>36</v>
       </c>
@@ -8265,11 +8265,11 @@
       <c r="I89" s="33"/>
       <c r="J89" s="16"/>
       <c r="K89" s="2"/>
-      <c r="L89" s="134"/>
+      <c r="L89" s="131"/>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="139"/>
-      <c r="B90" s="84">
+      <c r="A90" s="162"/>
+      <c r="B90" s="112">
         <v>3</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -8295,11 +8295,11 @@
       </c>
       <c r="J90" s="16"/>
       <c r="K90" s="2"/>
-      <c r="L90" s="134"/>
+      <c r="L90" s="131"/>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="139"/>
-      <c r="B91" s="84"/>
+      <c r="A91" s="162"/>
+      <c r="B91" s="112"/>
       <c r="C91" s="2" t="s">
         <v>6</v>
       </c>
@@ -8311,11 +8311,11 @@
       <c r="I91" s="33"/>
       <c r="J91" s="16"/>
       <c r="K91" s="2"/>
-      <c r="L91" s="134"/>
+      <c r="L91" s="131"/>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="139"/>
-      <c r="B92" s="84"/>
+      <c r="A92" s="162"/>
+      <c r="B92" s="112"/>
       <c r="C92" s="2" t="s">
         <v>36</v>
       </c>
@@ -8327,11 +8327,11 @@
       <c r="I92" s="33"/>
       <c r="J92" s="16"/>
       <c r="K92" s="2"/>
-      <c r="L92" s="134"/>
+      <c r="L92" s="131"/>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="139"/>
-      <c r="B93" s="84">
+      <c r="A93" s="162"/>
+      <c r="B93" s="112">
         <v>4</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -8357,11 +8357,11 @@
       </c>
       <c r="J93" s="16"/>
       <c r="K93" s="2"/>
-      <c r="L93" s="134"/>
+      <c r="L93" s="131"/>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="139"/>
-      <c r="B94" s="84"/>
+      <c r="A94" s="162"/>
+      <c r="B94" s="112"/>
       <c r="C94" s="2" t="s">
         <v>6</v>
       </c>
@@ -8373,11 +8373,11 @@
       <c r="I94" s="33"/>
       <c r="J94" s="16"/>
       <c r="K94" s="2"/>
-      <c r="L94" s="134"/>
+      <c r="L94" s="131"/>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="139"/>
-      <c r="B95" s="84"/>
+      <c r="A95" s="162"/>
+      <c r="B95" s="112"/>
       <c r="C95" s="2" t="s">
         <v>36</v>
       </c>
@@ -8389,11 +8389,11 @@
       <c r="I95" s="33"/>
       <c r="J95" s="16"/>
       <c r="K95" s="2"/>
-      <c r="L95" s="134"/>
+      <c r="L95" s="131"/>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="139"/>
-      <c r="B96" s="84">
+      <c r="A96" s="162"/>
+      <c r="B96" s="112">
         <v>5</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -8419,11 +8419,11 @@
       </c>
       <c r="J96" s="16"/>
       <c r="K96" s="2"/>
-      <c r="L96" s="134"/>
+      <c r="L96" s="131"/>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="139"/>
-      <c r="B97" s="84"/>
+      <c r="A97" s="162"/>
+      <c r="B97" s="112"/>
       <c r="C97" s="2" t="s">
         <v>6</v>
       </c>
@@ -8435,11 +8435,11 @@
       <c r="I97" s="33"/>
       <c r="J97" s="16"/>
       <c r="K97" s="2"/>
-      <c r="L97" s="134"/>
+      <c r="L97" s="131"/>
     </row>
     <row r="98" spans="1:12" ht="15" thickBot="1">
-      <c r="A98" s="145"/>
-      <c r="B98" s="126"/>
+      <c r="A98" s="169"/>
+      <c r="B98" s="138"/>
       <c r="C98" s="25" t="s">
         <v>36</v>
       </c>
@@ -8451,33 +8451,47 @@
       <c r="I98" s="34"/>
       <c r="J98" s="54"/>
       <c r="K98" s="25"/>
-      <c r="L98" s="148"/>
+      <c r="L98" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="J54:J65"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="J25:J36"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A87:A98"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="L87:L98"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="J70:J81"/>
+    <mergeCell ref="A70:A81"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="J42:J47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="J23:J24"/>
     <mergeCell ref="A25:A36"/>
@@ -8494,43 +8508,29 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="J42:J47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="J70:J81"/>
-    <mergeCell ref="A70:A81"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="A87:A98"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="L87:L98"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="J25:J36"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="J54:J65"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L25:L34">
@@ -8598,8 +8598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9AC82D-CE07-4D4C-BB8B-FDF03F421D67}">
   <dimension ref="A3:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8615,57 +8615,57 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" ht="15" thickBot="1">
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="159" t="s">
+      <c r="E4" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="159" t="s">
+      <c r="F4" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="159" t="s">
+      <c r="G4" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="160" t="s">
+      <c r="H4" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="163"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="161"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="89"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="168" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="114">
+      <c r="B5" s="157">
         <v>5</v>
       </c>
-      <c r="C5" s="158" t="b">
+      <c r="C5" s="86" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="158" t="b">
+      <c r="D5" s="86" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="171">
+      <c r="E5" s="94">
         <v>13.534421000003929</v>
       </c>
       <c r="F5" s="28">
@@ -8674,25 +8674,25 @@
       <c r="G5" s="28">
         <v>17.635999999999999</v>
       </c>
-      <c r="H5" s="172">
+      <c r="H5" s="95">
         <v>6.8170000000000002</v>
       </c>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="161"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="172"/>
+      <c r="N5" s="89"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="154"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="158" t="b">
+      <c r="A6" s="173"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="86" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="158" t="b">
+      <c r="D6" s="86" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="173">
+      <c r="E6" s="96">
         <v>15.35710109999491</v>
       </c>
       <c r="F6" s="18">
@@ -8701,81 +8701,81 @@
       <c r="G6" s="18">
         <v>16.847999999999999</v>
       </c>
-      <c r="H6" s="174">
+      <c r="H6" s="97">
         <v>5.6790000000000003</v>
       </c>
-      <c r="J6" s="164"/>
-      <c r="K6" s="165"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="161"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="89"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="154"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="178" t="b">
+      <c r="A7" s="173"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="101" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="178" t="b">
+      <c r="D7" s="101" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="179">
+      <c r="E7" s="102">
         <v>18.361361299997949</v>
       </c>
-      <c r="F7" s="180">
+      <c r="F7" s="103">
         <v>742.42424242424238</v>
       </c>
-      <c r="G7" s="180">
+      <c r="G7" s="103">
         <v>16.727</v>
       </c>
-      <c r="H7" s="174">
+      <c r="H7" s="97">
         <v>5.7590000000000003</v>
       </c>
-      <c r="J7" s="164"/>
-      <c r="K7" s="165"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="161"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="183"/>
+      <c r="N7" s="89"/>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1">
-      <c r="A8" s="154"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="158" t="b">
+      <c r="A8" s="173"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="86" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="158" t="b">
+      <c r="D8" s="86" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="175">
+      <c r="E8" s="98">
         <v>15.918344899997461</v>
       </c>
-      <c r="F8" s="176">
+      <c r="F8" s="99">
         <v>636.78787878787875</v>
       </c>
-      <c r="G8" s="176">
+      <c r="G8" s="99">
         <v>16.788</v>
       </c>
-      <c r="H8" s="177">
+      <c r="H8" s="100">
         <v>5.73</v>
       </c>
-      <c r="J8" s="164"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="161"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="89"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="154"/>
-      <c r="B9" s="114">
+      <c r="A9" s="173"/>
+      <c r="B9" s="157">
         <v>4</v>
       </c>
-      <c r="C9" s="158" t="b">
+      <c r="C9" s="86" t="b">
         <v>1</v>
       </c>
-      <c r="D9" s="158" t="b">
+      <c r="D9" s="86" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="171">
+      <c r="E9" s="94">
         <v>9.4834498999989592</v>
       </c>
       <c r="F9" s="28">
@@ -8784,25 +8784,25 @@
       <c r="G9" s="28">
         <v>23.091000000000001</v>
       </c>
-      <c r="H9" s="172">
+      <c r="H9" s="95">
         <v>8.5190000000000001</v>
       </c>
-      <c r="J9" s="164"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="166"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="161"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="89"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="154"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="158" t="b">
+      <c r="A10" s="173"/>
+      <c r="B10" s="151"/>
+      <c r="C10" s="86" t="b">
         <v>1</v>
       </c>
-      <c r="D10" s="158" t="b">
+      <c r="D10" s="86" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="173">
+      <c r="E10" s="96">
         <v>9.9884426999997231</v>
       </c>
       <c r="F10" s="18">
@@ -8811,81 +8811,81 @@
       <c r="G10" s="18">
         <v>21.939</v>
       </c>
-      <c r="H10" s="174">
+      <c r="H10" s="97">
         <v>7.5069999999999997</v>
       </c>
-      <c r="J10" s="164"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="167"/>
-      <c r="N10" s="161"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="89"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="154"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="178" t="b">
+      <c r="A11" s="173"/>
+      <c r="B11" s="151"/>
+      <c r="C11" s="101" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="178" t="b">
+      <c r="D11" s="101" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="179">
+      <c r="E11" s="102">
         <v>10.377834700004311</v>
       </c>
-      <c r="F11" s="180">
+      <c r="F11" s="103">
         <v>246.06060606060609</v>
       </c>
-      <c r="G11" s="180">
+      <c r="G11" s="103">
         <v>21.908999999999999</v>
       </c>
-      <c r="H11" s="174">
+      <c r="H11" s="97">
         <v>7.5330000000000004</v>
       </c>
-      <c r="J11" s="164"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="166"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="161"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="183"/>
+      <c r="N11" s="89"/>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1">
-      <c r="A12" s="154"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="158" t="b">
+      <c r="A12" s="173"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="86" t="b">
         <v>0</v>
       </c>
-      <c r="D12" s="158" t="b">
+      <c r="D12" s="86" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="175">
+      <c r="E12" s="98">
         <v>10.60377069999959</v>
       </c>
-      <c r="F12" s="176">
+      <c r="F12" s="99">
         <v>249.5151515151515</v>
       </c>
-      <c r="G12" s="176">
+      <c r="G12" s="99">
         <v>21.908999999999999</v>
       </c>
-      <c r="H12" s="177">
+      <c r="H12" s="100">
         <v>7.5330000000000004</v>
       </c>
-      <c r="J12" s="164"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="167"/>
-      <c r="N12" s="161"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="183"/>
+      <c r="N12" s="89"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="154"/>
-      <c r="B13" s="114">
+      <c r="A13" s="173"/>
+      <c r="B13" s="157">
         <v>3</v>
       </c>
-      <c r="C13" s="158" t="b">
+      <c r="C13" s="86" t="b">
         <v>1</v>
       </c>
-      <c r="D13" s="158" t="b">
+      <c r="D13" s="86" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="171">
+      <c r="E13" s="94">
         <v>5.4785776999997324</v>
       </c>
       <c r="F13" s="28">
@@ -8894,52 +8894,52 @@
       <c r="G13" s="28">
         <v>28.515000000000001</v>
       </c>
-      <c r="H13" s="172">
+      <c r="H13" s="95">
         <v>5.5880000000000001</v>
       </c>
-      <c r="J13" s="164"/>
-      <c r="K13" s="165"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="167"/>
-      <c r="N13" s="161"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="183"/>
+      <c r="N13" s="89"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="154"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="178" t="b">
+      <c r="A14" s="173"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="101" t="b">
         <v>1</v>
       </c>
-      <c r="D14" s="178" t="b">
+      <c r="D14" s="101" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="179">
+      <c r="E14" s="102">
         <v>6.2929675000050338</v>
       </c>
-      <c r="F14" s="180">
+      <c r="F14" s="103">
         <v>155.39393939393941</v>
       </c>
-      <c r="G14" s="180">
+      <c r="G14" s="103">
         <v>27.576000000000001</v>
       </c>
-      <c r="H14" s="174">
+      <c r="H14" s="97">
         <v>5.9550000000000001</v>
       </c>
-      <c r="J14" s="164"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="166"/>
-      <c r="M14" s="167"/>
-      <c r="N14" s="161"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="183"/>
+      <c r="N14" s="89"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="154"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="158" t="b">
+      <c r="A15" s="173"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="86" t="b">
         <v>0</v>
       </c>
-      <c r="D15" s="158" t="b">
+      <c r="D15" s="86" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="173">
+      <c r="E15" s="96">
         <v>9.5221793000018806</v>
       </c>
       <c r="F15" s="18">
@@ -8948,54 +8948,54 @@
       <c r="G15" s="18">
         <v>27.576000000000001</v>
       </c>
-      <c r="H15" s="174">
+      <c r="H15" s="97">
         <v>5.9550000000000001</v>
       </c>
-      <c r="J15" s="164"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="166"/>
-      <c r="M15" s="167"/>
-      <c r="N15" s="161"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="89"/>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1">
-      <c r="A16" s="154"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="158" t="b">
+      <c r="A16" s="173"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="86" t="b">
         <v>0</v>
       </c>
-      <c r="D16" s="158" t="b">
+      <c r="D16" s="86" t="b">
         <v>0</v>
       </c>
-      <c r="E16" s="175">
+      <c r="E16" s="98">
         <v>10.261714800006301</v>
       </c>
-      <c r="F16" s="176">
+      <c r="F16" s="99">
         <v>195.90909090909091</v>
       </c>
-      <c r="G16" s="176">
+      <c r="G16" s="99">
         <v>27.576000000000001</v>
       </c>
-      <c r="H16" s="177">
+      <c r="H16" s="100">
         <v>5.9550000000000001</v>
       </c>
-      <c r="J16" s="164"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="167"/>
-      <c r="N16" s="161"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="89"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="154"/>
-      <c r="B17" s="168">
+      <c r="A17" s="173"/>
+      <c r="B17" s="180">
         <v>2</v>
       </c>
-      <c r="C17" s="158" t="b">
+      <c r="C17" s="86" t="b">
         <v>1</v>
       </c>
-      <c r="D17" s="158" t="b">
+      <c r="D17" s="86" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="171">
+      <c r="E17" s="94">
         <v>2.4768581999960588</v>
       </c>
       <c r="F17" s="28">
@@ -9004,25 +9004,25 @@
       <c r="G17" s="28">
         <v>36.878999999999998</v>
       </c>
-      <c r="H17" s="172">
+      <c r="H17" s="95">
         <v>5.0019999999999998</v>
       </c>
-      <c r="J17" s="164"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="166"/>
-      <c r="M17" s="167"/>
-      <c r="N17" s="161"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="89"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="154"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="158" t="b">
+      <c r="A18" s="173"/>
+      <c r="B18" s="181"/>
+      <c r="C18" s="86" t="b">
         <v>1</v>
       </c>
-      <c r="D18" s="158" t="b">
+      <c r="D18" s="86" t="b">
         <v>0</v>
       </c>
-      <c r="E18" s="173">
+      <c r="E18" s="96">
         <v>4.5269607999944128</v>
       </c>
       <c r="F18" s="18">
@@ -9031,25 +9031,25 @@
       <c r="G18" s="18">
         <v>35.454999999999998</v>
       </c>
-      <c r="H18" s="174">
+      <c r="H18" s="97">
         <v>4.593</v>
       </c>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="154"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="158" t="b">
+      <c r="A19" s="173"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="86" t="b">
         <v>0</v>
       </c>
-      <c r="D19" s="158" t="b">
+      <c r="D19" s="86" t="b">
         <v>1</v>
       </c>
-      <c r="E19" s="173">
+      <c r="E19" s="96">
         <v>9.1129355000011856</v>
       </c>
       <c r="F19" s="18">
@@ -9058,221 +9058,221 @@
       <c r="G19" s="18">
         <v>35.423999999999999</v>
       </c>
-      <c r="H19" s="174">
+      <c r="H19" s="97">
         <v>4.665</v>
       </c>
-      <c r="J19" s="163"/>
-      <c r="K19" s="162"/>
-      <c r="L19" s="162"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="161"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="172"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="172"/>
+      <c r="N19" s="89"/>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1">
-      <c r="A20" s="155"/>
-      <c r="B20" s="170"/>
-      <c r="C20" s="181" t="b">
+      <c r="A20" s="174"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="104" t="b">
         <v>0</v>
       </c>
-      <c r="D20" s="181" t="b">
+      <c r="D20" s="104" t="b">
         <v>0</v>
       </c>
-      <c r="E20" s="182">
+      <c r="E20" s="105">
         <v>8.1799360000004526</v>
       </c>
-      <c r="F20" s="183">
+      <c r="F20" s="106">
         <v>24.151515151515149</v>
       </c>
-      <c r="G20" s="183">
+      <c r="G20" s="106">
         <v>35.363999999999997</v>
       </c>
-      <c r="H20" s="177">
+      <c r="H20" s="100">
         <v>4.657</v>
       </c>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="161"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="172"/>
+      <c r="N20" s="89"/>
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A21" s="152"/>
+      <c r="A21" s="175"/>
       <c r="B21" s="77"/>
-      <c r="C21" s="151"/>
+      <c r="C21" s="176"/>
       <c r="D21" s="78"/>
       <c r="E21" s="79"/>
       <c r="F21" s="79"/>
       <c r="G21" s="80"/>
       <c r="H21" s="81"/>
       <c r="I21" s="78"/>
-      <c r="J21" s="149"/>
+      <c r="J21" s="178"/>
       <c r="K21" s="81"/>
       <c r="L21" s="78"/>
-      <c r="M21" s="153"/>
+      <c r="M21" s="177"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="152"/>
+      <c r="A22" s="175"/>
       <c r="B22" s="77"/>
-      <c r="C22" s="151"/>
+      <c r="C22" s="176"/>
       <c r="D22" s="78"/>
       <c r="E22" s="79"/>
       <c r="F22" s="79"/>
       <c r="G22" s="80"/>
       <c r="H22" s="81"/>
       <c r="I22" s="78"/>
-      <c r="J22" s="150"/>
+      <c r="J22" s="179"/>
       <c r="K22" s="81"/>
       <c r="L22" s="78"/>
-      <c r="M22" s="153"/>
+      <c r="M22" s="177"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="152"/>
+      <c r="A23" s="175"/>
       <c r="B23" s="77"/>
-      <c r="C23" s="151"/>
+      <c r="C23" s="176"/>
       <c r="D23" s="78"/>
       <c r="E23" s="78"/>
       <c r="F23" s="78"/>
       <c r="G23" s="82"/>
       <c r="H23" s="81"/>
       <c r="I23" s="78"/>
-      <c r="J23" s="150"/>
+      <c r="J23" s="179"/>
       <c r="K23" s="81"/>
       <c r="L23" s="78"/>
-      <c r="M23" s="153"/>
+      <c r="M23" s="177"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="152"/>
+      <c r="A24" s="175"/>
       <c r="B24" s="77"/>
-      <c r="C24" s="151"/>
+      <c r="C24" s="176"/>
       <c r="D24" s="78"/>
       <c r="E24" s="79"/>
       <c r="F24" s="79"/>
       <c r="G24" s="80"/>
       <c r="H24" s="81"/>
       <c r="I24" s="78"/>
-      <c r="J24" s="150"/>
+      <c r="J24" s="179"/>
       <c r="K24" s="81"/>
       <c r="L24" s="78"/>
-      <c r="M24" s="153"/>
+      <c r="M24" s="177"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="152"/>
+      <c r="A25" s="175"/>
       <c r="B25" s="77"/>
-      <c r="C25" s="151"/>
+      <c r="C25" s="176"/>
       <c r="D25" s="78"/>
       <c r="E25" s="83"/>
       <c r="F25" s="83"/>
       <c r="G25" s="80"/>
       <c r="H25" s="81"/>
       <c r="I25" s="78"/>
-      <c r="J25" s="150"/>
+      <c r="J25" s="179"/>
       <c r="K25" s="81"/>
       <c r="L25" s="78"/>
-      <c r="M25" s="153"/>
+      <c r="M25" s="177"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="152"/>
+      <c r="A26" s="175"/>
       <c r="B26" s="77"/>
-      <c r="C26" s="151"/>
+      <c r="C26" s="176"/>
       <c r="D26" s="78"/>
       <c r="E26" s="79"/>
       <c r="F26" s="79"/>
       <c r="G26" s="80"/>
       <c r="H26" s="81"/>
       <c r="I26" s="78"/>
-      <c r="J26" s="150"/>
+      <c r="J26" s="179"/>
       <c r="K26" s="81"/>
       <c r="L26" s="78"/>
-      <c r="M26" s="153"/>
+      <c r="M26" s="177"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="152"/>
+      <c r="A27" s="175"/>
       <c r="B27" s="77"/>
-      <c r="C27" s="151"/>
+      <c r="C27" s="176"/>
       <c r="D27" s="78"/>
       <c r="E27" s="79"/>
       <c r="F27" s="79"/>
       <c r="G27" s="80"/>
       <c r="H27" s="81"/>
       <c r="I27" s="78"/>
-      <c r="J27" s="150"/>
+      <c r="J27" s="179"/>
       <c r="K27" s="81"/>
       <c r="L27" s="78"/>
-      <c r="M27" s="153"/>
+      <c r="M27" s="177"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="152"/>
+      <c r="A28" s="175"/>
       <c r="B28" s="77"/>
-      <c r="C28" s="151"/>
+      <c r="C28" s="176"/>
       <c r="D28" s="78"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="76"/>
       <c r="H28" s="81"/>
       <c r="I28" s="78"/>
-      <c r="J28" s="150"/>
+      <c r="J28" s="179"/>
       <c r="K28" s="81"/>
       <c r="L28" s="78"/>
-      <c r="M28" s="153"/>
+      <c r="M28" s="177"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="152"/>
+      <c r="A29" s="175"/>
       <c r="B29" s="77"/>
-      <c r="C29" s="151"/>
+      <c r="C29" s="176"/>
       <c r="D29" s="78"/>
       <c r="E29" s="79"/>
       <c r="F29" s="79"/>
       <c r="G29" s="80"/>
       <c r="H29" s="81"/>
       <c r="I29" s="78"/>
-      <c r="J29" s="150"/>
+      <c r="J29" s="179"/>
       <c r="K29" s="81"/>
       <c r="L29" s="78"/>
-      <c r="M29" s="153"/>
+      <c r="M29" s="177"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="152"/>
+      <c r="A30" s="175"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="151"/>
+      <c r="C30" s="176"/>
       <c r="D30" s="78"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="80"/>
       <c r="H30" s="81"/>
       <c r="I30" s="78"/>
-      <c r="J30" s="150"/>
+      <c r="J30" s="179"/>
       <c r="K30" s="81"/>
       <c r="L30" s="78"/>
-      <c r="M30" s="153"/>
+      <c r="M30" s="177"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="152"/>
+      <c r="A31" s="175"/>
       <c r="B31" s="77"/>
-      <c r="C31" s="151"/>
+      <c r="C31" s="176"/>
       <c r="D31" s="78"/>
       <c r="E31" s="78"/>
       <c r="F31" s="78"/>
       <c r="G31" s="80"/>
       <c r="H31" s="81"/>
       <c r="I31" s="78"/>
-      <c r="J31" s="150"/>
+      <c r="J31" s="179"/>
       <c r="K31" s="81"/>
       <c r="L31" s="78"/>
-      <c r="M31" s="153"/>
+      <c r="M31" s="177"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="152"/>
+      <c r="A32" s="175"/>
       <c r="B32" s="77"/>
-      <c r="C32" s="151"/>
+      <c r="C32" s="176"/>
       <c r="D32" s="78"/>
       <c r="E32" s="78"/>
       <c r="F32" s="78"/>
       <c r="G32" s="80"/>
       <c r="H32" s="81"/>
       <c r="I32" s="78"/>
-      <c r="J32" s="150"/>
+      <c r="J32" s="179"/>
       <c r="K32" s="81"/>
       <c r="L32" s="78"/>
-      <c r="M32" s="153"/>
+      <c r="M32" s="177"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="76"/>
@@ -9304,11 +9304,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="M6:M17"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="A5:A20"/>
@@ -9321,6 +9316,11 @@
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="J21:J32"/>
     <mergeCell ref="C30:C32"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E5:E8">
